--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>fileId</t>
   </si>
@@ -188,7 +188,7 @@
     <t>chgPowerCircle3</t>
   </si>
   <si>
-    <t>s__562228563_refdep</t>
+    <t>o_1310352000</t>
   </si>
   <si>
     <t>effect_hero_foot</t>
@@ -632,7 +632,13 @@
     <t>GuideWindow</t>
   </si>
   <si>
+    <t>o__835248780</t>
+  </si>
+  <si>
     <t>LobbyWindow</t>
+  </si>
+  <si>
+    <t>o__1876881176</t>
   </si>
   <si>
     <t>MessageBoxWindow</t>
@@ -4084,7 +4090,7 @@
         <v>22</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="F150" s="3">
         <v>15</v>
@@ -4098,13 +4104,13 @@
         <v>-1392412074</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="F151" s="3">
         <v>15</v>
@@ -4118,7 +4124,7 @@
         <v>-833208201</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>22</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>fileId</t>
   </si>
@@ -188,7 +188,7 @@
     <t>chgPowerCircle3</t>
   </si>
   <si>
-    <t>o_1310352000</t>
+    <t>s__562228563_refdep</t>
   </si>
   <si>
     <t>effect_hero_foot</t>
@@ -632,13 +632,7 @@
     <t>GuideWindow</t>
   </si>
   <si>
-    <t>o__835248780</t>
-  </si>
-  <si>
     <t>LobbyWindow</t>
-  </si>
-  <si>
-    <t>o__1876881176</t>
   </si>
   <si>
     <t>MessageBoxWindow</t>
@@ -4090,7 +4084,7 @@
         <v>22</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>199</v>
+        <v>51</v>
       </c>
       <c r="F150" s="3">
         <v>15</v>
@@ -4104,13 +4098,13 @@
         <v>-1392412074</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="F151" s="3">
         <v>15</v>
@@ -4124,7 +4118,7 @@
         <v>-833208201</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>22</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>fileId</t>
   </si>
@@ -642,6 +642,24 @@
   </si>
   <si>
     <t>MessageBoxWindow</t>
+  </si>
+  <si>
+    <t>StrayFogXLuaLevel.xlua</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t>x__1321329469</t>
+  </si>
+  <si>
+    <t>ZGameXLua</t>
+  </si>
+  <si>
+    <t>.asmdef</t>
+  </si>
+  <si>
+    <t>o__2059779511</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -4136,6 +4154,46 @@
         <v>15</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="3">
+        <v>-1566411474</v>
+      </c>
+      <c r="B153" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F153" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3">
+        <v>-1875775309</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1387960939</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F154" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD3">

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>fileId</t>
   </si>
@@ -651,15 +651,6 @@
   </si>
   <si>
     <t>x__1321329469</t>
-  </si>
-  <si>
-    <t>ZGameXLua</t>
-  </si>
-  <si>
-    <t>.asmdef</t>
-  </si>
-  <si>
-    <t>o__2059779511</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -4174,26 +4165,6 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="3">
-        <v>-1875775309</v>
-      </c>
-      <c r="B154" s="3">
-        <v>1387960939</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F154" s="3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD3">

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -644,7 +644,7 @@
     <t>MessageBoxWindow</t>
   </si>
   <si>
-    <t>StrayFogXLuaLevel.xlua</t>
+    <t>StrayFogXLuaLevel.lua</t>
   </si>
   <si>
     <t>.txt</t>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>-1566411474</v>
+        <v>1735911982</v>
       </c>
       <c r="B153" s="3">
         <v>401643752</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -650,7 +650,7 @@
     <t>.txt</t>
   </si>
   <si>
-    <t>x__1321329469</t>
+    <t>x_1467252364</t>
   </si>
 </sst>
 </file>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>fileId</t>
   </si>
@@ -635,6 +635,12 @@
     <t>o__835248780</t>
   </si>
   <si>
+    <t>HeroListWindow</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>LobbyWindow</t>
   </si>
   <si>
@@ -650,7 +656,10 @@
     <t>.txt</t>
   </si>
   <si>
-    <t>x_1467252364</t>
+    <t>x__630209428</t>
+  </si>
+  <si>
+    <t>StrayFogXLuaLevelFunction.lua</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -4107,10 +4116,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-1625153888</v>
+        <v>-841801683</v>
       </c>
       <c r="B151" s="3">
-        <v>-1392412074</v>
+        <v>-1493566452</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>200</v>
@@ -4127,10 +4136,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>1299702156</v>
+        <v>-1625153888</v>
       </c>
       <c r="B152" s="3">
-        <v>-833208201</v>
+        <v>-1392412074</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>202</v>
@@ -4139,7 +4148,7 @@
         <v>22</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="F152" s="3">
         <v>15</v>
@@ -4147,21 +4156,61 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
+        <v>1299702156</v>
+      </c>
+      <c r="B153" s="3">
+        <v>-833208201</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F153" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="3">
         <v>1735911982</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B154" s="3">
         <v>401643752</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E153" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F153" s="3">
+      <c r="D154" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F154" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="3">
+        <v>-510167203</v>
+      </c>
+      <c r="B155" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F155" s="3">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>fileId</t>
   </si>
@@ -648,6 +648,9 @@
   </si>
   <si>
     <t>MessageBoxWindow</t>
+  </si>
+  <si>
+    <t>PlayerListWindow</t>
   </si>
   <si>
     <t>StrayFogXLuaLevel.lua</t>
@@ -1098,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -4176,41 +4179,61 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>1735911982</v>
+        <v>-552127726</v>
       </c>
       <c r="B154" s="3">
-        <v>401643752</v>
+        <v>-234066055</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>205</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F154" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>-510167203</v>
+        <v>1735911982</v>
       </c>
       <c r="B155" s="3">
         <v>401643752</v>
       </c>
       <c r="C155" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E155" s="3" t="s">
+      <c r="F155" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="3">
+        <v>-510167203</v>
+      </c>
+      <c r="B156" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F155" s="3">
+      <c r="E156" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F156" s="3">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
   <si>
     <t>fileId</t>
   </si>
@@ -158,6 +158,12 @@
     <t>s_1730613532</t>
   </si>
   <si>
+    <t>ExampleUIWindow</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>ExampleXLS</t>
   </si>
   <si>
@@ -636,9 +642,6 @@
   </si>
   <si>
     <t>HeroListWindow</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>LobbyWindow</t>
@@ -1101,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>2045054782</v>
+        <v>-296649783</v>
       </c>
       <c r="B15" s="3">
         <v>-1643264599</v>
@@ -1419,7 +1422,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-699454701</v>
+        <v>2045054782</v>
       </c>
       <c r="B16" s="3">
         <v>-1643264599</v>
@@ -1439,36 +1442,36 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>252311722</v>
+        <v>-699454701</v>
       </c>
       <c r="B17" s="3">
-        <v>30704076</v>
+        <v>-1643264599</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>64044992</v>
+        <v>252311722</v>
       </c>
       <c r="B18" s="3">
         <v>30704076</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>49</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>776920590</v>
+        <v>64044992</v>
       </c>
       <c r="B19" s="3">
         <v>30704076</v>
@@ -1488,7 +1491,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>51</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-2097447215</v>
+        <v>776920590</v>
       </c>
       <c r="B20" s="3">
         <v>30704076</v>
@@ -1508,7 +1511,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>53</v>
@@ -1519,16 +1522,16 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>1927502965</v>
+        <v>-2097447215</v>
       </c>
       <c r="B21" s="3">
-        <v>-1787621370</v>
+        <v>30704076</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>55</v>
@@ -1539,19 +1542,19 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1907269611</v>
+        <v>1927502965</v>
       </c>
       <c r="B22" s="3">
-        <v>1634278514</v>
+        <v>-1787621370</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1559,16 +1562,16 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-378521023</v>
+        <v>1907269611</v>
       </c>
       <c r="B23" s="3">
-        <v>1874317673</v>
+        <v>1634278514</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>60</v>
@@ -1579,16 +1582,16 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-1505326931</v>
+        <v>-378521023</v>
       </c>
       <c r="B24" s="3">
-        <v>641594185</v>
+        <v>1874317673</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>62</v>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1933236192</v>
+        <v>-1505326931</v>
       </c>
       <c r="B25" s="3">
         <v>641594185</v>
@@ -1608,10 +1611,10 @@
         <v>63</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1619,19 +1622,19 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1706018193</v>
+        <v>1933236192</v>
       </c>
       <c r="B26" s="3">
         <v>641594185</v>
       </c>
       <c r="C26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1639,19 +1642,19 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-1963399549</v>
+        <v>1706018193</v>
       </c>
       <c r="B27" s="3">
         <v>641594185</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1659,19 +1662,19 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1908693252</v>
+        <v>-1963399549</v>
       </c>
       <c r="B28" s="3">
         <v>641594185</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -1679,19 +1682,19 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-1577154619</v>
+        <v>1908693252</v>
       </c>
       <c r="B29" s="3">
         <v>641594185</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1699,19 +1702,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>-1185470549</v>
+        <v>-1577154619</v>
       </c>
       <c r="B30" s="3">
         <v>641594185</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1719,19 +1722,19 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1413635628</v>
+        <v>-1185470549</v>
       </c>
       <c r="B31" s="3">
         <v>641594185</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -1739,19 +1742,19 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>442595499</v>
+        <v>1413635628</v>
       </c>
       <c r="B32" s="3">
         <v>641594185</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1759,19 +1762,19 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>1545290477</v>
+        <v>442595499</v>
       </c>
       <c r="B33" s="3">
         <v>641594185</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1779,19 +1782,19 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>439002458</v>
+        <v>1545290477</v>
       </c>
       <c r="B34" s="3">
         <v>641594185</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1799,19 +1802,19 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>243766147</v>
+        <v>439002458</v>
       </c>
       <c r="B35" s="3">
         <v>641594185</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1819,19 +1822,19 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>-439262861</v>
+        <v>243766147</v>
       </c>
       <c r="B36" s="3">
         <v>641594185</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1839,19 +1842,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>-1417288642</v>
+        <v>-439262861</v>
       </c>
       <c r="B37" s="3">
         <v>641594185</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1859,19 +1862,19 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>-162970238</v>
+        <v>-1417288642</v>
       </c>
       <c r="B38" s="3">
         <v>641594185</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1879,19 +1882,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1881181065</v>
+        <v>-162970238</v>
       </c>
       <c r="B39" s="3">
         <v>641594185</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1899,19 +1902,19 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>-1867970242</v>
+        <v>1881181065</v>
       </c>
       <c r="B40" s="3">
         <v>641594185</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1919,19 +1922,19 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>1480887207</v>
+        <v>-1867970242</v>
       </c>
       <c r="B41" s="3">
         <v>641594185</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1939,19 +1942,19 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>-1511668192</v>
+        <v>1480887207</v>
       </c>
       <c r="B42" s="3">
         <v>641594185</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1959,19 +1962,19 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>872638635</v>
+        <v>-1511668192</v>
       </c>
       <c r="B43" s="3">
         <v>641594185</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1979,19 +1982,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>-1849221552</v>
+        <v>872638635</v>
       </c>
       <c r="B44" s="3">
         <v>641594185</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -1999,19 +2002,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-1765415213</v>
+        <v>-1849221552</v>
       </c>
       <c r="B45" s="3">
         <v>641594185</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2019,19 +2022,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>-1743629732</v>
+        <v>-1765415213</v>
       </c>
       <c r="B46" s="3">
         <v>641594185</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2039,19 +2042,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-613532810</v>
+        <v>-1743629732</v>
       </c>
       <c r="B47" s="3">
         <v>641594185</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2059,19 +2062,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-860996724</v>
+        <v>-613532810</v>
       </c>
       <c r="B48" s="3">
         <v>641594185</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2079,19 +2082,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>261384694</v>
+        <v>-860996724</v>
       </c>
       <c r="B49" s="3">
         <v>641594185</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2099,19 +2102,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>560571912</v>
+        <v>261384694</v>
       </c>
       <c r="B50" s="3">
         <v>641594185</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2119,19 +2122,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-347768085</v>
+        <v>560571912</v>
       </c>
       <c r="B51" s="3">
         <v>641594185</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2139,19 +2142,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>1804649977</v>
+        <v>-347768085</v>
       </c>
       <c r="B52" s="3">
         <v>641594185</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2159,19 +2162,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-312904799</v>
+        <v>1804649977</v>
       </c>
       <c r="B53" s="3">
         <v>641594185</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2179,19 +2182,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>631566423</v>
+        <v>-312904799</v>
       </c>
       <c r="B54" s="3">
         <v>641594185</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2199,19 +2202,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-1901846952</v>
+        <v>631566423</v>
       </c>
       <c r="B55" s="3">
         <v>641594185</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2219,19 +2222,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-2087322095</v>
+        <v>-1901846952</v>
       </c>
       <c r="B56" s="3">
         <v>641594185</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2239,19 +2242,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>1856203750</v>
+        <v>-2087322095</v>
       </c>
       <c r="B57" s="3">
-        <v>1697493859</v>
+        <v>641594185</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>1459031768</v>
+        <v>1856203750</v>
       </c>
       <c r="B58" s="3">
         <v>1697493859</v>
@@ -2268,10 +2271,10 @@
         <v>97</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2279,19 +2282,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>234463939</v>
+        <v>1459031768</v>
       </c>
       <c r="B59" s="3">
         <v>1697493859</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2299,19 +2302,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>1557924855</v>
+        <v>234463939</v>
       </c>
       <c r="B60" s="3">
-        <v>292703195</v>
+        <v>1697493859</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>1285436590</v>
+        <v>1557924855</v>
       </c>
       <c r="B61" s="3">
         <v>292703195</v>
@@ -2328,10 +2331,10 @@
         <v>101</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2339,19 +2342,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>69845640</v>
+        <v>1285436590</v>
       </c>
       <c r="B62" s="3">
         <v>292703195</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2359,19 +2362,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>2010125228</v>
+        <v>69845640</v>
       </c>
       <c r="B63" s="3">
         <v>292703195</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2379,19 +2382,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>-1545033900</v>
+        <v>2010125228</v>
       </c>
       <c r="B64" s="3">
         <v>292703195</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2399,19 +2402,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>691802370</v>
+        <v>-1545033900</v>
       </c>
       <c r="B65" s="3">
         <v>292703195</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2419,19 +2422,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>1678420747</v>
+        <v>691802370</v>
       </c>
       <c r="B66" s="3">
         <v>292703195</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2439,19 +2442,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>810152220</v>
+        <v>1678420747</v>
       </c>
       <c r="B67" s="3">
         <v>292703195</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2459,19 +2462,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>552983545</v>
+        <v>810152220</v>
       </c>
       <c r="B68" s="3">
         <v>292703195</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2479,19 +2482,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>187594737</v>
+        <v>552983545</v>
       </c>
       <c r="B69" s="3">
         <v>292703195</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2499,19 +2502,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>1133922542</v>
+        <v>187594737</v>
       </c>
       <c r="B70" s="3">
         <v>292703195</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2519,19 +2522,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>-502207480</v>
+        <v>1133922542</v>
       </c>
       <c r="B71" s="3">
         <v>292703195</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2539,19 +2542,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>-277636975</v>
+        <v>-502207480</v>
       </c>
       <c r="B72" s="3">
         <v>292703195</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2559,19 +2562,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>688464109</v>
+        <v>-277636975</v>
       </c>
       <c r="B73" s="3">
-        <v>-682406693</v>
+        <v>292703195</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>355193205</v>
+        <v>688464109</v>
       </c>
       <c r="B74" s="3">
         <v>-682406693</v>
@@ -2588,10 +2591,10 @@
         <v>115</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2599,19 +2602,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>1665898652</v>
+        <v>355193205</v>
       </c>
       <c r="B75" s="3">
         <v>-682406693</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2619,19 +2622,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>838127239</v>
+        <v>1665898652</v>
       </c>
       <c r="B76" s="3">
-        <v>-65542374</v>
+        <v>-682406693</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2639,7 +2642,7 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>292098887</v>
+        <v>838127239</v>
       </c>
       <c r="B77" s="3">
         <v>-65542374</v>
@@ -2648,10 +2651,10 @@
         <v>119</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2659,19 +2662,19 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-1436759370</v>
+        <v>292098887</v>
       </c>
       <c r="B78" s="3">
         <v>-65542374</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2679,19 +2682,19 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-883040665</v>
+        <v>-1436759370</v>
       </c>
       <c r="B79" s="3">
         <v>-65542374</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2699,19 +2702,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-759633700</v>
+        <v>-883040665</v>
       </c>
       <c r="B80" s="3">
         <v>-65542374</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2719,19 +2722,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>-2079671966</v>
+        <v>-759633700</v>
       </c>
       <c r="B81" s="3">
         <v>-65542374</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2739,19 +2742,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>-898325376</v>
+        <v>-2079671966</v>
       </c>
       <c r="B82" s="3">
         <v>-65542374</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2759,19 +2762,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>851481653</v>
+        <v>-898325376</v>
       </c>
       <c r="B83" s="3">
         <v>-65542374</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2779,19 +2782,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>1001981197</v>
+        <v>851481653</v>
       </c>
       <c r="B84" s="3">
         <v>-65542374</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2799,19 +2802,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>2100299150</v>
+        <v>1001981197</v>
       </c>
       <c r="B85" s="3">
         <v>-65542374</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2819,19 +2822,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>1470627725</v>
+        <v>2100299150</v>
       </c>
       <c r="B86" s="3">
         <v>-65542374</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2839,19 +2842,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>308453566</v>
+        <v>1470627725</v>
       </c>
       <c r="B87" s="3">
         <v>-65542374</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2859,19 +2862,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>946178124</v>
+        <v>308453566</v>
       </c>
       <c r="B88" s="3">
         <v>-65542374</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -2879,19 +2882,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>-1745518492</v>
+        <v>946178124</v>
       </c>
       <c r="B89" s="3">
         <v>-65542374</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2899,19 +2902,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>-1701391336</v>
+        <v>-1745518492</v>
       </c>
       <c r="B90" s="3">
         <v>-65542374</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -2919,19 +2922,19 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>226630296</v>
+        <v>-1701391336</v>
       </c>
       <c r="B91" s="3">
         <v>-65542374</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2939,19 +2942,19 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>-1901987644</v>
+        <v>226630296</v>
       </c>
       <c r="B92" s="3">
         <v>-65542374</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -2959,19 +2962,19 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>424393879</v>
+        <v>-1901987644</v>
       </c>
       <c r="B93" s="3">
         <v>-65542374</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -2979,19 +2982,19 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>628209291</v>
+        <v>424393879</v>
       </c>
       <c r="B94" s="3">
         <v>-65542374</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -2999,19 +3002,19 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>1189302635</v>
+        <v>628209291</v>
       </c>
       <c r="B95" s="3">
         <v>-65542374</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3019,19 +3022,19 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>1550502872</v>
+        <v>1189302635</v>
       </c>
       <c r="B96" s="3">
-        <v>482291274</v>
+        <v>-65542374</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>719119378</v>
+        <v>1550502872</v>
       </c>
       <c r="B97" s="3">
         <v>482291274</v>
@@ -3048,10 +3051,10 @@
         <v>140</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3059,19 +3062,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-2074866392</v>
+        <v>719119378</v>
       </c>
       <c r="B98" s="3">
         <v>482291274</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3079,19 +3082,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-264697624</v>
+        <v>-2074866392</v>
       </c>
       <c r="B99" s="3">
-        <v>1557471277</v>
+        <v>482291274</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-603773592</v>
+        <v>-264697624</v>
       </c>
       <c r="B100" s="3">
         <v>1557471277</v>
@@ -3108,10 +3111,10 @@
         <v>144</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3119,19 +3122,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>878245409</v>
+        <v>-603773592</v>
       </c>
       <c r="B101" s="3">
         <v>1557471277</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3139,19 +3142,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-1507543996</v>
+        <v>878245409</v>
       </c>
       <c r="B102" s="3">
-        <v>502646517</v>
+        <v>1557471277</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3159,7 +3162,7 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-1676088260</v>
+        <v>-1507543996</v>
       </c>
       <c r="B103" s="3">
         <v>502646517</v>
@@ -3168,10 +3171,10 @@
         <v>148</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3179,19 +3182,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>-1395112271</v>
+        <v>-1676088260</v>
       </c>
       <c r="B104" s="3">
         <v>502646517</v>
       </c>
       <c r="C104" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>147</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3199,19 +3202,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>-410298387</v>
+        <v>-1395112271</v>
       </c>
       <c r="B105" s="3">
         <v>502646517</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3219,19 +3222,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>-712152982</v>
+        <v>-410298387</v>
       </c>
       <c r="B106" s="3">
         <v>502646517</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3239,19 +3242,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>1461694536</v>
+        <v>-712152982</v>
       </c>
       <c r="B107" s="3">
         <v>502646517</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3259,19 +3262,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>-975617421</v>
+        <v>1461694536</v>
       </c>
       <c r="B108" s="3">
         <v>502646517</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3279,19 +3282,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>253510137</v>
+        <v>-975617421</v>
       </c>
       <c r="B109" s="3">
         <v>502646517</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3299,19 +3302,19 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>-1369527260</v>
+        <v>253510137</v>
       </c>
       <c r="B110" s="3">
         <v>502646517</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3319,19 +3322,19 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>1403180067</v>
+        <v>-1369527260</v>
       </c>
       <c r="B111" s="3">
         <v>502646517</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3339,19 +3342,19 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>1819061676</v>
+        <v>1403180067</v>
       </c>
       <c r="B112" s="3">
         <v>502646517</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3359,19 +3362,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-1267122768</v>
+        <v>1819061676</v>
       </c>
       <c r="B113" s="3">
         <v>502646517</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3379,19 +3382,19 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-1474500060</v>
+        <v>-1267122768</v>
       </c>
       <c r="B114" s="3">
         <v>502646517</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3399,19 +3402,19 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>969611249</v>
+        <v>-1474500060</v>
       </c>
       <c r="B115" s="3">
         <v>502646517</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3419,19 +3422,19 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>-689819389</v>
+        <v>969611249</v>
       </c>
       <c r="B116" s="3">
         <v>502646517</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3439,19 +3442,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-172312966</v>
+        <v>-689819389</v>
       </c>
       <c r="B117" s="3">
         <v>502646517</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3459,19 +3462,19 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-1295053375</v>
+        <v>-172312966</v>
       </c>
       <c r="B118" s="3">
         <v>502646517</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3479,19 +3482,19 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>97134493</v>
+        <v>-1295053375</v>
       </c>
       <c r="B119" s="3">
         <v>502646517</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3499,19 +3502,19 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>105762258</v>
+        <v>97134493</v>
       </c>
       <c r="B120" s="3">
         <v>502646517</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3519,19 +3522,19 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>-1297123240</v>
+        <v>105762258</v>
       </c>
       <c r="B121" s="3">
         <v>502646517</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3539,19 +3542,19 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>1882406477</v>
+        <v>-1297123240</v>
       </c>
       <c r="B122" s="3">
         <v>502646517</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3559,19 +3562,19 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-1195485210</v>
+        <v>1882406477</v>
       </c>
       <c r="B123" s="3">
         <v>502646517</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3579,19 +3582,19 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>-1325064825</v>
+        <v>-1195485210</v>
       </c>
       <c r="B124" s="3">
         <v>502646517</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3599,19 +3602,19 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>1585463536</v>
+        <v>-1325064825</v>
       </c>
       <c r="B125" s="3">
         <v>502646517</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3619,19 +3622,19 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>-1899537868</v>
+        <v>1585463536</v>
       </c>
       <c r="B126" s="3">
         <v>502646517</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3639,19 +3642,19 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>83290298</v>
+        <v>-1899537868</v>
       </c>
       <c r="B127" s="3">
         <v>502646517</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3659,19 +3662,19 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>-511011961</v>
+        <v>83290298</v>
       </c>
       <c r="B128" s="3">
         <v>502646517</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3679,19 +3682,19 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-1025145887</v>
+        <v>-511011961</v>
       </c>
       <c r="B129" s="3">
         <v>502646517</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3699,19 +3702,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>408284456</v>
+        <v>-1025145887</v>
       </c>
       <c r="B130" s="3">
         <v>502646517</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3719,19 +3722,19 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>1299831025</v>
+        <v>408284456</v>
       </c>
       <c r="B131" s="3">
         <v>502646517</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3739,19 +3742,19 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>-1976628278</v>
+        <v>1299831025</v>
       </c>
       <c r="B132" s="3">
         <v>502646517</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3759,19 +3762,19 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-1031925589</v>
+        <v>-1976628278</v>
       </c>
       <c r="B133" s="3">
         <v>502646517</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3779,19 +3782,19 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>1894982809</v>
+        <v>-1031925589</v>
       </c>
       <c r="B134" s="3">
         <v>502646517</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3799,19 +3802,19 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>-2121109836</v>
+        <v>1894982809</v>
       </c>
       <c r="B135" s="3">
         <v>502646517</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3819,19 +3822,19 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>-367590771</v>
+        <v>-2121109836</v>
       </c>
       <c r="B136" s="3">
         <v>502646517</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3839,19 +3842,19 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-1604905084</v>
+        <v>-367590771</v>
       </c>
       <c r="B137" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3859,7 +3862,7 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-1416131283</v>
+        <v>-1604905084</v>
       </c>
       <c r="B138" s="3">
         <v>-1087550218</v>
@@ -3868,10 +3871,10 @@
         <v>184</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -3879,19 +3882,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-1280041401</v>
+        <v>-1416131283</v>
       </c>
       <c r="B139" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -3899,19 +3902,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>1408622605</v>
+        <v>-1280041401</v>
       </c>
       <c r="B140" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -3919,19 +3922,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>-1184996614</v>
+        <v>1408622605</v>
       </c>
       <c r="B141" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -3939,19 +3942,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>-743273753</v>
+        <v>-1184996614</v>
       </c>
       <c r="B142" s="3">
         <v>-1087550218</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -3959,19 +3962,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>738946719</v>
+        <v>-743273753</v>
       </c>
       <c r="B143" s="3">
-        <v>1508121002</v>
+        <v>-1087550218</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -3979,7 +3982,7 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>576545488</v>
+        <v>738946719</v>
       </c>
       <c r="B144" s="3">
         <v>1508121002</v>
@@ -3988,10 +3991,10 @@
         <v>191</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -3999,19 +4002,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>1855907347</v>
+        <v>576545488</v>
       </c>
       <c r="B145" s="3">
         <v>1508121002</v>
       </c>
       <c r="C145" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4019,19 +4022,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-1145081060</v>
+        <v>1855907347</v>
       </c>
       <c r="B146" s="3">
         <v>1508121002</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4039,19 +4042,19 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1488506594</v>
+        <v>-1145081060</v>
       </c>
       <c r="B147" s="3">
         <v>1508121002</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4059,19 +4062,19 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>-745009968</v>
+        <v>-1488506594</v>
       </c>
       <c r="B148" s="3">
         <v>1508121002</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4079,30 +4082,30 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>-181505390</v>
+        <v>-745009968</v>
       </c>
       <c r="B149" s="3">
-        <v>498482096</v>
+        <v>1508121002</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F149" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-1287614635</v>
+        <v>-181505390</v>
       </c>
       <c r="B150" s="3">
-        <v>-2023891807</v>
+        <v>498482096</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>198</v>
@@ -4119,10 +4122,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-841801683</v>
+        <v>-1287614635</v>
       </c>
       <c r="B151" s="3">
-        <v>-1493566452</v>
+        <v>-2023891807</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>200</v>
@@ -4139,10 +4142,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>-1625153888</v>
+        <v>-841801683</v>
       </c>
       <c r="B152" s="3">
-        <v>-1392412074</v>
+        <v>-1493566452</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>202</v>
@@ -4151,7 +4154,7 @@
         <v>22</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="F152" s="3">
         <v>15</v>
@@ -4159,19 +4162,19 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>1299702156</v>
+        <v>-1625153888</v>
       </c>
       <c r="B153" s="3">
-        <v>-833208201</v>
+        <v>-1392412074</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="F153" s="3">
         <v>15</v>
@@ -4179,10 +4182,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>-552127726</v>
+        <v>1299702156</v>
       </c>
       <c r="B154" s="3">
-        <v>-234066055</v>
+        <v>-833208201</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>205</v>
@@ -4191,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="F154" s="3">
         <v>15</v>
@@ -4199,41 +4202,61 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>1735911982</v>
+        <v>-552127726</v>
       </c>
       <c r="B155" s="3">
-        <v>401643752</v>
+        <v>-234066055</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="F155" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>-510167203</v>
+        <v>1735911982</v>
       </c>
       <c r="B156" s="3">
         <v>401643752</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E156" s="3" t="s">
+      <c r="F156" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="3">
+        <v>-510167203</v>
+      </c>
+      <c r="B157" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F156" s="3">
+      <c r="E157" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F157" s="3">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>fileId</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>StrayFogXLuaLevelFunction.lua</t>
+  </si>
+  <si>
+    <t>HeroListWindow.lua</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -4260,6 +4263,26 @@
         <v>26</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="3">
+        <v>1714968970</v>
+      </c>
+      <c r="B158" s="3">
+        <v>-799817549</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F158" s="3">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD3">

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>fileId</t>
   </si>
@@ -119,6 +119,39 @@
     <t>o__2011266808</t>
   </si>
   <si>
+    <t>fx_hero_1002_atk_01</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>fx_hero_1002_atk_02</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_atk_03</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_die</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_Hit_a</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_Hit_b</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_skill_01</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_skill_02_a</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_skill_02_b</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_skill_03</t>
+  </si>
+  <si>
     <t>bx_map_pve_1</t>
   </si>
   <si>
@@ -128,12 +161,15 @@
     <t>s_1952168169</t>
   </si>
   <si>
+    <t>ExampleEventAggregator</t>
+  </si>
+  <si>
+    <t>s_949931212</t>
+  </si>
+  <si>
     <t>ExampleFMS</t>
   </si>
   <si>
-    <t>s_949931212</t>
-  </si>
-  <si>
     <t>ExampleGuide</t>
   </si>
   <si>
@@ -146,6 +182,9 @@
     <t>s__554521457</t>
   </si>
   <si>
+    <t>ExampleSkill</t>
+  </si>
+  <si>
     <t>ExampleSQLite</t>
   </si>
   <si>
@@ -159,9 +198,6 @@
   </si>
   <si>
     <t>ExampleUIWindow</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>ExampleXLS</t>
@@ -1107,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F158"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -1285,439 +1321,439 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>1904439952</v>
+        <v>-297270024</v>
       </c>
       <c r="B9" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-1553022821</v>
+        <v>550789458</v>
       </c>
       <c r="B10" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1555606421</v>
+        <v>5732480</v>
       </c>
       <c r="B11" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="F11" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-80690262</v>
+        <v>-1901864469</v>
       </c>
       <c r="B12" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="F12" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-401975932</v>
+        <v>1456313484</v>
       </c>
       <c r="B13" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-1079029748</v>
+        <v>-146713332</v>
       </c>
       <c r="B14" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-296649783</v>
+        <v>783918297</v>
       </c>
       <c r="B15" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F15" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>2045054782</v>
+        <v>-1298099431</v>
       </c>
       <c r="B16" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F16" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>-699454701</v>
+        <v>1920486004</v>
       </c>
       <c r="B17" s="3">
-        <v>-1643264599</v>
+        <v>15837866</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="F17" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>252311722</v>
+        <v>-1884987356</v>
       </c>
       <c r="B18" s="3">
-        <v>30704076</v>
+        <v>15837866</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>64044992</v>
+        <v>1904439952</v>
       </c>
       <c r="B19" s="3">
-        <v>30704076</v>
+        <v>-1643264599</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>776920590</v>
+        <v>-502633142</v>
       </c>
       <c r="B20" s="3">
-        <v>30704076</v>
+        <v>-1643264599</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-2097447215</v>
+        <v>-1553022821</v>
       </c>
       <c r="B21" s="3">
-        <v>30704076</v>
+        <v>-1643264599</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1927502965</v>
+        <v>1555606421</v>
       </c>
       <c r="B22" s="3">
-        <v>-1787621370</v>
+        <v>-1643264599</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1907269611</v>
+        <v>-80690262</v>
       </c>
       <c r="B23" s="3">
-        <v>1634278514</v>
+        <v>-1643264599</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-378521023</v>
+        <v>244989659</v>
       </c>
       <c r="B24" s="3">
-        <v>1874317673</v>
+        <v>-1643264599</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-1505326931</v>
+        <v>-401975932</v>
       </c>
       <c r="B25" s="3">
-        <v>641594185</v>
+        <v>-1643264599</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1933236192</v>
+        <v>-1079029748</v>
       </c>
       <c r="B26" s="3">
-        <v>641594185</v>
+        <v>-1643264599</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1706018193</v>
+        <v>-296649783</v>
       </c>
       <c r="B27" s="3">
-        <v>641594185</v>
+        <v>-1643264599</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-1963399549</v>
+        <v>2045054782</v>
       </c>
       <c r="B28" s="3">
-        <v>641594185</v>
+        <v>-1643264599</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1908693252</v>
+        <v>-699454701</v>
       </c>
       <c r="B29" s="3">
-        <v>641594185</v>
+        <v>-1643264599</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>-1577154619</v>
+        <v>252311722</v>
       </c>
       <c r="B30" s="3">
-        <v>641594185</v>
+        <v>30704076</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -1725,19 +1761,19 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>-1185470549</v>
+        <v>64044992</v>
       </c>
       <c r="B31" s="3">
-        <v>641594185</v>
+        <v>30704076</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -1745,19 +1781,19 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>1413635628</v>
+        <v>776920590</v>
       </c>
       <c r="B32" s="3">
-        <v>641594185</v>
+        <v>30704076</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1765,19 +1801,19 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>442595499</v>
+        <v>-2097447215</v>
       </c>
       <c r="B33" s="3">
-        <v>641594185</v>
+        <v>30704076</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1785,19 +1821,19 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>1545290477</v>
+        <v>1927502965</v>
       </c>
       <c r="B34" s="3">
-        <v>641594185</v>
+        <v>-1787621370</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1805,19 +1841,19 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>439002458</v>
+        <v>1907269611</v>
       </c>
       <c r="B35" s="3">
-        <v>641594185</v>
+        <v>1634278514</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1825,19 +1861,19 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>243766147</v>
+        <v>-378521023</v>
       </c>
       <c r="B36" s="3">
-        <v>641594185</v>
+        <v>1874317673</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1845,19 +1881,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>-439262861</v>
+        <v>-1505326931</v>
       </c>
       <c r="B37" s="3">
         <v>641594185</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1865,7 +1901,7 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>-1417288642</v>
+        <v>1933236192</v>
       </c>
       <c r="B38" s="3">
         <v>641594185</v>
@@ -1874,10 +1910,10 @@
         <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1885,7 +1921,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>-162970238</v>
+        <v>1706018193</v>
       </c>
       <c r="B39" s="3">
         <v>641594185</v>
@@ -1894,10 +1930,10 @@
         <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1905,7 +1941,7 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>1881181065</v>
+        <v>-1963399549</v>
       </c>
       <c r="B40" s="3">
         <v>641594185</v>
@@ -1914,10 +1950,10 @@
         <v>79</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1925,7 +1961,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>-1867970242</v>
+        <v>1908693252</v>
       </c>
       <c r="B41" s="3">
         <v>641594185</v>
@@ -1934,10 +1970,10 @@
         <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1945,7 +1981,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>1480887207</v>
+        <v>-1577154619</v>
       </c>
       <c r="B42" s="3">
         <v>641594185</v>
@@ -1954,10 +1990,10 @@
         <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1965,7 +2001,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>-1511668192</v>
+        <v>-1185470549</v>
       </c>
       <c r="B43" s="3">
         <v>641594185</v>
@@ -1974,10 +2010,10 @@
         <v>82</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -1985,7 +2021,7 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>872638635</v>
+        <v>1413635628</v>
       </c>
       <c r="B44" s="3">
         <v>641594185</v>
@@ -1994,10 +2030,10 @@
         <v>83</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2005,7 +2041,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-1849221552</v>
+        <v>442595499</v>
       </c>
       <c r="B45" s="3">
         <v>641594185</v>
@@ -2014,10 +2050,10 @@
         <v>84</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2025,7 +2061,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>-1765415213</v>
+        <v>1545290477</v>
       </c>
       <c r="B46" s="3">
         <v>641594185</v>
@@ -2034,10 +2070,10 @@
         <v>85</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2045,7 +2081,7 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-1743629732</v>
+        <v>439002458</v>
       </c>
       <c r="B47" s="3">
         <v>641594185</v>
@@ -2054,10 +2090,10 @@
         <v>86</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2065,7 +2101,7 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-613532810</v>
+        <v>243766147</v>
       </c>
       <c r="B48" s="3">
         <v>641594185</v>
@@ -2074,10 +2110,10 @@
         <v>87</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2085,7 +2121,7 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-860996724</v>
+        <v>-439262861</v>
       </c>
       <c r="B49" s="3">
         <v>641594185</v>
@@ -2094,10 +2130,10 @@
         <v>88</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2105,7 +2141,7 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>261384694</v>
+        <v>-1417288642</v>
       </c>
       <c r="B50" s="3">
         <v>641594185</v>
@@ -2114,10 +2150,10 @@
         <v>89</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2125,7 +2161,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>560571912</v>
+        <v>-162970238</v>
       </c>
       <c r="B51" s="3">
         <v>641594185</v>
@@ -2134,10 +2170,10 @@
         <v>90</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2145,7 +2181,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-347768085</v>
+        <v>1881181065</v>
       </c>
       <c r="B52" s="3">
         <v>641594185</v>
@@ -2154,10 +2190,10 @@
         <v>91</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2165,7 +2201,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>1804649977</v>
+        <v>-1867970242</v>
       </c>
       <c r="B53" s="3">
         <v>641594185</v>
@@ -2174,10 +2210,10 @@
         <v>92</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2185,7 +2221,7 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>-312904799</v>
+        <v>1480887207</v>
       </c>
       <c r="B54" s="3">
         <v>641594185</v>
@@ -2194,10 +2230,10 @@
         <v>93</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2205,7 +2241,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>631566423</v>
+        <v>-1511668192</v>
       </c>
       <c r="B55" s="3">
         <v>641594185</v>
@@ -2214,10 +2250,10 @@
         <v>94</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2225,7 +2261,7 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-1901846952</v>
+        <v>872638635</v>
       </c>
       <c r="B56" s="3">
         <v>641594185</v>
@@ -2234,10 +2270,10 @@
         <v>95</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2245,7 +2281,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>-2087322095</v>
+        <v>-1849221552</v>
       </c>
       <c r="B57" s="3">
         <v>641594185</v>
@@ -2254,10 +2290,10 @@
         <v>96</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2265,19 +2301,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>1856203750</v>
+        <v>-1765415213</v>
       </c>
       <c r="B58" s="3">
-        <v>1697493859</v>
+        <v>641594185</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2285,19 +2321,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>1459031768</v>
+        <v>-1743629732</v>
       </c>
       <c r="B59" s="3">
-        <v>1697493859</v>
+        <v>641594185</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2305,19 +2341,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>234463939</v>
+        <v>-613532810</v>
       </c>
       <c r="B60" s="3">
-        <v>1697493859</v>
+        <v>641594185</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2325,19 +2361,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>1557924855</v>
+        <v>-860996724</v>
       </c>
       <c r="B61" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2345,19 +2381,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>1285436590</v>
+        <v>261384694</v>
       </c>
       <c r="B62" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2365,19 +2401,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>69845640</v>
+        <v>560571912</v>
       </c>
       <c r="B63" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2385,19 +2421,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>2010125228</v>
+        <v>-347768085</v>
       </c>
       <c r="B64" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2405,19 +2441,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>-1545033900</v>
+        <v>1804649977</v>
       </c>
       <c r="B65" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2425,19 +2461,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>691802370</v>
+        <v>-312904799</v>
       </c>
       <c r="B66" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2445,19 +2481,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>1678420747</v>
+        <v>631566423</v>
       </c>
       <c r="B67" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2465,19 +2501,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>810152220</v>
+        <v>-1901846952</v>
       </c>
       <c r="B68" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2485,19 +2521,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>552983545</v>
+        <v>-2087322095</v>
       </c>
       <c r="B69" s="3">
-        <v>292703195</v>
+        <v>641594185</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2505,19 +2541,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>187594737</v>
+        <v>1856203750</v>
       </c>
       <c r="B70" s="3">
-        <v>292703195</v>
+        <v>1697493859</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2525,19 +2561,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>1133922542</v>
+        <v>1459031768</v>
       </c>
       <c r="B71" s="3">
-        <v>292703195</v>
+        <v>1697493859</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2545,19 +2581,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>-502207480</v>
+        <v>234463939</v>
       </c>
       <c r="B72" s="3">
-        <v>292703195</v>
+        <v>1697493859</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2565,19 +2601,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>-277636975</v>
+        <v>1557924855</v>
       </c>
       <c r="B73" s="3">
         <v>292703195</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2585,19 +2621,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>688464109</v>
+        <v>1285436590</v>
       </c>
       <c r="B74" s="3">
-        <v>-682406693</v>
+        <v>292703195</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2605,19 +2641,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>355193205</v>
+        <v>69845640</v>
       </c>
       <c r="B75" s="3">
-        <v>-682406693</v>
+        <v>292703195</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2625,19 +2661,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>1665898652</v>
+        <v>2010125228</v>
       </c>
       <c r="B76" s="3">
-        <v>-682406693</v>
+        <v>292703195</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2645,19 +2681,19 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>838127239</v>
+        <v>-1545033900</v>
       </c>
       <c r="B77" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2665,19 +2701,19 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>292098887</v>
+        <v>691802370</v>
       </c>
       <c r="B78" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2685,19 +2721,19 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-1436759370</v>
+        <v>1678420747</v>
       </c>
       <c r="B79" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2705,19 +2741,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-883040665</v>
+        <v>810152220</v>
       </c>
       <c r="B80" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2725,19 +2761,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>-759633700</v>
+        <v>552983545</v>
       </c>
       <c r="B81" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2745,19 +2781,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>-2079671966</v>
+        <v>187594737</v>
       </c>
       <c r="B82" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2765,19 +2801,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>-898325376</v>
+        <v>1133922542</v>
       </c>
       <c r="B83" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2785,19 +2821,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>851481653</v>
+        <v>-502207480</v>
       </c>
       <c r="B84" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2805,19 +2841,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>1001981197</v>
+        <v>-277636975</v>
       </c>
       <c r="B85" s="3">
-        <v>-65542374</v>
+        <v>292703195</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2825,19 +2861,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>2100299150</v>
+        <v>688464109</v>
       </c>
       <c r="B86" s="3">
-        <v>-65542374</v>
+        <v>-682406693</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2845,19 +2881,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>1470627725</v>
+        <v>355193205</v>
       </c>
       <c r="B87" s="3">
-        <v>-65542374</v>
+        <v>-682406693</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2865,19 +2901,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>308453566</v>
+        <v>1665898652</v>
       </c>
       <c r="B88" s="3">
-        <v>-65542374</v>
+        <v>-682406693</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -2885,19 +2921,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>946178124</v>
+        <v>838127239</v>
       </c>
       <c r="B89" s="3">
         <v>-65542374</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2905,7 +2941,7 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>-1745518492</v>
+        <v>292098887</v>
       </c>
       <c r="B90" s="3">
         <v>-65542374</v>
@@ -2914,10 +2950,10 @@
         <v>133</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -2925,7 +2961,7 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>-1701391336</v>
+        <v>-1436759370</v>
       </c>
       <c r="B91" s="3">
         <v>-65542374</v>
@@ -2934,10 +2970,10 @@
         <v>134</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2945,7 +2981,7 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>226630296</v>
+        <v>-883040665</v>
       </c>
       <c r="B92" s="3">
         <v>-65542374</v>
@@ -2954,10 +2990,10 @@
         <v>135</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -2965,7 +3001,7 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-1901987644</v>
+        <v>-759633700</v>
       </c>
       <c r="B93" s="3">
         <v>-65542374</v>
@@ -2974,10 +3010,10 @@
         <v>136</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -2985,7 +3021,7 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>424393879</v>
+        <v>-2079671966</v>
       </c>
       <c r="B94" s="3">
         <v>-65542374</v>
@@ -2994,10 +3030,10 @@
         <v>137</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3005,7 +3041,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>628209291</v>
+        <v>-898325376</v>
       </c>
       <c r="B95" s="3">
         <v>-65542374</v>
@@ -3014,10 +3050,10 @@
         <v>138</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3025,7 +3061,7 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>1189302635</v>
+        <v>851481653</v>
       </c>
       <c r="B96" s="3">
         <v>-65542374</v>
@@ -3034,10 +3070,10 @@
         <v>139</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3045,19 +3081,19 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>1550502872</v>
+        <v>1001981197</v>
       </c>
       <c r="B97" s="3">
-        <v>482291274</v>
+        <v>-65542374</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3065,19 +3101,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>719119378</v>
+        <v>2100299150</v>
       </c>
       <c r="B98" s="3">
-        <v>482291274</v>
+        <v>-65542374</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3085,19 +3121,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-2074866392</v>
+        <v>1470627725</v>
       </c>
       <c r="B99" s="3">
-        <v>482291274</v>
+        <v>-65542374</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3105,19 +3141,19 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-264697624</v>
+        <v>308453566</v>
       </c>
       <c r="B100" s="3">
-        <v>1557471277</v>
+        <v>-65542374</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3125,19 +3161,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-603773592</v>
+        <v>946178124</v>
       </c>
       <c r="B101" s="3">
-        <v>1557471277</v>
+        <v>-65542374</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3145,19 +3181,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>878245409</v>
+        <v>-1745518492</v>
       </c>
       <c r="B102" s="3">
-        <v>1557471277</v>
+        <v>-65542374</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3165,19 +3201,19 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-1507543996</v>
+        <v>-1701391336</v>
       </c>
       <c r="B103" s="3">
-        <v>502646517</v>
+        <v>-65542374</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3185,19 +3221,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>-1676088260</v>
+        <v>226630296</v>
       </c>
       <c r="B104" s="3">
-        <v>502646517</v>
+        <v>-65542374</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3205,19 +3241,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>-1395112271</v>
+        <v>-1901987644</v>
       </c>
       <c r="B105" s="3">
-        <v>502646517</v>
+        <v>-65542374</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3225,19 +3261,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>-410298387</v>
+        <v>424393879</v>
       </c>
       <c r="B106" s="3">
-        <v>502646517</v>
+        <v>-65542374</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3245,19 +3281,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>-712152982</v>
+        <v>628209291</v>
       </c>
       <c r="B107" s="3">
-        <v>502646517</v>
+        <v>-65542374</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3265,19 +3301,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>1461694536</v>
+        <v>1189302635</v>
       </c>
       <c r="B108" s="3">
-        <v>502646517</v>
+        <v>-65542374</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3285,19 +3321,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>-975617421</v>
+        <v>1550502872</v>
       </c>
       <c r="B109" s="3">
-        <v>502646517</v>
+        <v>482291274</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3305,19 +3341,19 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>253510137</v>
+        <v>719119378</v>
       </c>
       <c r="B110" s="3">
-        <v>502646517</v>
+        <v>482291274</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3325,19 +3361,19 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>-1369527260</v>
+        <v>-2074866392</v>
       </c>
       <c r="B111" s="3">
-        <v>502646517</v>
+        <v>482291274</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3345,19 +3381,19 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>1403180067</v>
+        <v>-264697624</v>
       </c>
       <c r="B112" s="3">
-        <v>502646517</v>
+        <v>1557471277</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3365,19 +3401,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>1819061676</v>
+        <v>-603773592</v>
       </c>
       <c r="B113" s="3">
-        <v>502646517</v>
+        <v>1557471277</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3385,19 +3421,19 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-1267122768</v>
+        <v>878245409</v>
       </c>
       <c r="B114" s="3">
-        <v>502646517</v>
+        <v>1557471277</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3405,19 +3441,19 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>-1474500060</v>
+        <v>-1507543996</v>
       </c>
       <c r="B115" s="3">
         <v>502646517</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3425,7 +3461,7 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>969611249</v>
+        <v>-1676088260</v>
       </c>
       <c r="B116" s="3">
         <v>502646517</v>
@@ -3434,10 +3470,10 @@
         <v>162</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3445,7 +3481,7 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-689819389</v>
+        <v>-1395112271</v>
       </c>
       <c r="B117" s="3">
         <v>502646517</v>
@@ -3454,10 +3490,10 @@
         <v>163</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3465,7 +3501,7 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-172312966</v>
+        <v>-410298387</v>
       </c>
       <c r="B118" s="3">
         <v>502646517</v>
@@ -3474,10 +3510,10 @@
         <v>164</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3485,7 +3521,7 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>-1295053375</v>
+        <v>-712152982</v>
       </c>
       <c r="B119" s="3">
         <v>502646517</v>
@@ -3494,10 +3530,10 @@
         <v>165</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3505,7 +3541,7 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>97134493</v>
+        <v>1461694536</v>
       </c>
       <c r="B120" s="3">
         <v>502646517</v>
@@ -3514,10 +3550,10 @@
         <v>166</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3525,7 +3561,7 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>105762258</v>
+        <v>-975617421</v>
       </c>
       <c r="B121" s="3">
         <v>502646517</v>
@@ -3534,10 +3570,10 @@
         <v>167</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3545,7 +3581,7 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>-1297123240</v>
+        <v>253510137</v>
       </c>
       <c r="B122" s="3">
         <v>502646517</v>
@@ -3554,10 +3590,10 @@
         <v>168</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3565,7 +3601,7 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>1882406477</v>
+        <v>-1369527260</v>
       </c>
       <c r="B123" s="3">
         <v>502646517</v>
@@ -3574,10 +3610,10 @@
         <v>169</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3585,7 +3621,7 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>-1195485210</v>
+        <v>1403180067</v>
       </c>
       <c r="B124" s="3">
         <v>502646517</v>
@@ -3594,10 +3630,10 @@
         <v>170</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3605,7 +3641,7 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>-1325064825</v>
+        <v>1819061676</v>
       </c>
       <c r="B125" s="3">
         <v>502646517</v>
@@ -3614,10 +3650,10 @@
         <v>171</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3625,7 +3661,7 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>1585463536</v>
+        <v>-1267122768</v>
       </c>
       <c r="B126" s="3">
         <v>502646517</v>
@@ -3634,10 +3670,10 @@
         <v>172</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3645,7 +3681,7 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>-1899537868</v>
+        <v>-1474500060</v>
       </c>
       <c r="B127" s="3">
         <v>502646517</v>
@@ -3654,10 +3690,10 @@
         <v>173</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3665,7 +3701,7 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>83290298</v>
+        <v>969611249</v>
       </c>
       <c r="B128" s="3">
         <v>502646517</v>
@@ -3674,10 +3710,10 @@
         <v>174</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3685,7 +3721,7 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-511011961</v>
+        <v>-689819389</v>
       </c>
       <c r="B129" s="3">
         <v>502646517</v>
@@ -3694,10 +3730,10 @@
         <v>175</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3705,7 +3741,7 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-1025145887</v>
+        <v>-172312966</v>
       </c>
       <c r="B130" s="3">
         <v>502646517</v>
@@ -3714,10 +3750,10 @@
         <v>176</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3725,7 +3761,7 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>408284456</v>
+        <v>-1295053375</v>
       </c>
       <c r="B131" s="3">
         <v>502646517</v>
@@ -3734,10 +3770,10 @@
         <v>177</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3745,7 +3781,7 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>1299831025</v>
+        <v>97134493</v>
       </c>
       <c r="B132" s="3">
         <v>502646517</v>
@@ -3754,10 +3790,10 @@
         <v>178</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3765,7 +3801,7 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-1976628278</v>
+        <v>105762258</v>
       </c>
       <c r="B133" s="3">
         <v>502646517</v>
@@ -3774,10 +3810,10 @@
         <v>179</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3785,7 +3821,7 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-1031925589</v>
+        <v>-1297123240</v>
       </c>
       <c r="B134" s="3">
         <v>502646517</v>
@@ -3794,10 +3830,10 @@
         <v>180</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3805,7 +3841,7 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>1894982809</v>
+        <v>1882406477</v>
       </c>
       <c r="B135" s="3">
         <v>502646517</v>
@@ -3814,10 +3850,10 @@
         <v>181</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3825,7 +3861,7 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>-2121109836</v>
+        <v>-1195485210</v>
       </c>
       <c r="B136" s="3">
         <v>502646517</v>
@@ -3834,10 +3870,10 @@
         <v>182</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3845,7 +3881,7 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-367590771</v>
+        <v>-1325064825</v>
       </c>
       <c r="B137" s="3">
         <v>502646517</v>
@@ -3854,10 +3890,10 @@
         <v>183</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3865,19 +3901,19 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-1604905084</v>
+        <v>1585463536</v>
       </c>
       <c r="B138" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -3885,19 +3921,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-1416131283</v>
+        <v>-1899537868</v>
       </c>
       <c r="B139" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -3905,19 +3941,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>-1280041401</v>
+        <v>83290298</v>
       </c>
       <c r="B140" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -3925,19 +3961,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>1408622605</v>
+        <v>-511011961</v>
       </c>
       <c r="B141" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -3945,19 +3981,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>-1184996614</v>
+        <v>-1025145887</v>
       </c>
       <c r="B142" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -3965,19 +4001,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>-743273753</v>
+        <v>408284456</v>
       </c>
       <c r="B143" s="3">
-        <v>-1087550218</v>
+        <v>502646517</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -3985,19 +4021,19 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>738946719</v>
+        <v>1299831025</v>
       </c>
       <c r="B144" s="3">
-        <v>1508121002</v>
+        <v>502646517</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -4005,19 +4041,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>576545488</v>
+        <v>-1976628278</v>
       </c>
       <c r="B145" s="3">
-        <v>1508121002</v>
+        <v>502646517</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4025,19 +4061,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>1855907347</v>
+        <v>-1031925589</v>
       </c>
       <c r="B146" s="3">
-        <v>1508121002</v>
+        <v>502646517</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4045,19 +4081,19 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1145081060</v>
+        <v>1894982809</v>
       </c>
       <c r="B147" s="3">
-        <v>1508121002</v>
+        <v>502646517</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4065,19 +4101,19 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>-1488506594</v>
+        <v>-2121109836</v>
       </c>
       <c r="B148" s="3">
-        <v>1508121002</v>
+        <v>502646517</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4085,19 +4121,19 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>-745009968</v>
+        <v>-367590771</v>
       </c>
       <c r="B149" s="3">
-        <v>1508121002</v>
+        <v>502646517</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -4105,181 +4141,421 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-181505390</v>
+        <v>-1604905084</v>
       </c>
       <c r="B150" s="3">
-        <v>498482096</v>
+        <v>-1087550218</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F150" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-1287614635</v>
+        <v>-1416131283</v>
       </c>
       <c r="B151" s="3">
-        <v>-2023891807</v>
+        <v>-1087550218</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F151" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>-841801683</v>
+        <v>-1280041401</v>
       </c>
       <c r="B152" s="3">
-        <v>-1493566452</v>
+        <v>-1087550218</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="F152" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>-1625153888</v>
+        <v>1408622605</v>
       </c>
       <c r="B153" s="3">
-        <v>-1392412074</v>
+        <v>-1087550218</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F153" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>1299702156</v>
+        <v>-1184996614</v>
       </c>
       <c r="B154" s="3">
-        <v>-833208201</v>
+        <v>-1087550218</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="F154" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>-552127726</v>
+        <v>-743273753</v>
       </c>
       <c r="B155" s="3">
-        <v>-234066055</v>
+        <v>-1087550218</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="F155" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>1735911982</v>
+        <v>738946719</v>
       </c>
       <c r="B156" s="3">
-        <v>401643752</v>
+        <v>1508121002</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F156" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>-510167203</v>
+        <v>576545488</v>
       </c>
       <c r="B157" s="3">
-        <v>401643752</v>
+        <v>1508121002</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F157" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3">
+        <v>1855907347</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="3">
+        <v>-1145081060</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="3">
+        <v>-1488506594</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="3">
+        <v>-745009968</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1508121002</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="3">
+        <v>-181505390</v>
+      </c>
+      <c r="B162" s="3">
+        <v>498482096</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F162" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="3">
+        <v>-1287614635</v>
+      </c>
+      <c r="B163" s="3">
+        <v>-2023891807</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F163" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="3">
+        <v>-841801683</v>
+      </c>
+      <c r="B164" s="3">
+        <v>-1493566452</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="3">
+        <v>-1625153888</v>
+      </c>
+      <c r="B165" s="3">
+        <v>-1392412074</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F165" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3">
+        <v>1299702156</v>
+      </c>
+      <c r="B166" s="3">
+        <v>-833208201</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F166" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="3">
+        <v>-552127726</v>
+      </c>
+      <c r="B167" s="3">
+        <v>-234066055</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="3">
+        <v>1735911982</v>
+      </c>
+      <c r="B168" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F168" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="3">
+        <v>-510167203</v>
+      </c>
+      <c r="B169" s="3">
+        <v>401643752</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F169" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="3">
         <v>1714968970</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B170" s="3">
         <v>-799817549</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F158" s="3">
+      <c r="C170" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="3">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>fileId</t>
   </si>
@@ -161,12 +161,15 @@
     <t>s_1952168169</t>
   </si>
   <si>
+    <t>ExampleEntityComponentSystem</t>
+  </si>
+  <si>
+    <t>s_949931212</t>
+  </si>
+  <si>
     <t>ExampleEventAggregator</t>
   </si>
   <si>
-    <t>s_949931212</t>
-  </si>
-  <si>
     <t>ExampleFMS</t>
   </si>
   <si>
@@ -702,6 +705,9 @@
   </si>
   <si>
     <t>StrayFogXLuaLevelFunction.lua</t>
+  </si>
+  <si>
+    <t>TestXLuaLevelCube.lua</t>
   </si>
   <si>
     <t>HeroListWindow.lua</t>
@@ -1143,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -1221,10 +1227,10 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-257746109</v>
+        <v>-671828977</v>
       </c>
       <c r="B4" s="3">
-        <v>-1252442483</v>
+        <v>-881440639</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1241,10 +1247,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-1425025301</v>
+        <v>1030043145</v>
       </c>
       <c r="B5" s="3">
-        <v>-976912153</v>
+        <v>2130076485</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1261,10 +1267,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>68308950</v>
+        <v>-1822338762</v>
       </c>
       <c r="B6" s="3">
-        <v>-322493923</v>
+        <v>-1043817097</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1281,10 +1287,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>1019260065</v>
+        <v>2069627225</v>
       </c>
       <c r="B7" s="3">
-        <v>1017328225</v>
+        <v>1653159199</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
@@ -1301,10 +1307,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>1123422362</v>
+        <v>-639390330</v>
       </c>
       <c r="B8" s="3">
-        <v>1017328225</v>
+        <v>1653159199</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
@@ -1321,10 +1327,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-297270024</v>
+        <v>-247032076</v>
       </c>
       <c r="B9" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -1341,10 +1347,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>550789458</v>
+        <v>-914683150</v>
       </c>
       <c r="B10" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -1361,10 +1367,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>5732480</v>
+        <v>1469057108</v>
       </c>
       <c r="B11" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
@@ -1381,10 +1387,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-1901864469</v>
+        <v>563263933</v>
       </c>
       <c r="B12" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>32</v>
@@ -1401,10 +1407,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>1456313484</v>
+        <v>-1640052790</v>
       </c>
       <c r="B13" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
@@ -1421,10 +1427,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-146713332</v>
+        <v>334986352</v>
       </c>
       <c r="B14" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>34</v>
@@ -1441,10 +1447,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>783918297</v>
+        <v>1656382229</v>
       </c>
       <c r="B15" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>35</v>
@@ -1461,10 +1467,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-1298099431</v>
+        <v>1191492675</v>
       </c>
       <c r="B16" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>36</v>
@@ -1481,10 +1487,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1920486004</v>
+        <v>2125675024</v>
       </c>
       <c r="B17" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>37</v>
@@ -1501,10 +1507,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-1884987356</v>
+        <v>-1961533316</v>
       </c>
       <c r="B18" s="3">
-        <v>15837866</v>
+        <v>1405887086</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>38</v>
@@ -1521,10 +1527,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>1904439952</v>
+        <v>99234118</v>
       </c>
       <c r="B19" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>39</v>
@@ -1541,10 +1547,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-502633142</v>
+        <v>1652309691</v>
       </c>
       <c r="B20" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>42</v>
@@ -1561,10 +1567,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1553022821</v>
+        <v>-1496212642</v>
       </c>
       <c r="B21" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>44</v>
@@ -1581,10 +1587,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1555606421</v>
+        <v>1784042025</v>
       </c>
       <c r="B22" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>45</v>
@@ -1593,7 +1599,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3">
         <v>23</v>
@@ -1601,19 +1607,19 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-80690262</v>
+        <v>-692579849</v>
       </c>
       <c r="B23" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="3">
         <v>23</v>
@@ -1621,19 +1627,19 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>244989659</v>
+        <v>1479034210</v>
       </c>
       <c r="B24" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F24" s="3">
         <v>23</v>
@@ -1641,10 +1647,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-401975932</v>
+        <v>-1608441305</v>
       </c>
       <c r="B25" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>50</v>
@@ -1653,7 +1659,7 @@
         <v>40</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F25" s="3">
         <v>23</v>
@@ -1661,19 +1667,19 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-1079029748</v>
+        <v>2073847480</v>
       </c>
       <c r="B26" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="3">
         <v>23</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-296649783</v>
+        <v>1229683040</v>
       </c>
       <c r="B27" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F27" s="3">
         <v>23</v>
@@ -1701,10 +1707,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>2045054782</v>
+        <v>1889580147</v>
       </c>
       <c r="B28" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>55</v>
@@ -1713,7 +1719,7 @@
         <v>40</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F28" s="3">
         <v>23</v>
@@ -1721,19 +1727,19 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-699454701</v>
+        <v>698208992</v>
       </c>
       <c r="B29" s="3">
-        <v>-1643264599</v>
+        <v>1586115149</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" s="3">
         <v>23</v>
@@ -1741,39 +1747,39 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>252311722</v>
+        <v>1741707445</v>
       </c>
       <c r="B30" s="3">
-        <v>30704076</v>
+        <v>1586115149</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F30" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>64044992</v>
+        <v>1334679678</v>
       </c>
       <c r="B31" s="3">
-        <v>30704076</v>
+        <v>1802024784</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>776920590</v>
+        <v>203780964</v>
       </c>
       <c r="B32" s="3">
-        <v>30704076</v>
+        <v>1802024784</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1801,19 +1807,19 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>-2097447215</v>
+        <v>904144584</v>
       </c>
       <c r="B33" s="3">
-        <v>30704076</v>
+        <v>1802024784</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1821,19 +1827,19 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>1927502965</v>
+        <v>-1147649747</v>
       </c>
       <c r="B34" s="3">
-        <v>-1787621370</v>
+        <v>1802024784</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
@@ -1841,19 +1847,19 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>1907269611</v>
+        <v>1649820611</v>
       </c>
       <c r="B35" s="3">
-        <v>1634278514</v>
+        <v>1374850816</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1861,19 +1867,19 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>-378521023</v>
+        <v>1784757519</v>
       </c>
       <c r="B36" s="3">
-        <v>1874317673</v>
+        <v>-850393118</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1881,19 +1887,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>-1505326931</v>
+        <v>41156671</v>
       </c>
       <c r="B37" s="3">
-        <v>641594185</v>
+        <v>-355104449</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1901,19 +1907,19 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>1933236192</v>
+        <v>433278951</v>
       </c>
       <c r="B38" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1921,19 +1927,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1706018193</v>
+        <v>1887145564</v>
       </c>
       <c r="B39" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1941,19 +1947,19 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>-1963399549</v>
+        <v>797307857</v>
       </c>
       <c r="B40" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1961,19 +1967,19 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>1908693252</v>
+        <v>-337981905</v>
       </c>
       <c r="B41" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1981,19 +1987,19 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>-1577154619</v>
+        <v>153670792</v>
       </c>
       <c r="B42" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2001,19 +2007,19 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>-1185470549</v>
+        <v>-1564951367</v>
       </c>
       <c r="B43" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>1413635628</v>
+        <v>-59478781</v>
       </c>
       <c r="B44" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2041,19 +2047,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>442595499</v>
+        <v>-171116364</v>
       </c>
       <c r="B45" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2061,19 +2067,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>1545290477</v>
+        <v>1358693645</v>
       </c>
       <c r="B46" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>439002458</v>
+        <v>-789027443</v>
       </c>
       <c r="B47" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>243766147</v>
+        <v>-521246146</v>
       </c>
       <c r="B48" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>87</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2121,19 +2127,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-439262861</v>
+        <v>-866621371</v>
       </c>
       <c r="B49" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>88</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-1417288642</v>
+        <v>-1202190585</v>
       </c>
       <c r="B50" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-162970238</v>
+        <v>-697777798</v>
       </c>
       <c r="B51" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2181,19 +2187,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>1881181065</v>
+        <v>-822758644</v>
       </c>
       <c r="B52" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>91</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2201,19 +2207,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-1867970242</v>
+        <v>-683937367</v>
       </c>
       <c r="B53" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2221,19 +2227,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>1480887207</v>
+        <v>1656373698</v>
       </c>
       <c r="B54" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>93</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2241,19 +2247,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-1511668192</v>
+        <v>-1576961177</v>
       </c>
       <c r="B55" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2261,19 +2267,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>872638635</v>
+        <v>1210637086</v>
       </c>
       <c r="B56" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>95</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>-1849221552</v>
+        <v>1015097087</v>
       </c>
       <c r="B57" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2301,19 +2307,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>-1765415213</v>
+        <v>-1179819934</v>
       </c>
       <c r="B58" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>-1743629732</v>
+        <v>887404725</v>
       </c>
       <c r="B59" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2341,19 +2347,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>-613532810</v>
+        <v>1668790150</v>
       </c>
       <c r="B60" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>-860996724</v>
+        <v>2000159984</v>
       </c>
       <c r="B61" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2381,19 +2387,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>261384694</v>
+        <v>-828125338</v>
       </c>
       <c r="B62" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2401,19 +2407,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>560571912</v>
+        <v>-2000734508</v>
       </c>
       <c r="B63" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2421,19 +2427,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>-347768085</v>
+        <v>-2120242522</v>
       </c>
       <c r="B64" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2441,19 +2447,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>1804649977</v>
+        <v>801904891</v>
       </c>
       <c r="B65" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2461,19 +2467,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>-312904799</v>
+        <v>-1470467503</v>
       </c>
       <c r="B66" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>631566423</v>
+        <v>337104583</v>
       </c>
       <c r="B67" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>106</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2501,19 +2507,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>-1901846952</v>
+        <v>2090923639</v>
       </c>
       <c r="B68" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2521,19 +2527,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>-2087322095</v>
+        <v>-963389618</v>
       </c>
       <c r="B69" s="3">
-        <v>641594185</v>
+        <v>1704757777</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2541,19 +2547,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>1856203750</v>
+        <v>-873179829</v>
       </c>
       <c r="B70" s="3">
-        <v>1697493859</v>
+        <v>1704757777</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>1459031768</v>
+        <v>-116491982</v>
       </c>
       <c r="B71" s="3">
-        <v>1697493859</v>
+        <v>1377990655</v>
       </c>
       <c r="C71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2581,19 +2587,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>234463939</v>
+        <v>-1735360998</v>
       </c>
       <c r="B72" s="3">
-        <v>1697493859</v>
+        <v>1377990655</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>112</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2601,19 +2607,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>1557924855</v>
+        <v>1223135529</v>
       </c>
       <c r="B73" s="3">
-        <v>292703195</v>
+        <v>1377990655</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2621,19 +2627,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>1285436590</v>
+        <v>-2078450133</v>
       </c>
       <c r="B74" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C74" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2641,19 +2647,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>69845640</v>
+        <v>-1710946484</v>
       </c>
       <c r="B75" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>116</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2661,19 +2667,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>2010125228</v>
+        <v>-957768232</v>
       </c>
       <c r="B76" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>117</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2681,19 +2687,19 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>-1545033900</v>
+        <v>-2034364172</v>
       </c>
       <c r="B77" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>118</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2701,19 +2707,19 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>691802370</v>
+        <v>-853281810</v>
       </c>
       <c r="B78" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>119</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2721,19 +2727,19 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>1678420747</v>
+        <v>-1945931504</v>
       </c>
       <c r="B79" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>120</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>810152220</v>
+        <v>-500020199</v>
       </c>
       <c r="B80" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2761,19 +2767,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>552983545</v>
+        <v>1757638406</v>
       </c>
       <c r="B81" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2781,19 +2787,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>187594737</v>
+        <v>1988261967</v>
       </c>
       <c r="B82" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2801,19 +2807,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>1133922542</v>
+        <v>-995549749</v>
       </c>
       <c r="B83" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2821,19 +2827,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-502207480</v>
+        <v>-2065132448</v>
       </c>
       <c r="B84" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2841,19 +2847,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>-277636975</v>
+        <v>-469814560</v>
       </c>
       <c r="B85" s="3">
-        <v>292703195</v>
+        <v>1544790827</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>126</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2861,19 +2867,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>688464109</v>
+        <v>-1709480205</v>
       </c>
       <c r="B86" s="3">
-        <v>-682406693</v>
+        <v>1544790827</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2881,19 +2887,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>355193205</v>
+        <v>140739289</v>
       </c>
       <c r="B87" s="3">
-        <v>-682406693</v>
+        <v>-2060301521</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2901,19 +2907,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>1665898652</v>
+        <v>-1608487925</v>
       </c>
       <c r="B88" s="3">
-        <v>-682406693</v>
+        <v>-2060301521</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -2921,19 +2927,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>838127239</v>
+        <v>2105748090</v>
       </c>
       <c r="B89" s="3">
-        <v>-65542374</v>
+        <v>-2060301521</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>131</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2941,19 +2947,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>292098887</v>
+        <v>789221405</v>
       </c>
       <c r="B90" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -2961,19 +2967,19 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>-1436759370</v>
+        <v>1216959907</v>
       </c>
       <c r="B91" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2981,19 +2987,19 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>-883040665</v>
+        <v>-476086870</v>
       </c>
       <c r="B92" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -3001,19 +3007,19 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-759633700</v>
+        <v>-838689769</v>
       </c>
       <c r="B93" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -3021,19 +3027,19 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>-2079671966</v>
+        <v>-1802325708</v>
       </c>
       <c r="B94" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>-898325376</v>
+        <v>1989727680</v>
       </c>
       <c r="B95" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>138</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>851481653</v>
+        <v>-1939875048</v>
       </c>
       <c r="B96" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3081,19 +3087,19 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>1001981197</v>
+        <v>-1464485623</v>
       </c>
       <c r="B97" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>140</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3101,19 +3107,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>2100299150</v>
+        <v>-1951531947</v>
       </c>
       <c r="B98" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3121,19 +3127,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>1470627725</v>
+        <v>-1046567820</v>
       </c>
       <c r="B99" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>142</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3141,19 +3147,19 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>308453566</v>
+        <v>1068522423</v>
       </c>
       <c r="B100" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>143</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3161,19 +3167,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>946178124</v>
+        <v>-300423134</v>
       </c>
       <c r="B101" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3181,19 +3187,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-1745518492</v>
+        <v>1006821704</v>
       </c>
       <c r="B102" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>145</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3201,19 +3207,19 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-1701391336</v>
+        <v>-807058300</v>
       </c>
       <c r="B103" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3221,19 +3227,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>226630296</v>
+        <v>861913762</v>
       </c>
       <c r="B104" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>-1901987644</v>
+        <v>-754517366</v>
       </c>
       <c r="B105" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3261,19 +3267,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>424393879</v>
+        <v>130754166</v>
       </c>
       <c r="B106" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3281,19 +3287,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>628209291</v>
+        <v>125947051</v>
       </c>
       <c r="B107" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3301,19 +3307,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>1189302635</v>
+        <v>-1770038881</v>
       </c>
       <c r="B108" s="3">
-        <v>-65542374</v>
+        <v>-1125565370</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3321,19 +3327,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>1550502872</v>
+        <v>-619684109</v>
       </c>
       <c r="B109" s="3">
-        <v>482291274</v>
+        <v>-1125565370</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3341,19 +3347,19 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>719119378</v>
+        <v>1129969276</v>
       </c>
       <c r="B110" s="3">
-        <v>482291274</v>
+        <v>2132414154</v>
       </c>
       <c r="C110" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3361,19 +3367,19 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>-2074866392</v>
+        <v>2087578356</v>
       </c>
       <c r="B111" s="3">
-        <v>482291274</v>
+        <v>2132414154</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3381,19 +3387,19 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>-264697624</v>
+        <v>-1682130970</v>
       </c>
       <c r="B112" s="3">
-        <v>1557471277</v>
+        <v>2132414154</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3401,19 +3407,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-603773592</v>
+        <v>-1517097132</v>
       </c>
       <c r="B113" s="3">
-        <v>1557471277</v>
+        <v>-122344907</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E113" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3421,19 +3427,19 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>878245409</v>
+        <v>-1065385250</v>
       </c>
       <c r="B114" s="3">
-        <v>1557471277</v>
+        <v>-122344907</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>159</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3441,19 +3447,19 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>-1507543996</v>
+        <v>1033151513</v>
       </c>
       <c r="B115" s="3">
-        <v>502646517</v>
+        <v>-122344907</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>160</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3461,19 +3467,19 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>-1676088260</v>
+        <v>-2058283314</v>
       </c>
       <c r="B116" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3481,19 +3487,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-1395112271</v>
+        <v>2029688188</v>
       </c>
       <c r="B117" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>163</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3501,19 +3507,19 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-410298387</v>
+        <v>-1469368861</v>
       </c>
       <c r="B118" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>164</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3521,19 +3527,19 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>-712152982</v>
+        <v>-683434627</v>
       </c>
       <c r="B119" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>165</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3541,19 +3547,19 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>1461694536</v>
+        <v>1967723194</v>
       </c>
       <c r="B120" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3561,19 +3567,19 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>-975617421</v>
+        <v>1396964412</v>
       </c>
       <c r="B121" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>167</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3581,19 +3587,19 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>253510137</v>
+        <v>1716523581</v>
       </c>
       <c r="B122" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>168</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3601,19 +3607,19 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-1369527260</v>
+        <v>1121214035</v>
       </c>
       <c r="B123" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>169</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3621,19 +3627,19 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>1403180067</v>
+        <v>1691528606</v>
       </c>
       <c r="B124" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3641,19 +3647,19 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>1819061676</v>
+        <v>-390587125</v>
       </c>
       <c r="B125" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3661,19 +3667,19 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>-1267122768</v>
+        <v>1704422050</v>
       </c>
       <c r="B126" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3681,19 +3687,19 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>-1474500060</v>
+        <v>-1536911730</v>
       </c>
       <c r="B127" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3701,19 +3707,19 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>969611249</v>
+        <v>413905320</v>
       </c>
       <c r="B128" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>174</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3721,19 +3727,19 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-689819389</v>
+        <v>-48817825</v>
       </c>
       <c r="B129" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3741,19 +3747,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-172312966</v>
+        <v>-959482885</v>
       </c>
       <c r="B130" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3761,19 +3767,19 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>-1295053375</v>
+        <v>2073649712</v>
       </c>
       <c r="B131" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3781,19 +3787,19 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>97134493</v>
+        <v>1029219947</v>
       </c>
       <c r="B132" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3801,19 +3807,19 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>105762258</v>
+        <v>-1791028253</v>
       </c>
       <c r="B133" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3821,19 +3827,19 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-1297123240</v>
+        <v>-278736850</v>
       </c>
       <c r="B134" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3841,19 +3847,19 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>1882406477</v>
+        <v>64477520</v>
       </c>
       <c r="B135" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3861,19 +3867,19 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>-1195485210</v>
+        <v>1525107119</v>
       </c>
       <c r="B136" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>182</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3881,19 +3887,19 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-1325064825</v>
+        <v>1894508942</v>
       </c>
       <c r="B137" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>183</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3901,19 +3907,19 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>1585463536</v>
+        <v>786946575</v>
       </c>
       <c r="B138" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>184</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -3921,19 +3927,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-1899537868</v>
+        <v>1743712584</v>
       </c>
       <c r="B139" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -3941,19 +3947,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>83290298</v>
+        <v>-1666523598</v>
       </c>
       <c r="B140" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>186</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -3961,19 +3967,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>-511011961</v>
+        <v>-209439764</v>
       </c>
       <c r="B141" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>187</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -3981,19 +3987,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>-1025145887</v>
+        <v>-1975734379</v>
       </c>
       <c r="B142" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -4001,19 +4007,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>408284456</v>
+        <v>1273481327</v>
       </c>
       <c r="B143" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>189</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -4021,19 +4027,19 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>1299831025</v>
+        <v>785293368</v>
       </c>
       <c r="B144" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>190</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -4041,19 +4047,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>-1976628278</v>
+        <v>-594615111</v>
       </c>
       <c r="B145" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>191</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4061,19 +4067,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-1031925589</v>
+        <v>-509427602</v>
       </c>
       <c r="B146" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4081,19 +4087,19 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>1894982809</v>
+        <v>-522008429</v>
       </c>
       <c r="B147" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4101,19 +4107,19 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>-2121109836</v>
+        <v>1223491875</v>
       </c>
       <c r="B148" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>194</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4121,19 +4127,19 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>-367590771</v>
+        <v>1068025648</v>
       </c>
       <c r="B149" s="3">
-        <v>502646517</v>
+        <v>-1653651395</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>195</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -4141,19 +4147,19 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-1604905084</v>
+        <v>-1281428191</v>
       </c>
       <c r="B150" s="3">
-        <v>-1087550218</v>
+        <v>-1653651395</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>196</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -4161,19 +4167,19 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-1416131283</v>
+        <v>559760484</v>
       </c>
       <c r="B151" s="3">
-        <v>-1087550218</v>
+        <v>-968073910</v>
       </c>
       <c r="C151" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -4181,19 +4187,19 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>-1280041401</v>
+        <v>1147450703</v>
       </c>
       <c r="B152" s="3">
-        <v>-1087550218</v>
+        <v>-968073910</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>199</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -4201,19 +4207,19 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>1408622605</v>
+        <v>-555765293</v>
       </c>
       <c r="B153" s="3">
-        <v>-1087550218</v>
+        <v>-968073910</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>200</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -4221,19 +4227,19 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>-1184996614</v>
+        <v>-1008309707</v>
       </c>
       <c r="B154" s="3">
-        <v>-1087550218</v>
+        <v>-968073910</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>201</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -4241,19 +4247,19 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>-743273753</v>
+        <v>1649328148</v>
       </c>
       <c r="B155" s="3">
-        <v>-1087550218</v>
+        <v>-968073910</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>202</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -4261,19 +4267,19 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>738946719</v>
+        <v>1483365187</v>
       </c>
       <c r="B156" s="3">
-        <v>1508121002</v>
+        <v>-968073910</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>203</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -4281,19 +4287,19 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>576545488</v>
+        <v>488959337</v>
       </c>
       <c r="B157" s="3">
-        <v>1508121002</v>
+        <v>603336498</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -4301,19 +4307,19 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>1855907347</v>
+        <v>-258823006</v>
       </c>
       <c r="B158" s="3">
-        <v>1508121002</v>
+        <v>603336498</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>206</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -4321,19 +4327,19 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>-1145081060</v>
+        <v>-877025943</v>
       </c>
       <c r="B159" s="3">
-        <v>1508121002</v>
+        <v>603336498</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>207</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -4341,19 +4347,19 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>-1488506594</v>
+        <v>-1928104510</v>
       </c>
       <c r="B160" s="3">
-        <v>1508121002</v>
+        <v>603336498</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>208</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -4361,19 +4367,19 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>-745009968</v>
+        <v>233779722</v>
       </c>
       <c r="B161" s="3">
-        <v>1508121002</v>
+        <v>603336498</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>209</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -4381,39 +4387,39 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>-181505390</v>
+        <v>575019724</v>
       </c>
       <c r="B162" s="3">
-        <v>498482096</v>
+        <v>603336498</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>210</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F162" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>-1287614635</v>
+        <v>-1924748440</v>
       </c>
       <c r="B163" s="3">
-        <v>-2023891807</v>
+        <v>-1059248364</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F163" s="3">
         <v>15</v>
@@ -4421,19 +4427,19 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>-841801683</v>
+        <v>138706997</v>
       </c>
       <c r="B164" s="3">
-        <v>-1493566452</v>
+        <v>1096960845</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="F164" s="3">
         <v>15</v>
@@ -4441,10 +4447,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>-1625153888</v>
+        <v>1750531901</v>
       </c>
       <c r="B165" s="3">
-        <v>-1392412074</v>
+        <v>-1254891170</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>215</v>
@@ -4453,7 +4459,7 @@
         <v>22</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="F165" s="3">
         <v>15</v>
@@ -4461,19 +4467,19 @@
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>1299702156</v>
+        <v>344749750</v>
       </c>
       <c r="B166" s="3">
-        <v>-833208201</v>
+        <v>-466514230</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="F166" s="3">
         <v>15</v>
@@ -4481,10 +4487,10 @@
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>-552127726</v>
+        <v>949097290</v>
       </c>
       <c r="B167" s="3">
-        <v>-234066055</v>
+        <v>1748860649</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>218</v>
@@ -4493,7 +4499,7 @@
         <v>22</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F167" s="3">
         <v>15</v>
@@ -4501,39 +4507,39 @@
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>1735911982</v>
+        <v>1294323570</v>
       </c>
       <c r="B168" s="3">
-        <v>401643752</v>
+        <v>-1646712389</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>219</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="F168" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>-510167203</v>
+        <v>821365954</v>
       </c>
       <c r="B169" s="3">
-        <v>401643752</v>
+        <v>24384822</v>
       </c>
       <c r="C169" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E169" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F169" s="3">
         <v>26</v>
@@ -4541,21 +4547,61 @@
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>1714968970</v>
+        <v>1428139627</v>
       </c>
       <c r="B170" s="3">
-        <v>-799817549</v>
+        <v>24384822</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E170" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F170" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="3">
+        <v>-633996269</v>
+      </c>
+      <c r="B171" s="3">
+        <v>24384822</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F171" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="3">
+        <v>-1038403056</v>
+      </c>
+      <c r="B172" s="3">
+        <v>1213201749</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F170" s="3">
+      <c r="F172" s="3">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>fileId</t>
   </si>
@@ -80,139 +80,205 @@
     <t>扩展名枚举值</t>
   </si>
   <si>
+    <t>GuideMaskShader</t>
+  </si>
+  <si>
+    <t>.mat</t>
+  </si>
+  <si>
+    <t>o_804079274</t>
+  </si>
+  <si>
+    <t>GuideWindow</t>
+  </si>
+  <si>
+    <t>.prefab</t>
+  </si>
+  <si>
+    <t>o__134525322</t>
+  </si>
+  <si>
+    <t>HeroListWindow</t>
+  </si>
+  <si>
+    <t>s__48687258_refdep</t>
+  </si>
+  <si>
+    <t>LobbyWindow</t>
+  </si>
+  <si>
+    <t>o__891049532</t>
+  </si>
+  <si>
+    <t>MessageBoxWindow</t>
+  </si>
+  <si>
+    <t>o__1481992392</t>
+  </si>
+  <si>
+    <t>PlayerListWindow</t>
+  </si>
+  <si>
     <t>FZY4JW_0</t>
   </si>
   <si>
     <t>.TTF</t>
   </si>
   <si>
-    <t>o_1351248175</t>
-  </si>
-  <si>
-    <t>GuideMaskShader</t>
-  </si>
-  <si>
-    <t>.mat</t>
-  </si>
-  <si>
-    <t>o__1445529088</t>
+    <t>o_1740741083</t>
   </si>
   <si>
     <t>pf_hero_1002</t>
   </si>
   <si>
-    <t>.prefab</t>
-  </si>
-  <si>
-    <t>o_362012243</t>
+    <t>s_2102381656_refdep</t>
   </si>
   <si>
     <t>SpriteA</t>
   </si>
   <si>
-    <t>o_370526473</t>
+    <t>o_728513591</t>
   </si>
   <si>
     <t>SpriteB</t>
   </si>
   <si>
-    <t>o__2011266808</t>
+    <t>o_1449048355</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_01</t>
   </si>
   <si>
-    <t/>
+    <t>o_772797634</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_02</t>
   </si>
   <si>
+    <t>o__1580348835</t>
+  </si>
+  <si>
     <t>fx_hero_1002_atk_03</t>
   </si>
   <si>
+    <t>o_916662210</t>
+  </si>
+  <si>
     <t>fx_hero_1002_die</t>
   </si>
   <si>
+    <t>o_1417665199</t>
+  </si>
+  <si>
     <t>fx_hero_1002_Hit_a</t>
   </si>
   <si>
+    <t>o_987507523</t>
+  </si>
+  <si>
     <t>fx_hero_1002_Hit_b</t>
   </si>
   <si>
+    <t>o_372291149</t>
+  </si>
+  <si>
     <t>fx_hero_1002_skill_01</t>
   </si>
   <si>
+    <t>o_836104149</t>
+  </si>
+  <si>
     <t>fx_hero_1002_skill_02_a</t>
   </si>
   <si>
+    <t>o_997145031</t>
+  </si>
+  <si>
     <t>fx_hero_1002_skill_02_b</t>
   </si>
   <si>
+    <t>o__1881727088</t>
+  </si>
+  <si>
     <t>fx_hero_1002_skill_03</t>
   </si>
   <si>
-    <t>bx_map_pve_1</t>
+    <t>o_2010935313</t>
+  </si>
+  <si>
+    <t>Examplebx_map_pve_1</t>
   </si>
   <si>
     <t>.unity</t>
   </si>
   <si>
-    <t>s_1952168169</t>
+    <t>s_1998193365</t>
   </si>
   <si>
     <t>ExampleEntityComponentSystem</t>
   </si>
   <si>
-    <t>s_949931212</t>
-  </si>
-  <si>
-    <t>ExampleEventAggregator</t>
+    <t>s_2102381656</t>
+  </si>
+  <si>
+    <t>ExampleEventHandler</t>
+  </si>
+  <si>
+    <t>s_3404451</t>
   </si>
   <si>
     <t>ExampleFMS</t>
   </si>
   <si>
+    <t>s_857707986</t>
+  </si>
+  <si>
     <t>ExampleGuide</t>
   </si>
   <si>
-    <t>s__562228563</t>
+    <t>s__2009239190</t>
   </si>
   <si>
     <t>ExampleProject</t>
   </si>
   <si>
-    <t>s__554521457</t>
+    <t>s__1574957563</t>
   </si>
   <si>
     <t>ExampleSkill</t>
   </si>
   <si>
+    <t>s_1062889003</t>
+  </si>
+  <si>
     <t>ExampleSQLite</t>
   </si>
   <si>
-    <t>s_1986374775</t>
+    <t>s_1626608088</t>
   </si>
   <si>
     <t>ExampleTerrain</t>
   </si>
   <si>
-    <t>s_1730613532</t>
+    <t>s__1407783059</t>
   </si>
   <si>
     <t>ExampleUIWindow</t>
   </si>
   <si>
+    <t>s__48687258</t>
+  </si>
+  <si>
     <t>ExampleXLS</t>
   </si>
   <si>
-    <t>s__870321060</t>
+    <t>s__1088948561</t>
   </si>
   <si>
     <t>ExampleXLua</t>
   </si>
   <si>
-    <t>s__1141265897</t>
+    <t>s__1355360791</t>
   </si>
   <si>
     <t>chgPowerCircle1</t>
@@ -221,31 +287,28 @@
     <t>.png</t>
   </si>
   <si>
-    <t>o_234754743</t>
+    <t>o_1735064929</t>
   </si>
   <si>
     <t>chgPowerCircle2</t>
   </si>
   <si>
-    <t>o__2143188673</t>
+    <t>o_312776746</t>
   </si>
   <si>
     <t>chgPowerCircle3</t>
   </si>
   <si>
-    <t>o_1310352000</t>
-  </si>
-  <si>
     <t>effect_hero_foot</t>
   </si>
   <si>
-    <t>o_885963987</t>
+    <t>o_283329097</t>
   </si>
   <si>
     <t>ugui_loading</t>
   </si>
   <si>
-    <t>o__801488047</t>
+    <t>o__1336611924</t>
   </si>
   <si>
     <t>LobbyBackground</t>
@@ -254,19 +317,19 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>o_321907647</t>
+    <t>o__1697330953</t>
   </si>
   <si>
     <t>ugui_login</t>
   </si>
   <si>
-    <t>o_574924529</t>
+    <t>o_1351797518</t>
   </si>
   <si>
     <t>battle_camp_blue</t>
   </si>
   <si>
-    <t>sp__1311740722</t>
+    <t>sp__1643345598</t>
   </si>
   <si>
     <t>battle_camp_purple</t>
@@ -368,7 +431,7 @@
     <t>SkillShape_Circle</t>
   </si>
   <si>
-    <t>sp_1091131383</t>
+    <t>sp_2144060812</t>
   </si>
   <si>
     <t>SkillShape_Line</t>
@@ -380,7 +443,7 @@
     <t>hero_show_attack</t>
   </si>
   <si>
-    <t>sp_672254639</t>
+    <t>sp_1103995528</t>
   </si>
   <si>
     <t>hero_show_back</t>
@@ -422,7 +485,7 @@
     <t>loading_item</t>
   </si>
   <si>
-    <t>sp__1225777313</t>
+    <t>sp_371046582</t>
   </si>
   <si>
     <t>loading_other</t>
@@ -434,7 +497,7 @@
     <t>lobby_achieve</t>
   </si>
   <si>
-    <t>sp_1265498893</t>
+    <t>sp_493391422</t>
   </si>
   <si>
     <t>lobby_activity</t>
@@ -497,7 +560,7 @@
     <t>login_btn_login</t>
   </si>
   <si>
-    <t>sp_872807620</t>
+    <t>sp_83733784</t>
   </si>
   <si>
     <t>login_dian</t>
@@ -509,7 +572,7 @@
     <t>match_job</t>
   </si>
   <si>
-    <t>sp_1039151119</t>
+    <t>sp_438571766</t>
   </si>
   <si>
     <t>match_player</t>
@@ -521,7 +584,7 @@
     <t>share_add</t>
   </si>
   <si>
-    <t>sp_428318215</t>
+    <t>sp_1960007041</t>
   </si>
   <si>
     <t>share_bg</t>
@@ -629,7 +692,7 @@
     <t>shop_item_bg</t>
   </si>
   <si>
-    <t>sp__20673955</t>
+    <t>sp_758489486</t>
   </si>
   <si>
     <t>shop_other1</t>
@@ -650,7 +713,7 @@
     <t>Skill100204</t>
   </si>
   <si>
-    <t>sp_1715666246</t>
+    <t>sp_267983427</t>
   </si>
   <si>
     <t>Skill100205</t>
@@ -671,46 +734,28 @@
     <t>Terrain</t>
   </si>
   <si>
-    <t>o_1511245233</t>
-  </si>
-  <si>
-    <t>GuideWindow</t>
-  </si>
-  <si>
-    <t>o__835248780</t>
-  </si>
-  <si>
-    <t>HeroListWindow</t>
-  </si>
-  <si>
-    <t>LobbyWindow</t>
-  </si>
-  <si>
-    <t>o__1876881176</t>
-  </si>
-  <si>
-    <t>MessageBoxWindow</t>
-  </si>
-  <si>
-    <t>PlayerListWindow</t>
-  </si>
-  <si>
-    <t>StrayFogXLuaLevel.lua</t>
+    <t>o_1026750565</t>
+  </si>
+  <si>
+    <t>ExampleTestXLuaLevelCube.lua</t>
   </si>
   <si>
     <t>.txt</t>
   </si>
   <si>
-    <t>x__630209428</t>
-  </si>
-  <si>
-    <t>StrayFogXLuaLevelFunction.lua</t>
-  </si>
-  <si>
-    <t>TestXLuaLevelCube.lua</t>
+    <t>x_356206060</t>
+  </si>
+  <si>
+    <t>ExampleXLuaLevel.lua</t>
+  </si>
+  <si>
+    <t>ExampleXLuaLevelFunction.lua</t>
   </si>
   <si>
     <t>HeroListWindow.lua</t>
+  </si>
+  <si>
+    <t>x_332625339</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1272,10 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-671828977</v>
+        <v>1030043145</v>
       </c>
       <c r="B4" s="3">
-        <v>-881440639</v>
+        <v>2130076485</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1242,15 +1287,15 @@
         <v>17</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>1030043145</v>
+        <v>138706997</v>
       </c>
       <c r="B5" s="3">
-        <v>2130076485</v>
+        <v>1096960845</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1262,24 +1307,24 @@
         <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-1822338762</v>
+        <v>1750531901</v>
       </c>
       <c r="B6" s="3">
-        <v>-1043817097</v>
+        <v>-1254891170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F6" s="3">
         <v>15</v>
@@ -1287,19 +1332,19 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>2069627225</v>
+        <v>344749750</v>
       </c>
       <c r="B7" s="3">
-        <v>1653159199</v>
+        <v>-466514230</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="3">
         <v>15</v>
@@ -1307,19 +1352,19 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-639390330</v>
+        <v>949097290</v>
       </c>
       <c r="B8" s="3">
-        <v>1653159199</v>
+        <v>1748860649</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="3">
         <v>15</v>
@@ -1327,19 +1372,19 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-247032076</v>
+        <v>1294323570</v>
       </c>
       <c r="B9" s="3">
-        <v>1405887086</v>
+        <v>-1646712389</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="3">
         <v>15</v>
@@ -1347,39 +1392,39 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-914683150</v>
+        <v>-671828977</v>
       </c>
       <c r="B10" s="3">
-        <v>1405887086</v>
+        <v>703074975</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>1469057108</v>
+        <v>-1822338762</v>
       </c>
       <c r="B11" s="3">
-        <v>1405887086</v>
+        <v>-2004506147</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11" s="3">
         <v>15</v>
@@ -1387,19 +1432,19 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>563263933</v>
+        <v>2069627225</v>
       </c>
       <c r="B12" s="3">
-        <v>1405887086</v>
+        <v>1536776472</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3">
         <v>15</v>
@@ -1407,19 +1452,19 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-1640052790</v>
+        <v>-639390330</v>
       </c>
       <c r="B13" s="3">
-        <v>1405887086</v>
+        <v>1536776472</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3">
         <v>15</v>
@@ -1427,19 +1472,19 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>334986352</v>
+        <v>-247032076</v>
       </c>
       <c r="B14" s="3">
-        <v>1405887086</v>
+        <v>-1919546133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3">
         <v>15</v>
@@ -1447,19 +1492,19 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>1656382229</v>
+        <v>-914683150</v>
       </c>
       <c r="B15" s="3">
-        <v>1405887086</v>
+        <v>-1919546133</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3">
         <v>15</v>
@@ -1467,19 +1512,19 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>1191492675</v>
+        <v>1469057108</v>
       </c>
       <c r="B16" s="3">
-        <v>1405887086</v>
+        <v>-1919546133</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3">
         <v>15</v>
@@ -1487,19 +1532,19 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>2125675024</v>
+        <v>563263933</v>
       </c>
       <c r="B17" s="3">
-        <v>1405887086</v>
+        <v>-1919546133</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F17" s="3">
         <v>15</v>
@@ -1507,19 +1552,19 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-1961533316</v>
+        <v>-1640052790</v>
       </c>
       <c r="B18" s="3">
-        <v>1405887086</v>
+        <v>-1919546133</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="F18" s="3">
         <v>15</v>
@@ -1527,119 +1572,119 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>99234118</v>
+        <v>334986352</v>
       </c>
       <c r="B19" s="3">
-        <v>1586115149</v>
+        <v>-1919546133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F19" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>1652309691</v>
+        <v>1656382229</v>
       </c>
       <c r="B20" s="3">
-        <v>1586115149</v>
+        <v>-1919546133</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F20" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1496212642</v>
+        <v>1191492675</v>
       </c>
       <c r="B21" s="3">
-        <v>1586115149</v>
+        <v>-1919546133</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F21" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1784042025</v>
+        <v>2125675024</v>
       </c>
       <c r="B22" s="3">
-        <v>1586115149</v>
+        <v>-1919546133</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F22" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-692579849</v>
+        <v>-1961533316</v>
       </c>
       <c r="B23" s="3">
-        <v>1586115149</v>
+        <v>-1919546133</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F23" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>1479034210</v>
+        <v>-1860432654</v>
       </c>
       <c r="B24" s="3">
-        <v>1586115149</v>
+        <v>1325637814</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3">
         <v>23</v>
@@ -1647,19 +1692,19 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>-1608441305</v>
+        <v>1652309691</v>
       </c>
       <c r="B25" s="3">
-        <v>1586115149</v>
+        <v>1325637814</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="F25" s="3">
         <v>23</v>
@@ -1667,19 +1712,19 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>2073847480</v>
+        <v>1305370276</v>
       </c>
       <c r="B26" s="3">
-        <v>1586115149</v>
+        <v>1325637814</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3">
         <v>23</v>
@@ -1687,19 +1732,19 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1229683040</v>
+        <v>1784042025</v>
       </c>
       <c r="B27" s="3">
-        <v>1586115149</v>
+        <v>1325637814</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3">
         <v>23</v>
@@ -1707,19 +1752,19 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1889580147</v>
+        <v>-692579849</v>
       </c>
       <c r="B28" s="3">
-        <v>1586115149</v>
+        <v>1325637814</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F28" s="3">
         <v>23</v>
@@ -1727,19 +1772,19 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>698208992</v>
+        <v>1479034210</v>
       </c>
       <c r="B29" s="3">
-        <v>1586115149</v>
+        <v>1325637814</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F29" s="3">
         <v>23</v>
@@ -1747,19 +1792,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>1741707445</v>
+        <v>-1608441305</v>
       </c>
       <c r="B30" s="3">
-        <v>1586115149</v>
+        <v>1325637814</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3">
         <v>23</v>
@@ -1767,119 +1812,119 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1334679678</v>
+        <v>2073847480</v>
       </c>
       <c r="B31" s="3">
-        <v>1802024784</v>
+        <v>1325637814</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>203780964</v>
+        <v>1229683040</v>
       </c>
       <c r="B32" s="3">
-        <v>1802024784</v>
+        <v>1325637814</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>904144584</v>
+        <v>1889580147</v>
       </c>
       <c r="B33" s="3">
-        <v>1802024784</v>
+        <v>1325637814</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>-1147649747</v>
+        <v>698208992</v>
       </c>
       <c r="B34" s="3">
-        <v>1802024784</v>
+        <v>1325637814</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>1649820611</v>
+        <v>1741707445</v>
       </c>
       <c r="B35" s="3">
-        <v>1374850816</v>
+        <v>1325637814</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>1784757519</v>
+        <v>1334679678</v>
       </c>
       <c r="B36" s="3">
-        <v>-850393118</v>
+        <v>-1405308702</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1887,19 +1932,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>41156671</v>
+        <v>203780964</v>
       </c>
       <c r="B37" s="3">
-        <v>-355104449</v>
+        <v>-1405308702</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1907,19 +1952,19 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>433278951</v>
+        <v>904144584</v>
       </c>
       <c r="B38" s="3">
-        <v>1704757777</v>
+        <v>-1405308702</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1927,19 +1972,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1887145564</v>
+        <v>-1147649747</v>
       </c>
       <c r="B39" s="3">
-        <v>1704757777</v>
+        <v>-1405308702</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1947,19 +1992,19 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>797307857</v>
+        <v>1649820611</v>
       </c>
       <c r="B40" s="3">
-        <v>1704757777</v>
+        <v>-1408754900</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -1967,19 +2012,19 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>-337981905</v>
+        <v>1784757519</v>
       </c>
       <c r="B41" s="3">
-        <v>1704757777</v>
+        <v>1311652878</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -1987,19 +2032,19 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>153670792</v>
+        <v>41156671</v>
       </c>
       <c r="B42" s="3">
-        <v>1704757777</v>
+        <v>853849619</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2007,19 +2052,19 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>-1564951367</v>
+        <v>433278951</v>
       </c>
       <c r="B43" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2027,19 +2072,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>-59478781</v>
+        <v>1887145564</v>
       </c>
       <c r="B44" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2047,19 +2092,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-171116364</v>
+        <v>797307857</v>
       </c>
       <c r="B45" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2067,19 +2112,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>1358693645</v>
+        <v>-337981905</v>
       </c>
       <c r="B46" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2087,19 +2132,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-789027443</v>
+        <v>153670792</v>
       </c>
       <c r="B47" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2107,19 +2152,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-521246146</v>
+        <v>-1564951367</v>
       </c>
       <c r="B48" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2127,19 +2172,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-866621371</v>
+        <v>-59478781</v>
       </c>
       <c r="B49" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2147,19 +2192,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-1202190585</v>
+        <v>-171116364</v>
       </c>
       <c r="B50" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2167,19 +2212,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-697777798</v>
+        <v>1358693645</v>
       </c>
       <c r="B51" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2187,19 +2232,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-822758644</v>
+        <v>-789027443</v>
       </c>
       <c r="B52" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2207,19 +2252,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-683937367</v>
+        <v>-521246146</v>
       </c>
       <c r="B53" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2227,19 +2272,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>1656373698</v>
+        <v>-866621371</v>
       </c>
       <c r="B54" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2247,19 +2292,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-1576961177</v>
+        <v>-1202190585</v>
       </c>
       <c r="B55" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2267,19 +2312,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>1210637086</v>
+        <v>-697777798</v>
       </c>
       <c r="B56" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2287,19 +2332,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>1015097087</v>
+        <v>-822758644</v>
       </c>
       <c r="B57" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2307,19 +2352,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>-1179819934</v>
+        <v>-683937367</v>
       </c>
       <c r="B58" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2327,19 +2372,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>887404725</v>
+        <v>1656373698</v>
       </c>
       <c r="B59" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2347,19 +2392,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>1668790150</v>
+        <v>-1576961177</v>
       </c>
       <c r="B60" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2367,19 +2412,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>2000159984</v>
+        <v>1210637086</v>
       </c>
       <c r="B61" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2387,19 +2432,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>-828125338</v>
+        <v>1015097087</v>
       </c>
       <c r="B62" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2407,19 +2452,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>-2000734508</v>
+        <v>-1179819934</v>
       </c>
       <c r="B63" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2427,19 +2472,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>-2120242522</v>
+        <v>887404725</v>
       </c>
       <c r="B64" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2447,19 +2492,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>801904891</v>
+        <v>1668790150</v>
       </c>
       <c r="B65" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2467,19 +2512,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>-1470467503</v>
+        <v>2000159984</v>
       </c>
       <c r="B66" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2487,19 +2532,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>337104583</v>
+        <v>-828125338</v>
       </c>
       <c r="B67" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2507,19 +2552,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>2090923639</v>
+        <v>-2000734508</v>
       </c>
       <c r="B68" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2527,19 +2572,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>-963389618</v>
+        <v>-2120242522</v>
       </c>
       <c r="B69" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2547,19 +2592,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>-873179829</v>
+        <v>801904891</v>
       </c>
       <c r="B70" s="3">
-        <v>1704757777</v>
+        <v>1498651392</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2567,19 +2612,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>-116491982</v>
+        <v>-1470467503</v>
       </c>
       <c r="B71" s="3">
-        <v>1377990655</v>
+        <v>1498651392</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2587,19 +2632,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>-1735360998</v>
+        <v>337104583</v>
       </c>
       <c r="B72" s="3">
-        <v>1377990655</v>
+        <v>1498651392</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2607,19 +2652,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>1223135529</v>
+        <v>2090923639</v>
       </c>
       <c r="B73" s="3">
-        <v>1377990655</v>
+        <v>1498651392</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2627,19 +2672,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>-2078450133</v>
+        <v>-963389618</v>
       </c>
       <c r="B74" s="3">
-        <v>1544790827</v>
+        <v>1498651392</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2647,19 +2692,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>-1710946484</v>
+        <v>-873179829</v>
       </c>
       <c r="B75" s="3">
-        <v>1544790827</v>
+        <v>1498651392</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2667,19 +2712,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-957768232</v>
+        <v>-116491982</v>
       </c>
       <c r="B76" s="3">
-        <v>1544790827</v>
+        <v>-143016780</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2687,19 +2732,19 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>-2034364172</v>
+        <v>-1735360998</v>
       </c>
       <c r="B77" s="3">
-        <v>1544790827</v>
+        <v>-143016780</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2707,19 +2752,19 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-853281810</v>
+        <v>1223135529</v>
       </c>
       <c r="B78" s="3">
-        <v>1544790827</v>
+        <v>-143016780</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2727,19 +2772,19 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-1945931504</v>
+        <v>-2078450133</v>
       </c>
       <c r="B79" s="3">
-        <v>1544790827</v>
+        <v>697093135</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2747,19 +2792,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-500020199</v>
+        <v>-1710946484</v>
       </c>
       <c r="B80" s="3">
-        <v>1544790827</v>
+        <v>697093135</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2767,19 +2812,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>1757638406</v>
+        <v>-957768232</v>
       </c>
       <c r="B81" s="3">
-        <v>1544790827</v>
+        <v>697093135</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2787,19 +2832,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>1988261967</v>
+        <v>-2034364172</v>
       </c>
       <c r="B82" s="3">
-        <v>1544790827</v>
+        <v>697093135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2807,19 +2852,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>-995549749</v>
+        <v>-853281810</v>
       </c>
       <c r="B83" s="3">
-        <v>1544790827</v>
+        <v>697093135</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2827,19 +2872,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-2065132448</v>
+        <v>-1945931504</v>
       </c>
       <c r="B84" s="3">
-        <v>1544790827</v>
+        <v>697093135</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2847,19 +2892,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>-469814560</v>
+        <v>-500020199</v>
       </c>
       <c r="B85" s="3">
-        <v>1544790827</v>
+        <v>697093135</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2867,19 +2912,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>-1709480205</v>
+        <v>1757638406</v>
       </c>
       <c r="B86" s="3">
-        <v>1544790827</v>
+        <v>697093135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2887,19 +2932,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>140739289</v>
+        <v>1988261967</v>
       </c>
       <c r="B87" s="3">
-        <v>-2060301521</v>
+        <v>697093135</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2907,19 +2952,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>-1608487925</v>
+        <v>-995549749</v>
       </c>
       <c r="B88" s="3">
-        <v>-2060301521</v>
+        <v>697093135</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -2927,19 +2972,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>2105748090</v>
+        <v>-2065132448</v>
       </c>
       <c r="B89" s="3">
-        <v>-2060301521</v>
+        <v>697093135</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2947,19 +2992,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>789221405</v>
+        <v>-469814560</v>
       </c>
       <c r="B90" s="3">
-        <v>-1125565370</v>
+        <v>697093135</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -2967,19 +3012,19 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>1216959907</v>
+        <v>-1709480205</v>
       </c>
       <c r="B91" s="3">
-        <v>-1125565370</v>
+        <v>697093135</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -2987,19 +3032,19 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>-476086870</v>
+        <v>140739289</v>
       </c>
       <c r="B92" s="3">
-        <v>-1125565370</v>
+        <v>-1099268540</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -3007,19 +3052,19 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-838689769</v>
+        <v>-1608487925</v>
       </c>
       <c r="B93" s="3">
-        <v>-1125565370</v>
+        <v>-1099268540</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -3027,19 +3072,19 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>-1802325708</v>
+        <v>2105748090</v>
       </c>
       <c r="B94" s="3">
-        <v>-1125565370</v>
+        <v>-1099268540</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3047,19 +3092,19 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>1989727680</v>
+        <v>789221405</v>
       </c>
       <c r="B95" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3067,19 +3112,19 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>-1939875048</v>
+        <v>1216959907</v>
       </c>
       <c r="B96" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3087,19 +3132,19 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-1464485623</v>
+        <v>-476086870</v>
       </c>
       <c r="B97" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3107,19 +3152,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-1951531947</v>
+        <v>-838689769</v>
       </c>
       <c r="B98" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3127,19 +3172,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-1046567820</v>
+        <v>-1802325708</v>
       </c>
       <c r="B99" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3147,19 +3192,19 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>1068522423</v>
+        <v>1989727680</v>
       </c>
       <c r="B100" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3167,19 +3212,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-300423134</v>
+        <v>-1939875048</v>
       </c>
       <c r="B101" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3187,19 +3232,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>1006821704</v>
+        <v>-1464485623</v>
       </c>
       <c r="B102" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3207,19 +3252,19 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-807058300</v>
+        <v>-1951531947</v>
       </c>
       <c r="B103" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3227,19 +3272,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>861913762</v>
+        <v>-1046567820</v>
       </c>
       <c r="B104" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3247,19 +3292,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>-754517366</v>
+        <v>1068522423</v>
       </c>
       <c r="B105" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3267,19 +3312,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>130754166</v>
+        <v>-300423134</v>
       </c>
       <c r="B106" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3287,19 +3332,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>125947051</v>
+        <v>1006821704</v>
       </c>
       <c r="B107" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3307,19 +3352,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>-1770038881</v>
+        <v>-807058300</v>
       </c>
       <c r="B108" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3327,19 +3372,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>-619684109</v>
+        <v>861913762</v>
       </c>
       <c r="B109" s="3">
-        <v>-1125565370</v>
+        <v>-1080227996</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3347,16 +3392,16 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>1129969276</v>
+        <v>-754517366</v>
       </c>
       <c r="B110" s="3">
-        <v>2132414154</v>
+        <v>-1080227996</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>154</v>
@@ -3367,16 +3412,16 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>2087578356</v>
+        <v>130754166</v>
       </c>
       <c r="B111" s="3">
-        <v>2132414154</v>
+        <v>-1080227996</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>154</v>
@@ -3387,16 +3432,16 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>-1682130970</v>
+        <v>125947051</v>
       </c>
       <c r="B112" s="3">
-        <v>2132414154</v>
+        <v>-1080227996</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>154</v>
@@ -3407,19 +3452,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-1517097132</v>
+        <v>-1770038881</v>
       </c>
       <c r="B113" s="3">
-        <v>-122344907</v>
+        <v>-1080227996</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3427,19 +3472,19 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-1065385250</v>
+        <v>-619684109</v>
       </c>
       <c r="B114" s="3">
-        <v>-122344907</v>
+        <v>-1080227996</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3447,19 +3492,19 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>1033151513</v>
+        <v>1129969276</v>
       </c>
       <c r="B115" s="3">
-        <v>-122344907</v>
+        <v>1006479116</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3467,19 +3512,19 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>-2058283314</v>
+        <v>2087578356</v>
       </c>
       <c r="B116" s="3">
-        <v>-1653651395</v>
+        <v>1006479116</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3487,19 +3532,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>2029688188</v>
+        <v>-1682130970</v>
       </c>
       <c r="B117" s="3">
-        <v>-1653651395</v>
+        <v>1006479116</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3507,19 +3552,19 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-1469368861</v>
+        <v>-1517097132</v>
       </c>
       <c r="B118" s="3">
-        <v>-1653651395</v>
+        <v>851451727</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3527,19 +3572,19 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>-683434627</v>
+        <v>-1065385250</v>
       </c>
       <c r="B119" s="3">
-        <v>-1653651395</v>
+        <v>851451727</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3547,19 +3592,19 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>1967723194</v>
+        <v>1033151513</v>
       </c>
       <c r="B120" s="3">
-        <v>-1653651395</v>
+        <v>851451727</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3567,19 +3612,19 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>1396964412</v>
+        <v>-2058283314</v>
       </c>
       <c r="B121" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3587,19 +3632,19 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>1716523581</v>
+        <v>2029688188</v>
       </c>
       <c r="B122" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3607,19 +3652,19 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>1121214035</v>
+        <v>-1469368861</v>
       </c>
       <c r="B123" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3627,19 +3672,19 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>1691528606</v>
+        <v>-683434627</v>
       </c>
       <c r="B124" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3647,19 +3692,19 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>-390587125</v>
+        <v>1967723194</v>
       </c>
       <c r="B125" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3667,19 +3712,19 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>1704422050</v>
+        <v>1396964412</v>
       </c>
       <c r="B126" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3687,19 +3732,19 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>-1536911730</v>
+        <v>1716523581</v>
       </c>
       <c r="B127" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3707,19 +3752,19 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>413905320</v>
+        <v>1121214035</v>
       </c>
       <c r="B128" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3727,19 +3772,19 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-48817825</v>
+        <v>1691528606</v>
       </c>
       <c r="B129" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3747,19 +3792,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-959482885</v>
+        <v>-390587125</v>
       </c>
       <c r="B130" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3767,19 +3812,19 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>2073649712</v>
+        <v>1704422050</v>
       </c>
       <c r="B131" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3787,19 +3832,19 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>1029219947</v>
+        <v>-1536911730</v>
       </c>
       <c r="B132" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3807,19 +3852,19 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-1791028253</v>
+        <v>413905320</v>
       </c>
       <c r="B133" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3827,19 +3872,19 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-278736850</v>
+        <v>-48817825</v>
       </c>
       <c r="B134" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3847,19 +3892,19 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>64477520</v>
+        <v>-959482885</v>
       </c>
       <c r="B135" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3867,19 +3912,19 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>1525107119</v>
+        <v>2073649712</v>
       </c>
       <c r="B136" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3887,19 +3932,19 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>1894508942</v>
+        <v>1029219947</v>
       </c>
       <c r="B137" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C137" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3907,19 +3952,19 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>786946575</v>
+        <v>-1791028253</v>
       </c>
       <c r="B138" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -3927,19 +3972,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>1743712584</v>
+        <v>-278736850</v>
       </c>
       <c r="B139" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -3947,19 +3992,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>-1666523598</v>
+        <v>64477520</v>
       </c>
       <c r="B140" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -3967,19 +4012,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>-209439764</v>
+        <v>1525107119</v>
       </c>
       <c r="B141" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -3987,19 +4032,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>-1975734379</v>
+        <v>1894508942</v>
       </c>
       <c r="B142" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -4007,19 +4052,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>1273481327</v>
+        <v>786946575</v>
       </c>
       <c r="B143" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -4027,19 +4072,19 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>785293368</v>
+        <v>1743712584</v>
       </c>
       <c r="B144" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -4047,19 +4092,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>-594615111</v>
+        <v>-1666523598</v>
       </c>
       <c r="B145" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4067,19 +4112,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-509427602</v>
+        <v>-209439764</v>
       </c>
       <c r="B146" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4087,19 +4132,19 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-522008429</v>
+        <v>-1975734379</v>
       </c>
       <c r="B147" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4107,19 +4152,19 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>1223491875</v>
+        <v>1273481327</v>
       </c>
       <c r="B148" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4127,19 +4172,19 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>1068025648</v>
+        <v>785293368</v>
       </c>
       <c r="B149" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -4147,19 +4192,19 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-1281428191</v>
+        <v>-594615111</v>
       </c>
       <c r="B150" s="3">
-        <v>-1653651395</v>
+        <v>303790042</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -4167,19 +4212,19 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>559760484</v>
+        <v>-509427602</v>
       </c>
       <c r="B151" s="3">
-        <v>-968073910</v>
+        <v>303790042</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -4187,19 +4232,19 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>1147450703</v>
+        <v>-522008429</v>
       </c>
       <c r="B152" s="3">
-        <v>-968073910</v>
+        <v>303790042</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -4207,19 +4252,19 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>-555765293</v>
+        <v>1223491875</v>
       </c>
       <c r="B153" s="3">
-        <v>-968073910</v>
+        <v>303790042</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -4227,19 +4272,19 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>-1008309707</v>
+        <v>1068025648</v>
       </c>
       <c r="B154" s="3">
-        <v>-968073910</v>
+        <v>303790042</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -4247,19 +4292,19 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>1649328148</v>
+        <v>-1281428191</v>
       </c>
       <c r="B155" s="3">
-        <v>-968073910</v>
+        <v>303790042</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -4267,19 +4312,19 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>1483365187</v>
+        <v>559760484</v>
       </c>
       <c r="B156" s="3">
-        <v>-968073910</v>
+        <v>779000644</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -4287,19 +4332,19 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>488959337</v>
+        <v>1147450703</v>
       </c>
       <c r="B157" s="3">
-        <v>603336498</v>
+        <v>779000644</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -4307,19 +4352,19 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>-258823006</v>
+        <v>-555765293</v>
       </c>
       <c r="B158" s="3">
-        <v>603336498</v>
+        <v>779000644</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -4327,19 +4372,19 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>-877025943</v>
+        <v>-1008309707</v>
       </c>
       <c r="B159" s="3">
-        <v>603336498</v>
+        <v>779000644</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -4347,19 +4392,19 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>-1928104510</v>
+        <v>1649328148</v>
       </c>
       <c r="B160" s="3">
-        <v>603336498</v>
+        <v>779000644</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -4367,19 +4412,19 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>233779722</v>
+        <v>1483365187</v>
       </c>
       <c r="B161" s="3">
-        <v>603336498</v>
+        <v>779000644</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -4387,19 +4432,19 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>575019724</v>
+        <v>488959337</v>
       </c>
       <c r="B162" s="3">
-        <v>603336498</v>
+        <v>1205799434</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -4407,119 +4452,119 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>-1924748440</v>
+        <v>-258823006</v>
       </c>
       <c r="B163" s="3">
-        <v>-1059248364</v>
+        <v>1205799434</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="F163" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>138706997</v>
+        <v>-877025943</v>
       </c>
       <c r="B164" s="3">
-        <v>1096960845</v>
+        <v>1205799434</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F164" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>1750531901</v>
+        <v>-1928104510</v>
       </c>
       <c r="B165" s="3">
-        <v>-1254891170</v>
+        <v>1205799434</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="F165" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>344749750</v>
+        <v>233779722</v>
       </c>
       <c r="B166" s="3">
-        <v>-466514230</v>
+        <v>1205799434</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="F166" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>949097290</v>
+        <v>575019724</v>
       </c>
       <c r="B167" s="3">
-        <v>1748860649</v>
+        <v>1205799434</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="F167" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>1294323570</v>
+        <v>-1924748440</v>
       </c>
       <c r="B168" s="3">
-        <v>-1646712389</v>
+        <v>1993197872</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>29</v>
+        <v>233</v>
       </c>
       <c r="F168" s="3">
         <v>15</v>
@@ -4527,19 +4572,19 @@
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>821365954</v>
+        <v>-1382448832</v>
       </c>
       <c r="B169" s="3">
-        <v>24384822</v>
+        <v>2118059982</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F169" s="3">
         <v>26</v>
@@ -4547,19 +4592,19 @@
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>1428139627</v>
+        <v>139913362</v>
       </c>
       <c r="B170" s="3">
-        <v>24384822</v>
+        <v>2118059982</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F170" s="3">
         <v>26</v>
@@ -4567,19 +4612,19 @@
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>-633996269</v>
+        <v>-901086922</v>
       </c>
       <c r="B171" s="3">
-        <v>24384822</v>
+        <v>2118059982</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="F171" s="3">
         <v>26</v>
@@ -4590,16 +4635,16 @@
         <v>-1038403056</v>
       </c>
       <c r="B172" s="3">
-        <v>1213201749</v>
+        <v>1723212885</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="F172" s="3">
         <v>26</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t>fileId</t>
   </si>
@@ -89,660 +89,666 @@
     <t>o_804079274</t>
   </si>
   <si>
-    <t>GuideWindow</t>
+    <t>xLuaScript.lua</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FZY4JW_0</t>
+  </si>
+  <si>
+    <t>.TTF</t>
+  </si>
+  <si>
+    <t>o_1740741083</t>
+  </si>
+  <si>
+    <t>pf_hero_1002</t>
   </si>
   <si>
     <t>.prefab</t>
   </si>
   <si>
+    <t>s_2102381656_refdep</t>
+  </si>
+  <si>
+    <t>SpriteA</t>
+  </si>
+  <si>
+    <t>o_728513591</t>
+  </si>
+  <si>
+    <t>SpriteB</t>
+  </si>
+  <si>
+    <t>o_1449048355</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_atk_01</t>
+  </si>
+  <si>
+    <t>o_772797634</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_atk_02</t>
+  </si>
+  <si>
+    <t>o__1580348835</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_atk_03</t>
+  </si>
+  <si>
+    <t>o_916662210</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_die</t>
+  </si>
+  <si>
+    <t>o_1417665199</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_Hit_a</t>
+  </si>
+  <si>
+    <t>o_987507523</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_Hit_b</t>
+  </si>
+  <si>
+    <t>o_372291149</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_skill_01</t>
+  </si>
+  <si>
+    <t>o_836104149</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_skill_02_a</t>
+  </si>
+  <si>
+    <t>o_997145031</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_skill_02_b</t>
+  </si>
+  <si>
+    <t>o__1881727088</t>
+  </si>
+  <si>
+    <t>fx_hero_1002_skill_03</t>
+  </si>
+  <si>
+    <t>o_2010935313</t>
+  </si>
+  <si>
+    <t>Examplebx_map_pve_1</t>
+  </si>
+  <si>
+    <t>.unity</t>
+  </si>
+  <si>
+    <t>s_1998193365</t>
+  </si>
+  <si>
+    <t>ExampleEntityComponentSystem</t>
+  </si>
+  <si>
+    <t>s_2102381656</t>
+  </si>
+  <si>
+    <t>ExampleEventHandler</t>
+  </si>
+  <si>
+    <t>s_3404451</t>
+  </si>
+  <si>
+    <t>ExampleFMS</t>
+  </si>
+  <si>
+    <t>s_857707986</t>
+  </si>
+  <si>
+    <t>ExampleGuide</t>
+  </si>
+  <si>
+    <t>s__2009239190</t>
+  </si>
+  <si>
+    <t>ExampleProject</t>
+  </si>
+  <si>
+    <t>s__1574957563</t>
+  </si>
+  <si>
+    <t>ExampleSkill</t>
+  </si>
+  <si>
+    <t>s_1062889003</t>
+  </si>
+  <si>
+    <t>ExampleSQLite</t>
+  </si>
+  <si>
+    <t>s_1626608088</t>
+  </si>
+  <si>
+    <t>ExampleTerrain</t>
+  </si>
+  <si>
+    <t>s__1407783059</t>
+  </si>
+  <si>
+    <t>ExampleUIWindow</t>
+  </si>
+  <si>
+    <t>s__48687258</t>
+  </si>
+  <si>
+    <t>ExampleXLS</t>
+  </si>
+  <si>
+    <t>s__1088948561</t>
+  </si>
+  <si>
+    <t>ExampleXLua</t>
+  </si>
+  <si>
+    <t>s__1355360791</t>
+  </si>
+  <si>
+    <t>chgPowerCircle1</t>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>o_1735064929</t>
+  </si>
+  <si>
+    <t>chgPowerCircle2</t>
+  </si>
+  <si>
+    <t>o_312776746</t>
+  </si>
+  <si>
+    <t>chgPowerCircle3</t>
+  </si>
+  <si>
+    <t>o__1481992392</t>
+  </si>
+  <si>
+    <t>effect_hero_foot</t>
+  </si>
+  <si>
+    <t>o_283329097</t>
+  </si>
+  <si>
+    <t>ugui_loading</t>
+  </si>
+  <si>
+    <t>o__1336611924</t>
+  </si>
+  <si>
+    <t>LobbyBackground</t>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>o__1697330953</t>
+  </si>
+  <si>
+    <t>ugui_login</t>
+  </si>
+  <si>
+    <t>o_1351797518</t>
+  </si>
+  <si>
+    <t>battle_camp_blue</t>
+  </si>
+  <si>
+    <t>sp__1643345598</t>
+  </si>
+  <si>
+    <t>battle_camp_purple</t>
+  </si>
+  <si>
+    <t>battle_camp_yellow</t>
+  </si>
+  <si>
+    <t>battle_dead</t>
+  </si>
+  <si>
+    <t>battle_dialog</t>
+  </si>
+  <si>
+    <t>battle_dialog_bg</t>
+  </si>
+  <si>
+    <t>battle_hero_msg</t>
+  </si>
+  <si>
+    <t>battle_hp</t>
+  </si>
+  <si>
+    <t>battle_hp_bg</t>
+  </si>
+  <si>
+    <t>battle_joystick</t>
+  </si>
+  <si>
+    <t>battle_joystick_bg</t>
+  </si>
+  <si>
+    <t>battle_kill</t>
+  </si>
+  <si>
+    <t>battle_kill1</t>
+  </si>
+  <si>
+    <t>battle_kill2</t>
+  </si>
+  <si>
+    <t>battle_kill3</t>
+  </si>
+  <si>
+    <t>battle_kill4</t>
+  </si>
+  <si>
+    <t>battle_kill_bg</t>
+  </si>
+  <si>
+    <t>battle_kill_icon</t>
+  </si>
+  <si>
+    <t>battle_kill_row</t>
+  </si>
+  <si>
+    <t>battle_map</t>
+  </si>
+  <si>
+    <t>battle_medicine</t>
+  </si>
+  <si>
+    <t>battle_medicine_bg</t>
+  </si>
+  <si>
+    <t>battle_mp</t>
+  </si>
+  <si>
+    <t>battle_other</t>
+  </si>
+  <si>
+    <t>battle_other1</t>
+  </si>
+  <si>
+    <t>battle_setup</t>
+  </si>
+  <si>
+    <t>battle_setup1</t>
+  </si>
+  <si>
+    <t>battle_setup_bg</t>
+  </si>
+  <si>
+    <t>battle_setup_other</t>
+  </si>
+  <si>
+    <t>battle_skill_add</t>
+  </si>
+  <si>
+    <t>battle_skill_bg</t>
+  </si>
+  <si>
+    <t>battle_skill_level</t>
+  </si>
+  <si>
+    <t>battle_time</t>
+  </si>
+  <si>
+    <t>SkillShape_Circle</t>
+  </si>
+  <si>
+    <t>sp_2144060812</t>
+  </si>
+  <si>
+    <t>SkillShape_Line</t>
+  </si>
+  <si>
+    <t>SkillShape_Sector</t>
+  </si>
+  <si>
+    <t>hero_show_attack</t>
+  </si>
+  <si>
+    <t>sp_1103995528</t>
+  </si>
+  <si>
+    <t>hero_show_back</t>
+  </si>
+  <si>
+    <t>hero_show_button_attack</t>
+  </si>
+  <si>
+    <t>hero_show_button_def</t>
+  </si>
+  <si>
+    <t>hero_show_button_hp</t>
+  </si>
+  <si>
+    <t>hero_show_button_move</t>
+  </si>
+  <si>
+    <t>hero_show_button_speed</t>
+  </si>
+  <si>
+    <t>hero_show_def</t>
+  </si>
+  <si>
+    <t>hero_show_hp</t>
+  </si>
+  <si>
+    <t>hero_show_move</t>
+  </si>
+  <si>
+    <t>hero_show_skin</t>
+  </si>
+  <si>
+    <t>hero_show_speed</t>
+  </si>
+  <si>
+    <t>hero_show_tower</t>
+  </si>
+  <si>
+    <t>loading_item</t>
+  </si>
+  <si>
+    <t>sp_371046582</t>
+  </si>
+  <si>
+    <t>loading_other</t>
+  </si>
+  <si>
+    <t>loading_other1</t>
+  </si>
+  <si>
+    <t>lobby_achieve</t>
+  </si>
+  <si>
+    <t>sp_493391422</t>
+  </si>
+  <si>
+    <t>lobby_activity</t>
+  </si>
+  <si>
+    <t>lobby_bg</t>
+  </si>
+  <si>
+    <t>lobby_chat_bg</t>
+  </si>
+  <si>
+    <t>lobby_chat_speak</t>
+  </si>
+  <si>
+    <t>lobby_energy</t>
+  </si>
+  <si>
+    <t>lobby_equip</t>
+  </si>
+  <si>
+    <t>lobby_friend</t>
+  </si>
+  <si>
+    <t>lobby_hero</t>
+  </si>
+  <si>
+    <t>lobby_mail</t>
+  </si>
+  <si>
+    <t>lobby_misson</t>
+  </si>
+  <si>
+    <t>lobby_mobile</t>
+  </si>
+  <si>
+    <t>lobby_mode</t>
+  </si>
+  <si>
+    <t>lobby_player1</t>
+  </si>
+  <si>
+    <t>lobby_player2</t>
+  </si>
+  <si>
+    <t>lobby_player_bg</t>
+  </si>
+  <si>
+    <t>lobby_player_frame</t>
+  </si>
+  <si>
+    <t>lobby_rank</t>
+  </si>
+  <si>
+    <t>lobby_setup</t>
+  </si>
+  <si>
+    <t>lobby_shop</t>
+  </si>
+  <si>
+    <t>login_btn_login</t>
+  </si>
+  <si>
+    <t>sp_83733784</t>
+  </si>
+  <si>
+    <t>login_dian</t>
+  </si>
+  <si>
+    <t>login_server</t>
+  </si>
+  <si>
+    <t>match_job</t>
+  </si>
+  <si>
+    <t>sp_438571766</t>
+  </si>
+  <si>
+    <t>match_player</t>
+  </si>
+  <si>
+    <t>match_say</t>
+  </si>
+  <si>
+    <t>share_add</t>
+  </si>
+  <si>
+    <t>sp_1960007041</t>
+  </si>
+  <si>
+    <t>share_bg</t>
+  </si>
+  <si>
+    <t>share_bg1</t>
+  </si>
+  <si>
+    <t>share_bg2</t>
+  </si>
+  <si>
+    <t>share_bg3</t>
+  </si>
+  <si>
+    <t>share_button_yellow</t>
+  </si>
+  <si>
+    <t>share_chat</t>
+  </si>
+  <si>
+    <t>share_circle1</t>
+  </si>
+  <si>
+    <t>share_circle2</t>
+  </si>
+  <si>
+    <t>share_close</t>
+  </si>
+  <si>
+    <t>share_gold</t>
+  </si>
+  <si>
+    <t>share_hero_name</t>
+  </si>
+  <si>
+    <t>share_item</t>
+  </si>
+  <si>
+    <t>share_item_bg</t>
+  </si>
+  <si>
+    <t>share_item_select</t>
+  </si>
+  <si>
+    <t>share_line</t>
+  </si>
+  <si>
+    <t>share_other</t>
+  </si>
+  <si>
+    <t>share_other1</t>
+  </si>
+  <si>
+    <t>share_other2</t>
+  </si>
+  <si>
+    <t>share_other3</t>
+  </si>
+  <si>
+    <t>share_radar</t>
+  </si>
+  <si>
+    <t>share_radar_bg</t>
+  </si>
+  <si>
+    <t>share_silver</t>
+  </si>
+  <si>
+    <t>share_skill</t>
+  </si>
+  <si>
+    <t>share_skin1</t>
+  </si>
+  <si>
+    <t>share_slider</t>
+  </si>
+  <si>
+    <t>share_slider_bg</t>
+  </si>
+  <si>
+    <t>share_star</t>
+  </si>
+  <si>
+    <t>share_title</t>
+  </si>
+  <si>
+    <t>share_title1_bg</t>
+  </si>
+  <si>
+    <t>share_title1_bg1</t>
+  </si>
+  <si>
+    <t>share_title_bg</t>
+  </si>
+  <si>
+    <t>share_title_bg1</t>
+  </si>
+  <si>
+    <t>share_why</t>
+  </si>
+  <si>
+    <t>share_yes</t>
+  </si>
+  <si>
+    <t>shop_item_bg</t>
+  </si>
+  <si>
+    <t>sp_758489486</t>
+  </si>
+  <si>
+    <t>shop_other1</t>
+  </si>
+  <si>
+    <t>shop_other2</t>
+  </si>
+  <si>
+    <t>shop_other3</t>
+  </si>
+  <si>
+    <t>shop_other4</t>
+  </si>
+  <si>
+    <t>shop_other5</t>
+  </si>
+  <si>
+    <t>Skill100204</t>
+  </si>
+  <si>
+    <t>sp_267983427</t>
+  </si>
+  <si>
+    <t>Skill100205</t>
+  </si>
+  <si>
+    <t>Skill100206</t>
+  </si>
+  <si>
+    <t>Skill100404</t>
+  </si>
+  <si>
+    <t>Skill100405</t>
+  </si>
+  <si>
+    <t>Skill100406</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>o_1026750565</t>
+  </si>
+  <si>
+    <t>ExampleGuideWindow</t>
+  </si>
+  <si>
     <t>o__134525322</t>
   </si>
   <si>
-    <t>HeroListWindow</t>
+    <t>ExampleHeroListWindow</t>
   </si>
   <si>
     <t>s__48687258_refdep</t>
   </si>
   <si>
-    <t>LobbyWindow</t>
+    <t>ExampleLobbyWindow</t>
   </si>
   <si>
     <t>o__891049532</t>
   </si>
   <si>
-    <t>MessageBoxWindow</t>
-  </si>
-  <si>
-    <t>o__1481992392</t>
-  </si>
-  <si>
-    <t>PlayerListWindow</t>
-  </si>
-  <si>
-    <t>FZY4JW_0</t>
-  </si>
-  <si>
-    <t>.TTF</t>
-  </si>
-  <si>
-    <t>o_1740741083</t>
-  </si>
-  <si>
-    <t>pf_hero_1002</t>
-  </si>
-  <si>
-    <t>s_2102381656_refdep</t>
-  </si>
-  <si>
-    <t>SpriteA</t>
-  </si>
-  <si>
-    <t>o_728513591</t>
-  </si>
-  <si>
-    <t>SpriteB</t>
-  </si>
-  <si>
-    <t>o_1449048355</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_atk_01</t>
-  </si>
-  <si>
-    <t>o_772797634</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_atk_02</t>
-  </si>
-  <si>
-    <t>o__1580348835</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_atk_03</t>
-  </si>
-  <si>
-    <t>o_916662210</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_die</t>
-  </si>
-  <si>
-    <t>o_1417665199</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_Hit_a</t>
-  </si>
-  <si>
-    <t>o_987507523</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_Hit_b</t>
-  </si>
-  <si>
-    <t>o_372291149</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_skill_01</t>
-  </si>
-  <si>
-    <t>o_836104149</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_skill_02_a</t>
-  </si>
-  <si>
-    <t>o_997145031</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_skill_02_b</t>
-  </si>
-  <si>
-    <t>o__1881727088</t>
-  </si>
-  <si>
-    <t>fx_hero_1002_skill_03</t>
-  </si>
-  <si>
-    <t>o_2010935313</t>
-  </si>
-  <si>
-    <t>Examplebx_map_pve_1</t>
-  </si>
-  <si>
-    <t>.unity</t>
-  </si>
-  <si>
-    <t>s_1998193365</t>
-  </si>
-  <si>
-    <t>ExampleEntityComponentSystem</t>
-  </si>
-  <si>
-    <t>s_2102381656</t>
-  </si>
-  <si>
-    <t>ExampleEventHandler</t>
-  </si>
-  <si>
-    <t>s_3404451</t>
-  </si>
-  <si>
-    <t>ExampleFMS</t>
-  </si>
-  <si>
-    <t>s_857707986</t>
-  </si>
-  <si>
-    <t>ExampleGuide</t>
-  </si>
-  <si>
-    <t>s__2009239190</t>
-  </si>
-  <si>
-    <t>ExampleProject</t>
-  </si>
-  <si>
-    <t>s__1574957563</t>
-  </si>
-  <si>
-    <t>ExampleSkill</t>
-  </si>
-  <si>
-    <t>s_1062889003</t>
-  </si>
-  <si>
-    <t>ExampleSQLite</t>
-  </si>
-  <si>
-    <t>s_1626608088</t>
-  </si>
-  <si>
-    <t>ExampleTerrain</t>
-  </si>
-  <si>
-    <t>s__1407783059</t>
-  </si>
-  <si>
-    <t>ExampleUIWindow</t>
-  </si>
-  <si>
-    <t>s__48687258</t>
-  </si>
-  <si>
-    <t>ExampleXLS</t>
-  </si>
-  <si>
-    <t>s__1088948561</t>
-  </si>
-  <si>
-    <t>ExampleXLua</t>
-  </si>
-  <si>
-    <t>s__1355360791</t>
-  </si>
-  <si>
-    <t>chgPowerCircle1</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>o_1735064929</t>
-  </si>
-  <si>
-    <t>chgPowerCircle2</t>
-  </si>
-  <si>
-    <t>o_312776746</t>
-  </si>
-  <si>
-    <t>chgPowerCircle3</t>
-  </si>
-  <si>
-    <t>effect_hero_foot</t>
-  </si>
-  <si>
-    <t>o_283329097</t>
-  </si>
-  <si>
-    <t>ugui_loading</t>
-  </si>
-  <si>
-    <t>o__1336611924</t>
-  </si>
-  <si>
-    <t>LobbyBackground</t>
-  </si>
-  <si>
-    <t>.jpg</t>
-  </si>
-  <si>
-    <t>o__1697330953</t>
-  </si>
-  <si>
-    <t>ugui_login</t>
-  </si>
-  <si>
-    <t>o_1351797518</t>
-  </si>
-  <si>
-    <t>battle_camp_blue</t>
-  </si>
-  <si>
-    <t>sp__1643345598</t>
-  </si>
-  <si>
-    <t>battle_camp_purple</t>
-  </si>
-  <si>
-    <t>battle_camp_yellow</t>
-  </si>
-  <si>
-    <t>battle_dead</t>
-  </si>
-  <si>
-    <t>battle_dialog</t>
-  </si>
-  <si>
-    <t>battle_dialog_bg</t>
-  </si>
-  <si>
-    <t>battle_hero_msg</t>
-  </si>
-  <si>
-    <t>battle_hp</t>
-  </si>
-  <si>
-    <t>battle_hp_bg</t>
-  </si>
-  <si>
-    <t>battle_joystick</t>
-  </si>
-  <si>
-    <t>battle_joystick_bg</t>
-  </si>
-  <si>
-    <t>battle_kill</t>
-  </si>
-  <si>
-    <t>battle_kill1</t>
-  </si>
-  <si>
-    <t>battle_kill2</t>
-  </si>
-  <si>
-    <t>battle_kill3</t>
-  </si>
-  <si>
-    <t>battle_kill4</t>
-  </si>
-  <si>
-    <t>battle_kill_bg</t>
-  </si>
-  <si>
-    <t>battle_kill_icon</t>
-  </si>
-  <si>
-    <t>battle_kill_row</t>
-  </si>
-  <si>
-    <t>battle_map</t>
-  </si>
-  <si>
-    <t>battle_medicine</t>
-  </si>
-  <si>
-    <t>battle_medicine_bg</t>
-  </si>
-  <si>
-    <t>battle_mp</t>
-  </si>
-  <si>
-    <t>battle_other</t>
-  </si>
-  <si>
-    <t>battle_other1</t>
-  </si>
-  <si>
-    <t>battle_setup</t>
-  </si>
-  <si>
-    <t>battle_setup1</t>
-  </si>
-  <si>
-    <t>battle_setup_bg</t>
-  </si>
-  <si>
-    <t>battle_setup_other</t>
-  </si>
-  <si>
-    <t>battle_skill_add</t>
-  </si>
-  <si>
-    <t>battle_skill_bg</t>
-  </si>
-  <si>
-    <t>battle_skill_level</t>
-  </si>
-  <si>
-    <t>battle_time</t>
-  </si>
-  <si>
-    <t>SkillShape_Circle</t>
-  </si>
-  <si>
-    <t>sp_2144060812</t>
-  </si>
-  <si>
-    <t>SkillShape_Line</t>
-  </si>
-  <si>
-    <t>SkillShape_Sector</t>
-  </si>
-  <si>
-    <t>hero_show_attack</t>
-  </si>
-  <si>
-    <t>sp_1103995528</t>
-  </si>
-  <si>
-    <t>hero_show_back</t>
-  </si>
-  <si>
-    <t>hero_show_button_attack</t>
-  </si>
-  <si>
-    <t>hero_show_button_def</t>
-  </si>
-  <si>
-    <t>hero_show_button_hp</t>
-  </si>
-  <si>
-    <t>hero_show_button_move</t>
-  </si>
-  <si>
-    <t>hero_show_button_speed</t>
-  </si>
-  <si>
-    <t>hero_show_def</t>
-  </si>
-  <si>
-    <t>hero_show_hp</t>
-  </si>
-  <si>
-    <t>hero_show_move</t>
-  </si>
-  <si>
-    <t>hero_show_skin</t>
-  </si>
-  <si>
-    <t>hero_show_speed</t>
-  </si>
-  <si>
-    <t>hero_show_tower</t>
-  </si>
-  <si>
-    <t>loading_item</t>
-  </si>
-  <si>
-    <t>sp_371046582</t>
-  </si>
-  <si>
-    <t>loading_other</t>
-  </si>
-  <si>
-    <t>loading_other1</t>
-  </si>
-  <si>
-    <t>lobby_achieve</t>
-  </si>
-  <si>
-    <t>sp_493391422</t>
-  </si>
-  <si>
-    <t>lobby_activity</t>
-  </si>
-  <si>
-    <t>lobby_bg</t>
-  </si>
-  <si>
-    <t>lobby_chat_bg</t>
-  </si>
-  <si>
-    <t>lobby_chat_speak</t>
-  </si>
-  <si>
-    <t>lobby_energy</t>
-  </si>
-  <si>
-    <t>lobby_equip</t>
-  </si>
-  <si>
-    <t>lobby_friend</t>
-  </si>
-  <si>
-    <t>lobby_hero</t>
-  </si>
-  <si>
-    <t>lobby_mail</t>
-  </si>
-  <si>
-    <t>lobby_misson</t>
-  </si>
-  <si>
-    <t>lobby_mobile</t>
-  </si>
-  <si>
-    <t>lobby_mode</t>
-  </si>
-  <si>
-    <t>lobby_player1</t>
-  </si>
-  <si>
-    <t>lobby_player2</t>
-  </si>
-  <si>
-    <t>lobby_player_bg</t>
-  </si>
-  <si>
-    <t>lobby_player_frame</t>
-  </si>
-  <si>
-    <t>lobby_rank</t>
-  </si>
-  <si>
-    <t>lobby_setup</t>
-  </si>
-  <si>
-    <t>lobby_shop</t>
-  </si>
-  <si>
-    <t>login_btn_login</t>
-  </si>
-  <si>
-    <t>sp_83733784</t>
-  </si>
-  <si>
-    <t>login_dian</t>
-  </si>
-  <si>
-    <t>login_server</t>
-  </si>
-  <si>
-    <t>match_job</t>
-  </si>
-  <si>
-    <t>sp_438571766</t>
-  </si>
-  <si>
-    <t>match_player</t>
-  </si>
-  <si>
-    <t>match_say</t>
-  </si>
-  <si>
-    <t>share_add</t>
-  </si>
-  <si>
-    <t>sp_1960007041</t>
-  </si>
-  <si>
-    <t>share_bg</t>
-  </si>
-  <si>
-    <t>share_bg1</t>
-  </si>
-  <si>
-    <t>share_bg2</t>
-  </si>
-  <si>
-    <t>share_bg3</t>
-  </si>
-  <si>
-    <t>share_button_yellow</t>
-  </si>
-  <si>
-    <t>share_chat</t>
-  </si>
-  <si>
-    <t>share_circle1</t>
-  </si>
-  <si>
-    <t>share_circle2</t>
-  </si>
-  <si>
-    <t>share_close</t>
-  </si>
-  <si>
-    <t>share_gold</t>
-  </si>
-  <si>
-    <t>share_hero_name</t>
-  </si>
-  <si>
-    <t>share_item</t>
-  </si>
-  <si>
-    <t>share_item_bg</t>
-  </si>
-  <si>
-    <t>share_item_select</t>
-  </si>
-  <si>
-    <t>share_line</t>
-  </si>
-  <si>
-    <t>share_other</t>
-  </si>
-  <si>
-    <t>share_other1</t>
-  </si>
-  <si>
-    <t>share_other2</t>
-  </si>
-  <si>
-    <t>share_other3</t>
-  </si>
-  <si>
-    <t>share_radar</t>
-  </si>
-  <si>
-    <t>share_radar_bg</t>
-  </si>
-  <si>
-    <t>share_silver</t>
-  </si>
-  <si>
-    <t>share_skill</t>
-  </si>
-  <si>
-    <t>share_skin1</t>
-  </si>
-  <si>
-    <t>share_slider</t>
-  </si>
-  <si>
-    <t>share_slider_bg</t>
-  </si>
-  <si>
-    <t>share_star</t>
-  </si>
-  <si>
-    <t>share_title</t>
-  </si>
-  <si>
-    <t>share_title1_bg</t>
-  </si>
-  <si>
-    <t>share_title1_bg1</t>
-  </si>
-  <si>
-    <t>share_title_bg</t>
-  </si>
-  <si>
-    <t>share_title_bg1</t>
-  </si>
-  <si>
-    <t>share_why</t>
-  </si>
-  <si>
-    <t>share_yes</t>
-  </si>
-  <si>
-    <t>shop_item_bg</t>
-  </si>
-  <si>
-    <t>sp_758489486</t>
-  </si>
-  <si>
-    <t>shop_other1</t>
-  </si>
-  <si>
-    <t>shop_other2</t>
-  </si>
-  <si>
-    <t>shop_other3</t>
-  </si>
-  <si>
-    <t>shop_other4</t>
-  </si>
-  <si>
-    <t>shop_other5</t>
-  </si>
-  <si>
-    <t>Skill100204</t>
-  </si>
-  <si>
-    <t>sp_267983427</t>
-  </si>
-  <si>
-    <t>Skill100205</t>
-  </si>
-  <si>
-    <t>Skill100206</t>
-  </si>
-  <si>
-    <t>Skill100404</t>
-  </si>
-  <si>
-    <t>Skill100405</t>
-  </si>
-  <si>
-    <t>Skill100406</t>
-  </si>
-  <si>
-    <t>Terrain</t>
-  </si>
-  <si>
-    <t>o_1026750565</t>
+    <t>ExampleMessageBoxWindow</t>
+  </si>
+  <si>
+    <t>ExamplePlayerListWindow</t>
   </si>
   <si>
     <t>ExampleTestXLuaLevelCube.lua</t>
   </si>
   <si>
-    <t>.txt</t>
-  </si>
-  <si>
     <t>x_356206060</t>
   </si>
   <si>
@@ -752,7 +758,7 @@
     <t>ExampleXLuaLevelFunction.lua</t>
   </si>
   <si>
-    <t>HeroListWindow.lua</t>
+    <t>ExampleHeroListWindow.lua</t>
   </si>
   <si>
     <t>x_332625339</t>
@@ -1194,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -1292,10 +1298,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>138706997</v>
+        <v>-1314513662</v>
       </c>
       <c r="B5" s="3">
-        <v>1096960845</v>
+        <v>-764457537</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1307,44 +1313,44 @@
         <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>1750531901</v>
+        <v>-671828977</v>
       </c>
       <c r="B6" s="3">
-        <v>-1254891170</v>
+        <v>703074975</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>344749750</v>
+        <v>-1822338762</v>
       </c>
       <c r="B7" s="3">
-        <v>-466514230</v>
+        <v>-2004506147</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7" s="3">
         <v>15</v>
@@ -1352,19 +1358,19 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>949097290</v>
+        <v>2069627225</v>
       </c>
       <c r="B8" s="3">
-        <v>1748860649</v>
+        <v>1536776472</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>15</v>
@@ -1372,19 +1378,19 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>1294323570</v>
+        <v>-639390330</v>
       </c>
       <c r="B9" s="3">
-        <v>-1646712389</v>
+        <v>1536776472</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
         <v>15</v>
@@ -1392,39 +1398,39 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-671828977</v>
+        <v>-247032076</v>
       </c>
       <c r="B10" s="3">
-        <v>703074975</v>
+        <v>-1919546133</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-1822338762</v>
+        <v>-914683150</v>
       </c>
       <c r="B11" s="3">
-        <v>-2004506147</v>
+        <v>-1919546133</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3">
         <v>15</v>
@@ -1432,19 +1438,19 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>2069627225</v>
+        <v>1469057108</v>
       </c>
       <c r="B12" s="3">
-        <v>1536776472</v>
+        <v>-1919546133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3">
         <v>15</v>
@@ -1452,19 +1458,19 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-639390330</v>
+        <v>563263933</v>
       </c>
       <c r="B13" s="3">
-        <v>1536776472</v>
+        <v>-1919546133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3">
         <v>15</v>
@@ -1472,19 +1478,19 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-247032076</v>
+        <v>-1640052790</v>
       </c>
       <c r="B14" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3">
         <v>15</v>
@@ -1492,19 +1498,19 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-914683150</v>
+        <v>334986352</v>
       </c>
       <c r="B15" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3">
         <v>15</v>
@@ -1512,19 +1518,19 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>1469057108</v>
+        <v>1656382229</v>
       </c>
       <c r="B16" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3">
         <v>15</v>
@@ -1532,19 +1538,19 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>563263933</v>
+        <v>1191492675</v>
       </c>
       <c r="B17" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>15</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>-1640052790</v>
+        <v>2125675024</v>
       </c>
       <c r="B18" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3">
         <v>15</v>
@@ -1572,19 +1578,19 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>334986352</v>
+        <v>-1961533316</v>
       </c>
       <c r="B19" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
         <v>15</v>
@@ -1592,99 +1598,99 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>1656382229</v>
+        <v>-1860432654</v>
       </c>
       <c r="B20" s="3">
-        <v>-1919546133</v>
+        <v>1325637814</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F20" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>1191492675</v>
+        <v>1652309691</v>
       </c>
       <c r="B21" s="3">
-        <v>-1919546133</v>
+        <v>1325637814</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>2125675024</v>
+        <v>1305370276</v>
       </c>
       <c r="B22" s="3">
-        <v>-1919546133</v>
+        <v>1325637814</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F22" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-1961533316</v>
+        <v>1784042025</v>
       </c>
       <c r="B23" s="3">
-        <v>-1919546133</v>
+        <v>1325637814</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-1860432654</v>
+        <v>-692579849</v>
       </c>
       <c r="B24" s="3">
         <v>1325637814</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="3">
         <v>23</v>
@@ -1692,19 +1698,19 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1652309691</v>
+        <v>1479034210</v>
       </c>
       <c r="B25" s="3">
         <v>1325637814</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="3">
         <v>23</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1305370276</v>
+        <v>-1608441305</v>
       </c>
       <c r="B26" s="3">
         <v>1325637814</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="3">
         <v>23</v>
@@ -1732,19 +1738,19 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>1784042025</v>
+        <v>2073847480</v>
       </c>
       <c r="B27" s="3">
         <v>1325637814</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="3">
         <v>23</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-692579849</v>
+        <v>1229683040</v>
       </c>
       <c r="B28" s="3">
         <v>1325637814</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="3">
         <v>23</v>
@@ -1772,19 +1778,19 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1479034210</v>
+        <v>1889580147</v>
       </c>
       <c r="B29" s="3">
         <v>1325637814</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="3">
         <v>23</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>-1608441305</v>
+        <v>698208992</v>
       </c>
       <c r="B30" s="3">
         <v>1325637814</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="3">
         <v>23</v>
@@ -1812,19 +1818,19 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>2073847480</v>
+        <v>1741707445</v>
       </c>
       <c r="B31" s="3">
         <v>1325637814</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="3">
         <v>23</v>
@@ -1832,99 +1838,99 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>1229683040</v>
+        <v>1334679678</v>
       </c>
       <c r="B32" s="3">
-        <v>1325637814</v>
+        <v>-1405308702</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F32" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>1889580147</v>
+        <v>203780964</v>
       </c>
       <c r="B33" s="3">
-        <v>1325637814</v>
+        <v>-1405308702</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F33" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>698208992</v>
+        <v>904144584</v>
       </c>
       <c r="B34" s="3">
-        <v>1325637814</v>
+        <v>-1405308702</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F34" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>1741707445</v>
+        <v>-1147649747</v>
       </c>
       <c r="B35" s="3">
-        <v>1325637814</v>
+        <v>-1405308702</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F35" s="3">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>1334679678</v>
+        <v>1649820611</v>
       </c>
       <c r="B36" s="3">
-        <v>-1405308702</v>
+        <v>-1408754900</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1932,19 +1938,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>203780964</v>
+        <v>1784757519</v>
       </c>
       <c r="B37" s="3">
-        <v>-1405308702</v>
+        <v>1311652878</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>904144584</v>
+        <v>41156671</v>
       </c>
       <c r="B38" s="3">
-        <v>-1405308702</v>
+        <v>853849619</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1972,19 +1978,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>-1147649747</v>
+        <v>433278951</v>
       </c>
       <c r="B39" s="3">
-        <v>-1405308702</v>
+        <v>1498651392</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>1649820611</v>
+        <v>1887145564</v>
       </c>
       <c r="B40" s="3">
-        <v>-1408754900</v>
+        <v>1498651392</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>1784757519</v>
+        <v>797307857</v>
       </c>
       <c r="B41" s="3">
-        <v>1311652878</v>
+        <v>1498651392</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>41156671</v>
+        <v>-337981905</v>
       </c>
       <c r="B42" s="3">
-        <v>853849619</v>
+        <v>1498651392</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2052,7 +2058,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>433278951</v>
+        <v>153670792</v>
       </c>
       <c r="B43" s="3">
         <v>1498651392</v>
@@ -2061,10 +2067,10 @@
         <v>97</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2072,19 +2078,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>1887145564</v>
+        <v>-1564951367</v>
       </c>
       <c r="B44" s="3">
         <v>1498651392</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2092,19 +2098,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>797307857</v>
+        <v>-59478781</v>
       </c>
       <c r="B45" s="3">
         <v>1498651392</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2112,19 +2118,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>-337981905</v>
+        <v>-171116364</v>
       </c>
       <c r="B46" s="3">
         <v>1498651392</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2132,19 +2138,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>153670792</v>
+        <v>1358693645</v>
       </c>
       <c r="B47" s="3">
         <v>1498651392</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2152,19 +2158,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-1564951367</v>
+        <v>-789027443</v>
       </c>
       <c r="B48" s="3">
         <v>1498651392</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2172,19 +2178,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-59478781</v>
+        <v>-521246146</v>
       </c>
       <c r="B49" s="3">
         <v>1498651392</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2192,19 +2198,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-171116364</v>
+        <v>-866621371</v>
       </c>
       <c r="B50" s="3">
         <v>1498651392</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2212,19 +2218,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>1358693645</v>
+        <v>-1202190585</v>
       </c>
       <c r="B51" s="3">
         <v>1498651392</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2232,19 +2238,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-789027443</v>
+        <v>-697777798</v>
       </c>
       <c r="B52" s="3">
         <v>1498651392</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-521246146</v>
+        <v>-822758644</v>
       </c>
       <c r="B53" s="3">
         <v>1498651392</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2272,19 +2278,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>-866621371</v>
+        <v>-683937367</v>
       </c>
       <c r="B54" s="3">
         <v>1498651392</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2292,19 +2298,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-1202190585</v>
+        <v>1656373698</v>
       </c>
       <c r="B55" s="3">
         <v>1498651392</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2312,19 +2318,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-697777798</v>
+        <v>-1576961177</v>
       </c>
       <c r="B56" s="3">
         <v>1498651392</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2332,19 +2338,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>-822758644</v>
+        <v>1210637086</v>
       </c>
       <c r="B57" s="3">
         <v>1498651392</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2352,19 +2358,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>-683937367</v>
+        <v>1015097087</v>
       </c>
       <c r="B58" s="3">
         <v>1498651392</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2372,19 +2378,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>1656373698</v>
+        <v>-1179819934</v>
       </c>
       <c r="B59" s="3">
         <v>1498651392</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2392,19 +2398,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>-1576961177</v>
+        <v>887404725</v>
       </c>
       <c r="B60" s="3">
         <v>1498651392</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2412,19 +2418,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>1210637086</v>
+        <v>1668790150</v>
       </c>
       <c r="B61" s="3">
         <v>1498651392</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2432,19 +2438,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>1015097087</v>
+        <v>2000159984</v>
       </c>
       <c r="B62" s="3">
         <v>1498651392</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>-1179819934</v>
+        <v>-828125338</v>
       </c>
       <c r="B63" s="3">
         <v>1498651392</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2472,19 +2478,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>887404725</v>
+        <v>-2000734508</v>
       </c>
       <c r="B64" s="3">
         <v>1498651392</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>1668790150</v>
+        <v>-2120242522</v>
       </c>
       <c r="B65" s="3">
         <v>1498651392</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2512,19 +2518,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>2000159984</v>
+        <v>801904891</v>
       </c>
       <c r="B66" s="3">
         <v>1498651392</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2532,19 +2538,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-828125338</v>
+        <v>-1470467503</v>
       </c>
       <c r="B67" s="3">
         <v>1498651392</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2552,19 +2558,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>-2000734508</v>
+        <v>337104583</v>
       </c>
       <c r="B68" s="3">
         <v>1498651392</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2572,19 +2578,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>-2120242522</v>
+        <v>2090923639</v>
       </c>
       <c r="B69" s="3">
         <v>1498651392</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2592,19 +2598,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>801904891</v>
+        <v>-963389618</v>
       </c>
       <c r="B70" s="3">
         <v>1498651392</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2612,19 +2618,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>-1470467503</v>
+        <v>-873179829</v>
       </c>
       <c r="B71" s="3">
         <v>1498651392</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2632,19 +2638,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>337104583</v>
+        <v>-116491982</v>
       </c>
       <c r="B72" s="3">
-        <v>1498651392</v>
+        <v>-143016780</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2652,19 +2658,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>2090923639</v>
+        <v>-1735360998</v>
       </c>
       <c r="B73" s="3">
-        <v>1498651392</v>
+        <v>-143016780</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2672,19 +2678,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>-963389618</v>
+        <v>1223135529</v>
       </c>
       <c r="B74" s="3">
-        <v>1498651392</v>
+        <v>-143016780</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2692,19 +2698,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>-873179829</v>
+        <v>-2078450133</v>
       </c>
       <c r="B75" s="3">
-        <v>1498651392</v>
+        <v>697093135</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-116491982</v>
+        <v>-1710946484</v>
       </c>
       <c r="B76" s="3">
-        <v>-143016780</v>
+        <v>697093135</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2732,19 +2738,19 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>-1735360998</v>
+        <v>-957768232</v>
       </c>
       <c r="B77" s="3">
-        <v>-143016780</v>
+        <v>697093135</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>1223135529</v>
+        <v>-2034364172</v>
       </c>
       <c r="B78" s="3">
-        <v>-143016780</v>
+        <v>697093135</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>134</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2772,7 +2778,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-2078450133</v>
+        <v>-853281810</v>
       </c>
       <c r="B79" s="3">
         <v>697093135</v>
@@ -2781,10 +2787,10 @@
         <v>135</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2792,19 +2798,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-1710946484</v>
+        <v>-1945931504</v>
       </c>
       <c r="B80" s="3">
         <v>697093135</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2812,19 +2818,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>-957768232</v>
+        <v>-500020199</v>
       </c>
       <c r="B81" s="3">
         <v>697093135</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2832,19 +2838,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>-2034364172</v>
+        <v>1757638406</v>
       </c>
       <c r="B82" s="3">
         <v>697093135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2852,19 +2858,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>-853281810</v>
+        <v>1988261967</v>
       </c>
       <c r="B83" s="3">
         <v>697093135</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2872,19 +2878,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-1945931504</v>
+        <v>-995549749</v>
       </c>
       <c r="B84" s="3">
         <v>697093135</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2892,19 +2898,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>-500020199</v>
+        <v>-2065132448</v>
       </c>
       <c r="B85" s="3">
         <v>697093135</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2912,19 +2918,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>1757638406</v>
+        <v>-469814560</v>
       </c>
       <c r="B86" s="3">
         <v>697093135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2932,19 +2938,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>1988261967</v>
+        <v>-1709480205</v>
       </c>
       <c r="B87" s="3">
         <v>697093135</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2952,19 +2958,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>-995549749</v>
+        <v>140739289</v>
       </c>
       <c r="B88" s="3">
-        <v>697093135</v>
+        <v>-1099268540</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -2972,19 +2978,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>-2065132448</v>
+        <v>-1608487925</v>
       </c>
       <c r="B89" s="3">
-        <v>697093135</v>
+        <v>-1099268540</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>-469814560</v>
+        <v>2105748090</v>
       </c>
       <c r="B90" s="3">
-        <v>697093135</v>
+        <v>-1099268540</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -3012,19 +3018,19 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>-1709480205</v>
+        <v>789221405</v>
       </c>
       <c r="B91" s="3">
-        <v>697093135</v>
+        <v>-1080227996</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3032,19 +3038,19 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>140739289</v>
+        <v>1216959907</v>
       </c>
       <c r="B92" s="3">
-        <v>-1099268540</v>
+        <v>-1080227996</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -3052,19 +3058,19 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-1608487925</v>
+        <v>-476086870</v>
       </c>
       <c r="B93" s="3">
-        <v>-1099268540</v>
+        <v>-1080227996</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -3072,19 +3078,19 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>2105748090</v>
+        <v>-838689769</v>
       </c>
       <c r="B94" s="3">
-        <v>-1099268540</v>
+        <v>-1080227996</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>152</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3092,7 +3098,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>789221405</v>
+        <v>-1802325708</v>
       </c>
       <c r="B95" s="3">
         <v>-1080227996</v>
@@ -3101,10 +3107,10 @@
         <v>153</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3112,19 +3118,19 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>1216959907</v>
+        <v>1989727680</v>
       </c>
       <c r="B96" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3132,19 +3138,19 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-476086870</v>
+        <v>-1939875048</v>
       </c>
       <c r="B97" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3152,19 +3158,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-838689769</v>
+        <v>-1464485623</v>
       </c>
       <c r="B98" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-1802325708</v>
+        <v>-1951531947</v>
       </c>
       <c r="B99" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3192,19 +3198,19 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>1989727680</v>
+        <v>-1046567820</v>
       </c>
       <c r="B100" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3212,19 +3218,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-1939875048</v>
+        <v>1068522423</v>
       </c>
       <c r="B101" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3232,19 +3238,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-1464485623</v>
+        <v>-300423134</v>
       </c>
       <c r="B102" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3252,19 +3258,19 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-1951531947</v>
+        <v>1006821704</v>
       </c>
       <c r="B103" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3272,19 +3278,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>-1046567820</v>
+        <v>-807058300</v>
       </c>
       <c r="B104" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3292,19 +3298,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>1068522423</v>
+        <v>861913762</v>
       </c>
       <c r="B105" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3312,19 +3318,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>-300423134</v>
+        <v>-754517366</v>
       </c>
       <c r="B106" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3332,19 +3338,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>1006821704</v>
+        <v>130754166</v>
       </c>
       <c r="B107" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3352,19 +3358,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>-807058300</v>
+        <v>125947051</v>
       </c>
       <c r="B108" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3372,19 +3378,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>861913762</v>
+        <v>-1770038881</v>
       </c>
       <c r="B109" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3392,19 +3398,19 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>-754517366</v>
+        <v>-619684109</v>
       </c>
       <c r="B110" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3412,19 +3418,19 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>130754166</v>
+        <v>1129969276</v>
       </c>
       <c r="B111" s="3">
-        <v>-1080227996</v>
+        <v>1006479116</v>
       </c>
       <c r="C111" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E111" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3432,19 +3438,19 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>125947051</v>
+        <v>2087578356</v>
       </c>
       <c r="B112" s="3">
-        <v>-1080227996</v>
+        <v>1006479116</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3452,19 +3458,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-1770038881</v>
+        <v>-1682130970</v>
       </c>
       <c r="B113" s="3">
-        <v>-1080227996</v>
+        <v>1006479116</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3472,19 +3478,19 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-619684109</v>
+        <v>-1517097132</v>
       </c>
       <c r="B114" s="3">
-        <v>-1080227996</v>
+        <v>851451727</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3492,19 +3498,19 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>1129969276</v>
+        <v>-1065385250</v>
       </c>
       <c r="B115" s="3">
-        <v>1006479116</v>
+        <v>851451727</v>
       </c>
       <c r="C115" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E115" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3512,19 +3518,19 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>2087578356</v>
+        <v>1033151513</v>
       </c>
       <c r="B116" s="3">
-        <v>1006479116</v>
+        <v>851451727</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3532,19 +3538,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-1682130970</v>
+        <v>-2058283314</v>
       </c>
       <c r="B117" s="3">
-        <v>1006479116</v>
+        <v>303790042</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3552,19 +3558,19 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-1517097132</v>
+        <v>2029688188</v>
       </c>
       <c r="B118" s="3">
-        <v>851451727</v>
+        <v>303790042</v>
       </c>
       <c r="C118" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E118" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3572,19 +3578,19 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>-1065385250</v>
+        <v>-1469368861</v>
       </c>
       <c r="B119" s="3">
-        <v>851451727</v>
+        <v>303790042</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3592,19 +3598,19 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>1033151513</v>
+        <v>-683434627</v>
       </c>
       <c r="B120" s="3">
-        <v>851451727</v>
+        <v>303790042</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3612,7 +3618,7 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>-2058283314</v>
+        <v>1967723194</v>
       </c>
       <c r="B121" s="3">
         <v>303790042</v>
@@ -3621,10 +3627,10 @@
         <v>182</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3632,19 +3638,19 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>2029688188</v>
+        <v>1396964412</v>
       </c>
       <c r="B122" s="3">
         <v>303790042</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3652,19 +3658,19 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-1469368861</v>
+        <v>1716523581</v>
       </c>
       <c r="B123" s="3">
         <v>303790042</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3672,19 +3678,19 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>-683434627</v>
+        <v>1121214035</v>
       </c>
       <c r="B124" s="3">
         <v>303790042</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3692,19 +3698,19 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>1967723194</v>
+        <v>1691528606</v>
       </c>
       <c r="B125" s="3">
         <v>303790042</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3712,19 +3718,19 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>1396964412</v>
+        <v>-390587125</v>
       </c>
       <c r="B126" s="3">
         <v>303790042</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3732,19 +3738,19 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>1716523581</v>
+        <v>1704422050</v>
       </c>
       <c r="B127" s="3">
         <v>303790042</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3752,19 +3758,19 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>1121214035</v>
+        <v>-1536911730</v>
       </c>
       <c r="B128" s="3">
         <v>303790042</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3772,19 +3778,19 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>1691528606</v>
+        <v>413905320</v>
       </c>
       <c r="B129" s="3">
         <v>303790042</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3792,19 +3798,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-390587125</v>
+        <v>-48817825</v>
       </c>
       <c r="B130" s="3">
         <v>303790042</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3812,19 +3818,19 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>1704422050</v>
+        <v>-959482885</v>
       </c>
       <c r="B131" s="3">
         <v>303790042</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3832,19 +3838,19 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>-1536911730</v>
+        <v>2073649712</v>
       </c>
       <c r="B132" s="3">
         <v>303790042</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3852,19 +3858,19 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>413905320</v>
+        <v>1029219947</v>
       </c>
       <c r="B133" s="3">
         <v>303790042</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3872,19 +3878,19 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-48817825</v>
+        <v>-1791028253</v>
       </c>
       <c r="B134" s="3">
         <v>303790042</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3892,19 +3898,19 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>-959482885</v>
+        <v>-278736850</v>
       </c>
       <c r="B135" s="3">
         <v>303790042</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3912,19 +3918,19 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>2073649712</v>
+        <v>64477520</v>
       </c>
       <c r="B136" s="3">
         <v>303790042</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3932,19 +3938,19 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>1029219947</v>
+        <v>1525107119</v>
       </c>
       <c r="B137" s="3">
         <v>303790042</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3952,19 +3958,19 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-1791028253</v>
+        <v>1894508942</v>
       </c>
       <c r="B138" s="3">
         <v>303790042</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -3972,19 +3978,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>-278736850</v>
+        <v>786946575</v>
       </c>
       <c r="B139" s="3">
         <v>303790042</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -3992,19 +3998,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>64477520</v>
+        <v>1743712584</v>
       </c>
       <c r="B140" s="3">
         <v>303790042</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -4012,19 +4018,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>1525107119</v>
+        <v>-1666523598</v>
       </c>
       <c r="B141" s="3">
         <v>303790042</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -4032,19 +4038,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>1894508942</v>
+        <v>-209439764</v>
       </c>
       <c r="B142" s="3">
         <v>303790042</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -4052,19 +4058,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>786946575</v>
+        <v>-1975734379</v>
       </c>
       <c r="B143" s="3">
         <v>303790042</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -4072,19 +4078,19 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>1743712584</v>
+        <v>1273481327</v>
       </c>
       <c r="B144" s="3">
         <v>303790042</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -4092,19 +4098,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>-1666523598</v>
+        <v>785293368</v>
       </c>
       <c r="B145" s="3">
         <v>303790042</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4112,19 +4118,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-209439764</v>
+        <v>-594615111</v>
       </c>
       <c r="B146" s="3">
         <v>303790042</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4132,19 +4138,19 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1975734379</v>
+        <v>-509427602</v>
       </c>
       <c r="B147" s="3">
         <v>303790042</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4152,19 +4158,19 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>1273481327</v>
+        <v>-522008429</v>
       </c>
       <c r="B148" s="3">
         <v>303790042</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4172,19 +4178,19 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>785293368</v>
+        <v>1223491875</v>
       </c>
       <c r="B149" s="3">
         <v>303790042</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -4192,19 +4198,19 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-594615111</v>
+        <v>1068025648</v>
       </c>
       <c r="B150" s="3">
         <v>303790042</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -4212,19 +4218,19 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-509427602</v>
+        <v>-1281428191</v>
       </c>
       <c r="B151" s="3">
         <v>303790042</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -4232,19 +4238,19 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>-522008429</v>
+        <v>559760484</v>
       </c>
       <c r="B152" s="3">
-        <v>303790042</v>
+        <v>779000644</v>
       </c>
       <c r="C152" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -4252,19 +4258,19 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>1223491875</v>
+        <v>1147450703</v>
       </c>
       <c r="B153" s="3">
-        <v>303790042</v>
+        <v>779000644</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -4272,19 +4278,19 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>1068025648</v>
+        <v>-555765293</v>
       </c>
       <c r="B154" s="3">
-        <v>303790042</v>
+        <v>779000644</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -4292,19 +4298,19 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>-1281428191</v>
+        <v>-1008309707</v>
       </c>
       <c r="B155" s="3">
-        <v>303790042</v>
+        <v>779000644</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>217</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -4312,7 +4318,7 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>559760484</v>
+        <v>1649328148</v>
       </c>
       <c r="B156" s="3">
         <v>779000644</v>
@@ -4321,10 +4327,10 @@
         <v>218</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -4332,19 +4338,19 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>1147450703</v>
+        <v>1483365187</v>
       </c>
       <c r="B157" s="3">
         <v>779000644</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -4352,19 +4358,19 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>-555765293</v>
+        <v>488959337</v>
       </c>
       <c r="B158" s="3">
-        <v>779000644</v>
+        <v>1205799434</v>
       </c>
       <c r="C158" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -4372,19 +4378,19 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>-1008309707</v>
+        <v>-258823006</v>
       </c>
       <c r="B159" s="3">
-        <v>779000644</v>
+        <v>1205799434</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -4392,19 +4398,19 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>1649328148</v>
+        <v>-877025943</v>
       </c>
       <c r="B160" s="3">
-        <v>779000644</v>
+        <v>1205799434</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -4412,19 +4418,19 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>1483365187</v>
+        <v>-1928104510</v>
       </c>
       <c r="B161" s="3">
-        <v>779000644</v>
+        <v>1205799434</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>224</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -4432,7 +4438,7 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>488959337</v>
+        <v>233779722</v>
       </c>
       <c r="B162" s="3">
         <v>1205799434</v>
@@ -4441,10 +4447,10 @@
         <v>225</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -4452,19 +4458,19 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>-258823006</v>
+        <v>575019724</v>
       </c>
       <c r="B163" s="3">
         <v>1205799434</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -4472,99 +4478,99 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>-877025943</v>
+        <v>-1924748440</v>
       </c>
       <c r="B164" s="3">
-        <v>1205799434</v>
+        <v>1993197872</v>
       </c>
       <c r="C164" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="F164" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>-1928104510</v>
+        <v>437101228</v>
       </c>
       <c r="B165" s="3">
-        <v>1205799434</v>
+        <v>1553275941</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F165" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>233779722</v>
+        <v>1925488967</v>
       </c>
       <c r="B166" s="3">
-        <v>1205799434</v>
+        <v>417181438</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F166" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>575019724</v>
+        <v>553737605</v>
       </c>
       <c r="B167" s="3">
-        <v>1205799434</v>
+        <v>-1422368536</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F167" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>-1924748440</v>
+        <v>-593267104</v>
       </c>
       <c r="B168" s="3">
-        <v>1993197872</v>
+        <v>-41951286</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="F168" s="3">
         <v>15</v>
@@ -4572,27 +4578,27 @@
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>-1382448832</v>
+        <v>1130140136</v>
       </c>
       <c r="B169" s="3">
-        <v>2118059982</v>
+        <v>498502262</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F169" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>139913362</v>
+        <v>-1382448832</v>
       </c>
       <c r="B170" s="3">
         <v>2118059982</v>
@@ -4601,10 +4607,10 @@
         <v>237</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F170" s="3">
         <v>26</v>
@@ -4612,19 +4618,19 @@
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>-901086922</v>
+        <v>139913362</v>
       </c>
       <c r="B171" s="3">
         <v>2118059982</v>
       </c>
       <c r="C171" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="F171" s="3">
         <v>26</v>
@@ -4632,21 +4638,41 @@
     </row>
     <row r="172">
       <c r="A172" s="3">
-        <v>-1038403056</v>
+        <v>-901086922</v>
       </c>
       <c r="B172" s="3">
-        <v>1723212885</v>
+        <v>2118059982</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F172" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="3">
+        <v>2125618822</v>
+      </c>
+      <c r="B173" s="3">
+        <v>-1278219496</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F173" s="3">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -95,7 +95,7 @@
     <t>.txt</t>
   </si>
   <si>
-    <t/>
+    <t>x_726493122</t>
   </si>
   <si>
     <t>FZY4JW_0</t>
@@ -281,7 +281,7 @@
     <t>chgPowerCircle3</t>
   </si>
   <si>
-    <t>o__1481992392</t>
+    <t>o_1653263674</t>
   </si>
   <si>
     <t>effect_hero_foot</t>
@@ -725,7 +725,7 @@
     <t>ExampleGuideWindow</t>
   </si>
   <si>
-    <t>o__134525322</t>
+    <t>o_1346986897</t>
   </si>
   <si>
     <t>ExampleHeroListWindow</t>
@@ -737,7 +737,7 @@
     <t>ExampleLobbyWindow</t>
   </si>
   <si>
-    <t>o__891049532</t>
+    <t>o__565934673</t>
   </si>
   <si>
     <t>ExampleMessageBoxWindow</t>
@@ -761,7 +761,7 @@
     <t>ExampleHeroListWindow.lua</t>
   </si>
   <si>
-    <t>x_332625339</t>
+    <t>x_1452682579</t>
   </si>
 </sst>
 </file>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t>fileId</t>
   </si>
@@ -89,12 +89,21 @@
     <t>o_804079274</t>
   </si>
   <si>
+    <t>SpriteAtlas</t>
+  </si>
+  <si>
+    <t>.txt</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>UIWindowPrefab</t>
+  </si>
+  <si>
     <t>xLuaScript.lua</t>
   </si>
   <si>
-    <t>.txt</t>
-  </si>
-  <si>
     <t>x_726493122</t>
   </si>
   <si>
@@ -197,6 +206,9 @@
     <t>s_1998193365</t>
   </si>
   <si>
+    <t>ExampleCinemachine</t>
+  </si>
+  <si>
     <t>ExampleEntityComponentSystem</t>
   </si>
   <si>
@@ -720,6 +732,12 @@
   </si>
   <si>
     <t>o_1026750565</t>
+  </si>
+  <si>
+    <t>ExampleCinemachine_DollyCartTimeline</t>
+  </si>
+  <si>
+    <t>.playable</t>
   </si>
   <si>
     <t>ExampleGuideWindow</t>
@@ -1200,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
@@ -1298,10 +1316,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-1314513662</v>
+        <v>-1047153048</v>
       </c>
       <c r="B5" s="3">
-        <v>-764457537</v>
+        <v>1148303718</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1318,79 +1336,79 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>-671828977</v>
+        <v>357213519</v>
       </c>
       <c r="B6" s="3">
-        <v>703074975</v>
+        <v>798963579</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-1822338762</v>
+        <v>-1314513662</v>
       </c>
       <c r="B7" s="3">
-        <v>-2004506147</v>
+        <v>-764457537</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3">
         <v>26</v>
-      </c>
-      <c r="F7" s="3">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>2069627225</v>
+        <v>-671828977</v>
       </c>
       <c r="B8" s="3">
-        <v>1536776472</v>
+        <v>703074975</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-639390330</v>
+        <v>-1822338762</v>
       </c>
       <c r="B9" s="3">
-        <v>1536776472</v>
+        <v>-2004506147</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F9" s="3">
         <v>15</v>
@@ -1398,19 +1416,19 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>-247032076</v>
+        <v>2069627225</v>
       </c>
       <c r="B10" s="3">
-        <v>-1919546133</v>
+        <v>1536776472</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="3">
         <v>15</v>
@@ -1418,19 +1436,19 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-914683150</v>
+        <v>-639390330</v>
       </c>
       <c r="B11" s="3">
-        <v>-1919546133</v>
+        <v>1536776472</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="3">
         <v>15</v>
@@ -1438,19 +1456,19 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>1469057108</v>
+        <v>-247032076</v>
       </c>
       <c r="B12" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="3">
         <v>15</v>
@@ -1458,19 +1476,19 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>563263933</v>
+        <v>-914683150</v>
       </c>
       <c r="B13" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="3">
         <v>15</v>
@@ -1478,19 +1496,19 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-1640052790</v>
+        <v>1469057108</v>
       </c>
       <c r="B14" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F14" s="3">
         <v>15</v>
@@ -1498,19 +1516,19 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>334986352</v>
+        <v>563263933</v>
       </c>
       <c r="B15" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="3">
         <v>15</v>
@@ -1518,19 +1536,19 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>1656382229</v>
+        <v>-1640052790</v>
       </c>
       <c r="B16" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="3">
         <v>15</v>
@@ -1538,19 +1556,19 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1191492675</v>
+        <v>334986352</v>
       </c>
       <c r="B17" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>15</v>
@@ -1558,19 +1576,19 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>2125675024</v>
+        <v>1656382229</v>
       </c>
       <c r="B18" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F18" s="3">
         <v>15</v>
@@ -1578,19 +1596,19 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>-1961533316</v>
+        <v>1191492675</v>
       </c>
       <c r="B19" s="3">
         <v>-1919546133</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="3">
         <v>15</v>
@@ -1598,59 +1616,59 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-1860432654</v>
+        <v>2125675024</v>
       </c>
       <c r="B20" s="3">
-        <v>1325637814</v>
+        <v>-1919546133</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="F20" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>1652309691</v>
+        <v>-1961533316</v>
       </c>
       <c r="B21" s="3">
-        <v>1325637814</v>
+        <v>-1919546133</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>1305370276</v>
+        <v>-1860432654</v>
       </c>
       <c r="B22" s="3">
         <v>1325637814</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F22" s="3">
         <v>23</v>
@@ -1658,19 +1676,19 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>1784042025</v>
+        <v>-935725446</v>
       </c>
       <c r="B23" s="3">
         <v>1325637814</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="F23" s="3">
         <v>23</v>
@@ -1678,19 +1696,19 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>-692579849</v>
+        <v>1652309691</v>
       </c>
       <c r="B24" s="3">
         <v>1325637814</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3">
         <v>23</v>
@@ -1698,19 +1716,19 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1479034210</v>
+        <v>1305370276</v>
       </c>
       <c r="B25" s="3">
         <v>1325637814</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="3">
         <v>23</v>
@@ -1718,19 +1736,19 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>-1608441305</v>
+        <v>1784042025</v>
       </c>
       <c r="B26" s="3">
         <v>1325637814</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26" s="3">
         <v>23</v>
@@ -1738,19 +1756,19 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>2073847480</v>
+        <v>-692579849</v>
       </c>
       <c r="B27" s="3">
         <v>1325637814</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="3">
         <v>23</v>
@@ -1758,19 +1776,19 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1229683040</v>
+        <v>1479034210</v>
       </c>
       <c r="B28" s="3">
         <v>1325637814</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" s="3">
         <v>23</v>
@@ -1778,19 +1796,19 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>1889580147</v>
+        <v>-1608441305</v>
       </c>
       <c r="B29" s="3">
         <v>1325637814</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F29" s="3">
         <v>23</v>
@@ -1798,19 +1816,19 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>698208992</v>
+        <v>2073847480</v>
       </c>
       <c r="B30" s="3">
         <v>1325637814</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="3">
         <v>23</v>
@@ -1818,19 +1836,19 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1741707445</v>
+        <v>1229683040</v>
       </c>
       <c r="B31" s="3">
         <v>1325637814</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F31" s="3">
         <v>23</v>
@@ -1838,79 +1856,79 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>1334679678</v>
+        <v>1889580147</v>
       </c>
       <c r="B32" s="3">
-        <v>-1405308702</v>
+        <v>1325637814</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>203780964</v>
+        <v>698208992</v>
       </c>
       <c r="B33" s="3">
-        <v>-1405308702</v>
+        <v>1325637814</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>904144584</v>
+        <v>1741707445</v>
       </c>
       <c r="B34" s="3">
-        <v>-1405308702</v>
+        <v>1325637814</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F34" s="3">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>-1147649747</v>
+        <v>1334679678</v>
       </c>
       <c r="B35" s="3">
         <v>-1405308702</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1918,19 +1936,19 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>1649820611</v>
+        <v>203780964</v>
       </c>
       <c r="B36" s="3">
-        <v>-1408754900</v>
+        <v>-1405308702</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1938,19 +1956,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>1784757519</v>
+        <v>904144584</v>
       </c>
       <c r="B37" s="3">
-        <v>1311652878</v>
+        <v>-1405308702</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1958,19 +1976,19 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>41156671</v>
+        <v>-1147649747</v>
       </c>
       <c r="B38" s="3">
-        <v>853849619</v>
+        <v>-1405308702</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1978,19 +1996,19 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>433278951</v>
+        <v>1649820611</v>
       </c>
       <c r="B39" s="3">
-        <v>1498651392</v>
+        <v>-1408754900</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -1998,16 +2016,16 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>1887145564</v>
+        <v>1784757519</v>
       </c>
       <c r="B40" s="3">
-        <v>1498651392</v>
+        <v>1311652878</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>93</v>
@@ -2018,19 +2036,19 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>797307857</v>
+        <v>41156671</v>
       </c>
       <c r="B41" s="3">
-        <v>1498651392</v>
+        <v>853849619</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2038,7 +2056,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>-337981905</v>
+        <v>433278951</v>
       </c>
       <c r="B42" s="3">
         <v>1498651392</v>
@@ -2047,10 +2065,10 @@
         <v>96</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2058,19 +2076,19 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>153670792</v>
+        <v>1887145564</v>
       </c>
       <c r="B43" s="3">
         <v>1498651392</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2078,19 +2096,19 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>-1564951367</v>
+        <v>797307857</v>
       </c>
       <c r="B44" s="3">
         <v>1498651392</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2098,19 +2116,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-59478781</v>
+        <v>-337981905</v>
       </c>
       <c r="B45" s="3">
         <v>1498651392</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2118,19 +2136,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>-171116364</v>
+        <v>153670792</v>
       </c>
       <c r="B46" s="3">
         <v>1498651392</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2138,19 +2156,19 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>1358693645</v>
+        <v>-1564951367</v>
       </c>
       <c r="B47" s="3">
         <v>1498651392</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2158,19 +2176,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-789027443</v>
+        <v>-59478781</v>
       </c>
       <c r="B48" s="3">
         <v>1498651392</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2178,19 +2196,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-521246146</v>
+        <v>-171116364</v>
       </c>
       <c r="B49" s="3">
         <v>1498651392</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2198,19 +2216,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-866621371</v>
+        <v>1358693645</v>
       </c>
       <c r="B50" s="3">
         <v>1498651392</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2218,19 +2236,19 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-1202190585</v>
+        <v>-789027443</v>
       </c>
       <c r="B51" s="3">
         <v>1498651392</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2238,19 +2256,19 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-697777798</v>
+        <v>-521246146</v>
       </c>
       <c r="B52" s="3">
         <v>1498651392</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2258,19 +2276,19 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-822758644</v>
+        <v>-866621371</v>
       </c>
       <c r="B53" s="3">
         <v>1498651392</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2278,19 +2296,19 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>-683937367</v>
+        <v>-1202190585</v>
       </c>
       <c r="B54" s="3">
         <v>1498651392</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2298,19 +2316,19 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>1656373698</v>
+        <v>-697777798</v>
       </c>
       <c r="B55" s="3">
         <v>1498651392</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2318,19 +2336,19 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-1576961177</v>
+        <v>-822758644</v>
       </c>
       <c r="B56" s="3">
         <v>1498651392</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2338,19 +2356,19 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>1210637086</v>
+        <v>-683937367</v>
       </c>
       <c r="B57" s="3">
         <v>1498651392</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2358,19 +2376,19 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>1015097087</v>
+        <v>1656373698</v>
       </c>
       <c r="B58" s="3">
         <v>1498651392</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2378,19 +2396,19 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>-1179819934</v>
+        <v>-1576961177</v>
       </c>
       <c r="B59" s="3">
         <v>1498651392</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2398,19 +2416,19 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>887404725</v>
+        <v>1210637086</v>
       </c>
       <c r="B60" s="3">
         <v>1498651392</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2418,19 +2436,19 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>1668790150</v>
+        <v>1015097087</v>
       </c>
       <c r="B61" s="3">
         <v>1498651392</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2438,19 +2456,19 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>2000159984</v>
+        <v>-1179819934</v>
       </c>
       <c r="B62" s="3">
         <v>1498651392</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2458,19 +2476,19 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>-828125338</v>
+        <v>887404725</v>
       </c>
       <c r="B63" s="3">
         <v>1498651392</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2478,19 +2496,19 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>-2000734508</v>
+        <v>1668790150</v>
       </c>
       <c r="B64" s="3">
         <v>1498651392</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2498,19 +2516,19 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>-2120242522</v>
+        <v>2000159984</v>
       </c>
       <c r="B65" s="3">
         <v>1498651392</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2518,19 +2536,19 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>801904891</v>
+        <v>-828125338</v>
       </c>
       <c r="B66" s="3">
         <v>1498651392</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2538,19 +2556,19 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-1470467503</v>
+        <v>-2000734508</v>
       </c>
       <c r="B67" s="3">
         <v>1498651392</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2558,19 +2576,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>337104583</v>
+        <v>-2120242522</v>
       </c>
       <c r="B68" s="3">
         <v>1498651392</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2578,19 +2596,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>2090923639</v>
+        <v>801904891</v>
       </c>
       <c r="B69" s="3">
         <v>1498651392</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2598,19 +2616,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>-963389618</v>
+        <v>-1470467503</v>
       </c>
       <c r="B70" s="3">
         <v>1498651392</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2618,19 +2636,19 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>-873179829</v>
+        <v>337104583</v>
       </c>
       <c r="B71" s="3">
         <v>1498651392</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2638,19 +2656,19 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>-116491982</v>
+        <v>2090923639</v>
       </c>
       <c r="B72" s="3">
-        <v>-143016780</v>
+        <v>1498651392</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2658,19 +2676,19 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>-1735360998</v>
+        <v>-963389618</v>
       </c>
       <c r="B73" s="3">
-        <v>-143016780</v>
+        <v>1498651392</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2678,19 +2696,19 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>1223135529</v>
+        <v>-873179829</v>
       </c>
       <c r="B74" s="3">
-        <v>-143016780</v>
+        <v>1498651392</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2698,16 +2716,16 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>-2078450133</v>
+        <v>-116491982</v>
       </c>
       <c r="B75" s="3">
-        <v>697093135</v>
+        <v>-143016780</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>130</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>131</v>
@@ -2718,16 +2736,16 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-1710946484</v>
+        <v>-1735360998</v>
       </c>
       <c r="B76" s="3">
-        <v>697093135</v>
+        <v>-143016780</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>132</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>131</v>
@@ -2738,16 +2756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>-957768232</v>
+        <v>1223135529</v>
       </c>
       <c r="B77" s="3">
-        <v>697093135</v>
+        <v>-143016780</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>131</v>
@@ -2758,7 +2776,7 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-2034364172</v>
+        <v>-2078450133</v>
       </c>
       <c r="B78" s="3">
         <v>697093135</v>
@@ -2767,10 +2785,10 @@
         <v>134</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2778,19 +2796,19 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-853281810</v>
+        <v>-1710946484</v>
       </c>
       <c r="B79" s="3">
         <v>697093135</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2798,19 +2816,19 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-1945931504</v>
+        <v>-957768232</v>
       </c>
       <c r="B80" s="3">
         <v>697093135</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2818,19 +2836,19 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>-500020199</v>
+        <v>-2034364172</v>
       </c>
       <c r="B81" s="3">
         <v>697093135</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2838,19 +2856,19 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>1757638406</v>
+        <v>-853281810</v>
       </c>
       <c r="B82" s="3">
         <v>697093135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2858,19 +2876,19 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>1988261967</v>
+        <v>-1945931504</v>
       </c>
       <c r="B83" s="3">
         <v>697093135</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2878,19 +2896,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-995549749</v>
+        <v>-500020199</v>
       </c>
       <c r="B84" s="3">
         <v>697093135</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2898,19 +2916,19 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>-2065132448</v>
+        <v>1757638406</v>
       </c>
       <c r="B85" s="3">
         <v>697093135</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2918,19 +2936,19 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>-469814560</v>
+        <v>1988261967</v>
       </c>
       <c r="B86" s="3">
         <v>697093135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2938,19 +2956,19 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>-1709480205</v>
+        <v>-995549749</v>
       </c>
       <c r="B87" s="3">
         <v>697093135</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2958,19 +2976,19 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>140739289</v>
+        <v>-2065132448</v>
       </c>
       <c r="B88" s="3">
-        <v>-1099268540</v>
+        <v>697093135</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -2978,19 +2996,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>-1608487925</v>
+        <v>-469814560</v>
       </c>
       <c r="B89" s="3">
-        <v>-1099268540</v>
+        <v>697093135</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>146</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -2998,19 +3016,19 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>2105748090</v>
+        <v>-1709480205</v>
       </c>
       <c r="B90" s="3">
-        <v>-1099268540</v>
+        <v>697093135</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>147</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -3018,16 +3036,16 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>789221405</v>
+        <v>140739289</v>
       </c>
       <c r="B91" s="3">
-        <v>-1080227996</v>
+        <v>-1099268540</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>148</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>149</v>
@@ -3038,16 +3056,16 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>1216959907</v>
+        <v>-1608487925</v>
       </c>
       <c r="B92" s="3">
-        <v>-1080227996</v>
+        <v>-1099268540</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>150</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>149</v>
@@ -3058,16 +3076,16 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-476086870</v>
+        <v>2105748090</v>
       </c>
       <c r="B93" s="3">
-        <v>-1080227996</v>
+        <v>-1099268540</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>149</v>
@@ -3078,7 +3096,7 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>-838689769</v>
+        <v>789221405</v>
       </c>
       <c r="B94" s="3">
         <v>-1080227996</v>
@@ -3087,10 +3105,10 @@
         <v>152</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3098,19 +3116,19 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>-1802325708</v>
+        <v>1216959907</v>
       </c>
       <c r="B95" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C95" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3118,19 +3136,19 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>1989727680</v>
+        <v>-476086870</v>
       </c>
       <c r="B96" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3138,19 +3156,19 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-1939875048</v>
+        <v>-838689769</v>
       </c>
       <c r="B97" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3158,19 +3176,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-1464485623</v>
+        <v>-1802325708</v>
       </c>
       <c r="B98" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3178,19 +3196,19 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>-1951531947</v>
+        <v>1989727680</v>
       </c>
       <c r="B99" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3198,19 +3216,19 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-1046567820</v>
+        <v>-1939875048</v>
       </c>
       <c r="B100" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3218,19 +3236,19 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>1068522423</v>
+        <v>-1464485623</v>
       </c>
       <c r="B101" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3238,19 +3256,19 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-300423134</v>
+        <v>-1951531947</v>
       </c>
       <c r="B102" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3258,19 +3276,19 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>1006821704</v>
+        <v>-1046567820</v>
       </c>
       <c r="B103" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3278,19 +3296,19 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>-807058300</v>
+        <v>1068522423</v>
       </c>
       <c r="B104" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3298,19 +3316,19 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>861913762</v>
+        <v>-300423134</v>
       </c>
       <c r="B105" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3318,19 +3336,19 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>-754517366</v>
+        <v>1006821704</v>
       </c>
       <c r="B106" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3338,19 +3356,19 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>130754166</v>
+        <v>-807058300</v>
       </c>
       <c r="B107" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3358,19 +3376,19 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>125947051</v>
+        <v>861913762</v>
       </c>
       <c r="B108" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3378,19 +3396,19 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>-1770038881</v>
+        <v>-754517366</v>
       </c>
       <c r="B109" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3398,19 +3416,19 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>-619684109</v>
+        <v>130754166</v>
       </c>
       <c r="B110" s="3">
         <v>-1080227996</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3418,19 +3436,19 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>1129969276</v>
+        <v>125947051</v>
       </c>
       <c r="B111" s="3">
-        <v>1006479116</v>
+        <v>-1080227996</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3438,19 +3456,19 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>2087578356</v>
+        <v>-1770038881</v>
       </c>
       <c r="B112" s="3">
-        <v>1006479116</v>
+        <v>-1080227996</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>171</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3458,19 +3476,19 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-1682130970</v>
+        <v>-619684109</v>
       </c>
       <c r="B113" s="3">
-        <v>1006479116</v>
+        <v>-1080227996</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>172</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3478,16 +3496,16 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>-1517097132</v>
+        <v>1129969276</v>
       </c>
       <c r="B114" s="3">
-        <v>851451727</v>
+        <v>1006479116</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>174</v>
@@ -3498,16 +3516,16 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>-1065385250</v>
+        <v>2087578356</v>
       </c>
       <c r="B115" s="3">
-        <v>851451727</v>
+        <v>1006479116</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>175</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>174</v>
@@ -3518,16 +3536,16 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>1033151513</v>
+        <v>-1682130970</v>
       </c>
       <c r="B116" s="3">
-        <v>851451727</v>
+        <v>1006479116</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>174</v>
@@ -3538,16 +3556,16 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-2058283314</v>
+        <v>-1517097132</v>
       </c>
       <c r="B117" s="3">
-        <v>303790042</v>
+        <v>851451727</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>177</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>178</v>
@@ -3558,16 +3576,16 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>2029688188</v>
+        <v>-1065385250</v>
       </c>
       <c r="B118" s="3">
-        <v>303790042</v>
+        <v>851451727</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>179</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>178</v>
@@ -3578,16 +3596,16 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>-1469368861</v>
+        <v>1033151513</v>
       </c>
       <c r="B119" s="3">
-        <v>303790042</v>
+        <v>851451727</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>180</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>178</v>
@@ -3598,7 +3616,7 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>-683434627</v>
+        <v>-2058283314</v>
       </c>
       <c r="B120" s="3">
         <v>303790042</v>
@@ -3607,10 +3625,10 @@
         <v>181</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3618,19 +3636,19 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>1967723194</v>
+        <v>2029688188</v>
       </c>
       <c r="B121" s="3">
         <v>303790042</v>
       </c>
       <c r="C121" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3638,19 +3656,19 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>1396964412</v>
+        <v>-1469368861</v>
       </c>
       <c r="B122" s="3">
         <v>303790042</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3658,19 +3676,19 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>1716523581</v>
+        <v>-683434627</v>
       </c>
       <c r="B123" s="3">
         <v>303790042</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3678,19 +3696,19 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>1121214035</v>
+        <v>1967723194</v>
       </c>
       <c r="B124" s="3">
         <v>303790042</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3698,19 +3716,19 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>1691528606</v>
+        <v>1396964412</v>
       </c>
       <c r="B125" s="3">
         <v>303790042</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3718,19 +3736,19 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>-390587125</v>
+        <v>1716523581</v>
       </c>
       <c r="B126" s="3">
         <v>303790042</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3738,19 +3756,19 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>1704422050</v>
+        <v>1121214035</v>
       </c>
       <c r="B127" s="3">
         <v>303790042</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3758,19 +3776,19 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>-1536911730</v>
+        <v>1691528606</v>
       </c>
       <c r="B128" s="3">
         <v>303790042</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3778,19 +3796,19 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>413905320</v>
+        <v>-390587125</v>
       </c>
       <c r="B129" s="3">
         <v>303790042</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3798,19 +3816,19 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-48817825</v>
+        <v>1704422050</v>
       </c>
       <c r="B130" s="3">
         <v>303790042</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3818,19 +3836,19 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>-959482885</v>
+        <v>-1536911730</v>
       </c>
       <c r="B131" s="3">
         <v>303790042</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3838,19 +3856,19 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>2073649712</v>
+        <v>413905320</v>
       </c>
       <c r="B132" s="3">
         <v>303790042</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3858,19 +3876,19 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>1029219947</v>
+        <v>-48817825</v>
       </c>
       <c r="B133" s="3">
         <v>303790042</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3878,19 +3896,19 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-1791028253</v>
+        <v>-959482885</v>
       </c>
       <c r="B134" s="3">
         <v>303790042</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3898,19 +3916,19 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>-278736850</v>
+        <v>2073649712</v>
       </c>
       <c r="B135" s="3">
         <v>303790042</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3918,19 +3936,19 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>64477520</v>
+        <v>1029219947</v>
       </c>
       <c r="B136" s="3">
         <v>303790042</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3938,19 +3956,19 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>1525107119</v>
+        <v>-1791028253</v>
       </c>
       <c r="B137" s="3">
         <v>303790042</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3958,19 +3976,19 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>1894508942</v>
+        <v>-278736850</v>
       </c>
       <c r="B138" s="3">
         <v>303790042</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -3978,19 +3996,19 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>786946575</v>
+        <v>64477520</v>
       </c>
       <c r="B139" s="3">
         <v>303790042</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -3998,19 +4016,19 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>1743712584</v>
+        <v>1525107119</v>
       </c>
       <c r="B140" s="3">
         <v>303790042</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -4018,19 +4036,19 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>-1666523598</v>
+        <v>1894508942</v>
       </c>
       <c r="B141" s="3">
         <v>303790042</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -4038,19 +4056,19 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>-209439764</v>
+        <v>786946575</v>
       </c>
       <c r="B142" s="3">
         <v>303790042</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -4058,19 +4076,19 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>-1975734379</v>
+        <v>1743712584</v>
       </c>
       <c r="B143" s="3">
         <v>303790042</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -4078,19 +4096,19 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>1273481327</v>
+        <v>-1666523598</v>
       </c>
       <c r="B144" s="3">
         <v>303790042</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -4098,19 +4116,19 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>785293368</v>
+        <v>-209439764</v>
       </c>
       <c r="B145" s="3">
         <v>303790042</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4118,19 +4136,19 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-594615111</v>
+        <v>-1975734379</v>
       </c>
       <c r="B146" s="3">
         <v>303790042</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4138,19 +4156,19 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-509427602</v>
+        <v>1273481327</v>
       </c>
       <c r="B147" s="3">
         <v>303790042</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4158,19 +4176,19 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>-522008429</v>
+        <v>785293368</v>
       </c>
       <c r="B148" s="3">
         <v>303790042</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4178,19 +4196,19 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>1223491875</v>
+        <v>-594615111</v>
       </c>
       <c r="B149" s="3">
         <v>303790042</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -4198,19 +4216,19 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>1068025648</v>
+        <v>-509427602</v>
       </c>
       <c r="B150" s="3">
         <v>303790042</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -4218,19 +4236,19 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-1281428191</v>
+        <v>-522008429</v>
       </c>
       <c r="B151" s="3">
         <v>303790042</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -4238,19 +4256,19 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>559760484</v>
+        <v>1223491875</v>
       </c>
       <c r="B152" s="3">
-        <v>779000644</v>
+        <v>303790042</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -4258,19 +4276,19 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>1147450703</v>
+        <v>1068025648</v>
       </c>
       <c r="B153" s="3">
-        <v>779000644</v>
+        <v>303790042</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>215</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -4278,19 +4296,19 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>-555765293</v>
+        <v>-1281428191</v>
       </c>
       <c r="B154" s="3">
-        <v>779000644</v>
+        <v>303790042</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>216</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -4298,7 +4316,7 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>-1008309707</v>
+        <v>559760484</v>
       </c>
       <c r="B155" s="3">
         <v>779000644</v>
@@ -4307,10 +4325,10 @@
         <v>217</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -4318,19 +4336,19 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>1649328148</v>
+        <v>1147450703</v>
       </c>
       <c r="B156" s="3">
         <v>779000644</v>
       </c>
       <c r="C156" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>214</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -4338,19 +4356,19 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>1483365187</v>
+        <v>-555765293</v>
       </c>
       <c r="B157" s="3">
         <v>779000644</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -4358,19 +4376,19 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>488959337</v>
+        <v>-1008309707</v>
       </c>
       <c r="B158" s="3">
-        <v>1205799434</v>
+        <v>779000644</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -4378,19 +4396,19 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>-258823006</v>
+        <v>1649328148</v>
       </c>
       <c r="B159" s="3">
-        <v>1205799434</v>
+        <v>779000644</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>222</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -4398,19 +4416,19 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>-877025943</v>
+        <v>1483365187</v>
       </c>
       <c r="B160" s="3">
-        <v>1205799434</v>
+        <v>779000644</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -4418,7 +4436,7 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>-1928104510</v>
+        <v>488959337</v>
       </c>
       <c r="B161" s="3">
         <v>1205799434</v>
@@ -4427,10 +4445,10 @@
         <v>224</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -4438,19 +4456,19 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>233779722</v>
+        <v>-258823006</v>
       </c>
       <c r="B162" s="3">
         <v>1205799434</v>
       </c>
       <c r="C162" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -4458,19 +4476,19 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>575019724</v>
+        <v>-877025943</v>
       </c>
       <c r="B163" s="3">
         <v>1205799434</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -4478,79 +4496,79 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>-1924748440</v>
+        <v>-1928104510</v>
       </c>
       <c r="B164" s="3">
-        <v>1993197872</v>
+        <v>1205799434</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F164" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>437101228</v>
+        <v>233779722</v>
       </c>
       <c r="B165" s="3">
-        <v>1553275941</v>
+        <v>1205799434</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>229</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F165" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>1925488967</v>
+        <v>575019724</v>
       </c>
       <c r="B166" s="3">
-        <v>417181438</v>
+        <v>1205799434</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F166" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>553737605</v>
+        <v>-1924748440</v>
       </c>
       <c r="B167" s="3">
-        <v>-1422368536</v>
+        <v>1993197872</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F167" s="3">
         <v>15</v>
@@ -4558,39 +4576,39 @@
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>-593267104</v>
+        <v>1203732579</v>
       </c>
       <c r="B168" s="3">
-        <v>-41951286</v>
+        <v>1753185237</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="F168" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>1130140136</v>
+        <v>-693953037</v>
       </c>
       <c r="B169" s="3">
-        <v>498502262</v>
+        <v>1753185237</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="F169" s="3">
         <v>15</v>
@@ -4598,81 +4616,181 @@
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>-1382448832</v>
+        <v>437101228</v>
       </c>
       <c r="B170" s="3">
-        <v>2118059982</v>
+        <v>1553275941</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F170" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>139913362</v>
+        <v>1925488967</v>
       </c>
       <c r="B171" s="3">
-        <v>2118059982</v>
+        <v>417181438</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>238</v>
       </c>
       <c r="F171" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3">
-        <v>-901086922</v>
+        <v>553737605</v>
       </c>
       <c r="B172" s="3">
-        <v>2118059982</v>
+        <v>-1422368536</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="F172" s="3">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3">
-        <v>2125618822</v>
+        <v>-593267104</v>
       </c>
       <c r="B173" s="3">
-        <v>-1278219496</v>
+        <v>-41951286</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>241</v>
       </c>
       <c r="D173" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F173" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="3">
+        <v>1130140136</v>
+      </c>
+      <c r="B174" s="3">
+        <v>498502262</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F174" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="3">
+        <v>-1382448832</v>
+      </c>
+      <c r="B175" s="3">
+        <v>2118059982</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F173" s="3">
+      <c r="E175" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F175" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="3">
+        <v>139913362</v>
+      </c>
+      <c r="B176" s="3">
+        <v>2118059982</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F176" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="3">
+        <v>-901086922</v>
+      </c>
+      <c r="B177" s="3">
+        <v>2118059982</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F177" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="3">
+        <v>2125618822</v>
+      </c>
+      <c r="B178" s="3">
+        <v>-1278219496</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F178" s="3">
         <v>26</v>
       </c>
     </row>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>fileId</t>
   </si>
@@ -95,12 +95,15 @@
     <t>.txt</t>
   </si>
   <si>
-    <t/>
+    <t>o__1952074993</t>
   </si>
   <si>
     <t>UIWindowPrefab</t>
   </si>
   <si>
+    <t>o_1898019154</t>
+  </si>
+  <si>
     <t>xLuaScript.lua</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
     <t>ExampleCinemachine</t>
   </si>
   <si>
+    <t>s_161994958</t>
+  </si>
+  <si>
     <t>ExampleEntityComponentSystem</t>
   </si>
   <si>
@@ -740,6 +746,9 @@
     <t>.playable</t>
   </si>
   <si>
+    <t>s_161994958_refdep</t>
+  </si>
+  <si>
     <t>ExampleGuideWindow</t>
   </si>
   <si>
@@ -749,19 +758,22 @@
     <t>ExampleHeroListWindow</t>
   </si>
   <si>
+    <t>o__1429899321</t>
+  </si>
+  <si>
+    <t>ExampleLobbyWindow</t>
+  </si>
+  <si>
+    <t>o__565934673</t>
+  </si>
+  <si>
+    <t>ExampleMessageBoxWindow</t>
+  </si>
+  <si>
+    <t>ExamplePlayerListWindow</t>
+  </si>
+  <si>
     <t>s__48687258_refdep</t>
-  </si>
-  <si>
-    <t>ExampleLobbyWindow</t>
-  </si>
-  <si>
-    <t>o__565934673</t>
-  </si>
-  <si>
-    <t>ExampleMessageBoxWindow</t>
-  </si>
-  <si>
-    <t>ExamplePlayerListWindow</t>
   </si>
   <si>
     <t>ExampleTestXLuaLevelCube.lua</t>
@@ -1348,7 +1360,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3">
         <v>26</v>
@@ -1362,13 +1374,13 @@
         <v>-764457537</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3">
         <v>26</v>
@@ -1382,13 +1394,13 @@
         <v>703074975</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -1402,13 +1414,13 @@
         <v>-2004506147</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
         <v>15</v>
@@ -1422,13 +1434,13 @@
         <v>1536776472</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3">
         <v>15</v>
@@ -1442,13 +1454,13 @@
         <v>1536776472</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3">
         <v>15</v>
@@ -1462,13 +1474,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3">
         <v>15</v>
@@ -1482,13 +1494,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3">
         <v>15</v>
@@ -1502,13 +1514,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="3">
         <v>15</v>
@@ -1522,13 +1534,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3">
         <v>15</v>
@@ -1542,13 +1554,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3">
         <v>15</v>
@@ -1562,13 +1574,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="3">
         <v>15</v>
@@ -1582,13 +1594,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3">
         <v>15</v>
@@ -1602,13 +1614,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" s="3">
         <v>15</v>
@@ -1622,13 +1634,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="3">
         <v>15</v>
@@ -1642,13 +1654,13 @@
         <v>-1919546133</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" s="3">
         <v>15</v>
@@ -1662,13 +1674,13 @@
         <v>1325637814</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="3">
         <v>23</v>
@@ -1682,13 +1694,13 @@
         <v>1325637814</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3">
         <v>23</v>
@@ -1702,13 +1714,13 @@
         <v>1325637814</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F24" s="3">
         <v>23</v>
@@ -1722,13 +1734,13 @@
         <v>1325637814</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F25" s="3">
         <v>23</v>
@@ -1742,13 +1754,13 @@
         <v>1325637814</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" s="3">
         <v>23</v>
@@ -1762,13 +1774,13 @@
         <v>1325637814</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F27" s="3">
         <v>23</v>
@@ -1782,13 +1794,13 @@
         <v>1325637814</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" s="3">
         <v>23</v>
@@ -1802,13 +1814,13 @@
         <v>1325637814</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="3">
         <v>23</v>
@@ -1822,13 +1834,13 @@
         <v>1325637814</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="3">
         <v>23</v>
@@ -1842,13 +1854,13 @@
         <v>1325637814</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="3">
         <v>23</v>
@@ -1862,13 +1874,13 @@
         <v>1325637814</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="3">
         <v>23</v>
@@ -1882,13 +1894,13 @@
         <v>1325637814</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" s="3">
         <v>23</v>
@@ -1902,13 +1914,13 @@
         <v>1325637814</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F34" s="3">
         <v>23</v>
@@ -1922,13 +1934,13 @@
         <v>-1405308702</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1942,13 +1954,13 @@
         <v>-1405308702</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="3">
         <v>0</v>
@@ -1962,13 +1974,13 @@
         <v>-1405308702</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
@@ -1982,13 +1994,13 @@
         <v>-1405308702</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -2002,13 +2014,13 @@
         <v>-1408754900</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
@@ -2022,13 +2034,13 @@
         <v>1311652878</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -2042,13 +2054,13 @@
         <v>853849619</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2062,13 +2074,13 @@
         <v>1498651392</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2082,13 +2094,13 @@
         <v>1498651392</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2102,13 +2114,13 @@
         <v>1498651392</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
@@ -2122,13 +2134,13 @@
         <v>1498651392</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2142,13 +2154,13 @@
         <v>1498651392</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -2162,13 +2174,13 @@
         <v>1498651392</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -2182,13 +2194,13 @@
         <v>1498651392</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2202,13 +2214,13 @@
         <v>1498651392</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F49" s="3">
         <v>0</v>
@@ -2222,13 +2234,13 @@
         <v>1498651392</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F50" s="3">
         <v>0</v>
@@ -2242,13 +2254,13 @@
         <v>1498651392</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F51" s="3">
         <v>0</v>
@@ -2262,13 +2274,13 @@
         <v>1498651392</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -2282,13 +2294,13 @@
         <v>1498651392</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F53" s="3">
         <v>0</v>
@@ -2302,13 +2314,13 @@
         <v>1498651392</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -2322,13 +2334,13 @@
         <v>1498651392</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
@@ -2342,13 +2354,13 @@
         <v>1498651392</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
@@ -2362,13 +2374,13 @@
         <v>1498651392</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2382,13 +2394,13 @@
         <v>1498651392</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2402,13 +2414,13 @@
         <v>1498651392</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2422,13 +2434,13 @@
         <v>1498651392</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2442,13 +2454,13 @@
         <v>1498651392</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2462,13 +2474,13 @@
         <v>1498651392</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -2482,13 +2494,13 @@
         <v>1498651392</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F63" s="3">
         <v>0</v>
@@ -2502,13 +2514,13 @@
         <v>1498651392</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F64" s="3">
         <v>0</v>
@@ -2522,13 +2534,13 @@
         <v>1498651392</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
@@ -2542,13 +2554,13 @@
         <v>1498651392</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2562,13 +2574,13 @@
         <v>1498651392</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F67" s="3">
         <v>0</v>
@@ -2582,13 +2594,13 @@
         <v>1498651392</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F68" s="3">
         <v>0</v>
@@ -2602,13 +2614,13 @@
         <v>1498651392</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F69" s="3">
         <v>0</v>
@@ -2622,13 +2634,13 @@
         <v>1498651392</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2642,13 +2654,13 @@
         <v>1498651392</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
@@ -2662,13 +2674,13 @@
         <v>1498651392</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F72" s="3">
         <v>0</v>
@@ -2682,13 +2694,13 @@
         <v>1498651392</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F73" s="3">
         <v>0</v>
@@ -2702,13 +2714,13 @@
         <v>1498651392</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F74" s="3">
         <v>0</v>
@@ -2722,13 +2734,13 @@
         <v>-143016780</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F75" s="3">
         <v>0</v>
@@ -2742,13 +2754,13 @@
         <v>-143016780</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -2762,13 +2774,13 @@
         <v>-143016780</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="F77" s="3">
         <v>0</v>
@@ -2782,13 +2794,13 @@
         <v>697093135</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F78" s="3">
         <v>0</v>
@@ -2802,13 +2814,13 @@
         <v>697093135</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F79" s="3">
         <v>0</v>
@@ -2822,13 +2834,13 @@
         <v>697093135</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="F80" s="3">
         <v>0</v>
@@ -2842,13 +2854,13 @@
         <v>697093135</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -2862,13 +2874,13 @@
         <v>697093135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F82" s="3">
         <v>0</v>
@@ -2882,13 +2894,13 @@
         <v>697093135</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -2902,13 +2914,13 @@
         <v>697093135</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F84" s="3">
         <v>0</v>
@@ -2922,13 +2934,13 @@
         <v>697093135</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F85" s="3">
         <v>0</v>
@@ -2942,13 +2954,13 @@
         <v>697093135</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F86" s="3">
         <v>0</v>
@@ -2962,13 +2974,13 @@
         <v>697093135</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F87" s="3">
         <v>0</v>
@@ -2982,13 +2994,13 @@
         <v>697093135</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F88" s="3">
         <v>0</v>
@@ -3002,13 +3014,13 @@
         <v>697093135</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -3022,13 +3034,13 @@
         <v>697093135</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F90" s="3">
         <v>0</v>
@@ -3042,13 +3054,13 @@
         <v>-1099268540</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -3062,13 +3074,13 @@
         <v>-1099268540</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F92" s="3">
         <v>0</v>
@@ -3082,13 +3094,13 @@
         <v>-1099268540</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="F93" s="3">
         <v>0</v>
@@ -3102,13 +3114,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -3122,13 +3134,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F95" s="3">
         <v>0</v>
@@ -3142,13 +3154,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C96" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E96" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3162,13 +3174,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F97" s="3">
         <v>0</v>
@@ -3182,13 +3194,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F98" s="3">
         <v>0</v>
@@ -3202,13 +3214,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F99" s="3">
         <v>0</v>
@@ -3222,13 +3234,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -3242,13 +3254,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3262,13 +3274,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -3282,13 +3294,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F103" s="3">
         <v>0</v>
@@ -3302,13 +3314,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F104" s="3">
         <v>0</v>
@@ -3322,13 +3334,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F105" s="3">
         <v>0</v>
@@ -3342,13 +3354,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F106" s="3">
         <v>0</v>
@@ -3362,13 +3374,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F107" s="3">
         <v>0</v>
@@ -3382,13 +3394,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F108" s="3">
         <v>0</v>
@@ -3402,13 +3414,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F109" s="3">
         <v>0</v>
@@ -3422,13 +3434,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F110" s="3">
         <v>0</v>
@@ -3442,13 +3454,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F111" s="3">
         <v>0</v>
@@ -3462,13 +3474,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F112" s="3">
         <v>0</v>
@@ -3482,13 +3494,13 @@
         <v>-1080227996</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F113" s="3">
         <v>0</v>
@@ -3502,13 +3514,13 @@
         <v>1006479116</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F114" s="3">
         <v>0</v>
@@ -3522,13 +3534,13 @@
         <v>1006479116</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F115" s="3">
         <v>0</v>
@@ -3542,13 +3554,13 @@
         <v>1006479116</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="F116" s="3">
         <v>0</v>
@@ -3562,13 +3574,13 @@
         <v>851451727</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F117" s="3">
         <v>0</v>
@@ -3582,13 +3594,13 @@
         <v>851451727</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F118" s="3">
         <v>0</v>
@@ -3602,13 +3614,13 @@
         <v>851451727</v>
       </c>
       <c r="C119" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="F119" s="3">
         <v>0</v>
@@ -3622,13 +3634,13 @@
         <v>303790042</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F120" s="3">
         <v>0</v>
@@ -3642,13 +3654,13 @@
         <v>303790042</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F121" s="3">
         <v>0</v>
@@ -3662,13 +3674,13 @@
         <v>303790042</v>
       </c>
       <c r="C122" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="F122" s="3">
         <v>0</v>
@@ -3682,13 +3694,13 @@
         <v>303790042</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F123" s="3">
         <v>0</v>
@@ -3702,13 +3714,13 @@
         <v>303790042</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F124" s="3">
         <v>0</v>
@@ -3722,13 +3734,13 @@
         <v>303790042</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F125" s="3">
         <v>0</v>
@@ -3742,13 +3754,13 @@
         <v>303790042</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F126" s="3">
         <v>0</v>
@@ -3762,13 +3774,13 @@
         <v>303790042</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F127" s="3">
         <v>0</v>
@@ -3782,13 +3794,13 @@
         <v>303790042</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F128" s="3">
         <v>0</v>
@@ -3802,13 +3814,13 @@
         <v>303790042</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F129" s="3">
         <v>0</v>
@@ -3822,13 +3834,13 @@
         <v>303790042</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F130" s="3">
         <v>0</v>
@@ -3842,13 +3854,13 @@
         <v>303790042</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F131" s="3">
         <v>0</v>
@@ -3862,13 +3874,13 @@
         <v>303790042</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F132" s="3">
         <v>0</v>
@@ -3882,13 +3894,13 @@
         <v>303790042</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F133" s="3">
         <v>0</v>
@@ -3902,13 +3914,13 @@
         <v>303790042</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F134" s="3">
         <v>0</v>
@@ -3922,13 +3934,13 @@
         <v>303790042</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F135" s="3">
         <v>0</v>
@@ -3942,13 +3954,13 @@
         <v>303790042</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F136" s="3">
         <v>0</v>
@@ -3962,13 +3974,13 @@
         <v>303790042</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F137" s="3">
         <v>0</v>
@@ -3982,13 +3994,13 @@
         <v>303790042</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F138" s="3">
         <v>0</v>
@@ -4002,13 +4014,13 @@
         <v>303790042</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F139" s="3">
         <v>0</v>
@@ -4022,13 +4034,13 @@
         <v>303790042</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F140" s="3">
         <v>0</v>
@@ -4042,13 +4054,13 @@
         <v>303790042</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F141" s="3">
         <v>0</v>
@@ -4062,13 +4074,13 @@
         <v>303790042</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F142" s="3">
         <v>0</v>
@@ -4082,13 +4094,13 @@
         <v>303790042</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F143" s="3">
         <v>0</v>
@@ -4102,13 +4114,13 @@
         <v>303790042</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F144" s="3">
         <v>0</v>
@@ -4122,13 +4134,13 @@
         <v>303790042</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F145" s="3">
         <v>0</v>
@@ -4142,13 +4154,13 @@
         <v>303790042</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F146" s="3">
         <v>0</v>
@@ -4162,13 +4174,13 @@
         <v>303790042</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F147" s="3">
         <v>0</v>
@@ -4182,13 +4194,13 @@
         <v>303790042</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F148" s="3">
         <v>0</v>
@@ -4202,13 +4214,13 @@
         <v>303790042</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F149" s="3">
         <v>0</v>
@@ -4222,13 +4234,13 @@
         <v>303790042</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F150" s="3">
         <v>0</v>
@@ -4242,13 +4254,13 @@
         <v>303790042</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F151" s="3">
         <v>0</v>
@@ -4262,13 +4274,13 @@
         <v>303790042</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F152" s="3">
         <v>0</v>
@@ -4282,13 +4294,13 @@
         <v>303790042</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F153" s="3">
         <v>0</v>
@@ -4302,13 +4314,13 @@
         <v>303790042</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F154" s="3">
         <v>0</v>
@@ -4322,13 +4334,13 @@
         <v>779000644</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F155" s="3">
         <v>0</v>
@@ -4342,13 +4354,13 @@
         <v>779000644</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F156" s="3">
         <v>0</v>
@@ -4362,13 +4374,13 @@
         <v>779000644</v>
       </c>
       <c r="C157" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="F157" s="3">
         <v>0</v>
@@ -4382,13 +4394,13 @@
         <v>779000644</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F158" s="3">
         <v>0</v>
@@ -4402,13 +4414,13 @@
         <v>779000644</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F159" s="3">
         <v>0</v>
@@ -4422,13 +4434,13 @@
         <v>779000644</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F160" s="3">
         <v>0</v>
@@ -4442,13 +4454,13 @@
         <v>1205799434</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F161" s="3">
         <v>0</v>
@@ -4462,13 +4474,13 @@
         <v>1205799434</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F162" s="3">
         <v>0</v>
@@ -4482,13 +4494,13 @@
         <v>1205799434</v>
       </c>
       <c r="C163" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="F163" s="3">
         <v>0</v>
@@ -4502,13 +4514,13 @@
         <v>1205799434</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F164" s="3">
         <v>0</v>
@@ -4522,13 +4534,13 @@
         <v>1205799434</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F165" s="3">
         <v>0</v>
@@ -4542,13 +4554,13 @@
         <v>1205799434</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F166" s="3">
         <v>0</v>
@@ -4562,13 +4574,13 @@
         <v>1993197872</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F167" s="3">
         <v>15</v>
@@ -4582,13 +4594,13 @@
         <v>1753185237</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="F168" s="3">
         <v>0</v>
@@ -4602,13 +4614,13 @@
         <v>1753185237</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="F169" s="3">
         <v>15</v>
@@ -4622,13 +4634,13 @@
         <v>1553275941</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F170" s="3">
         <v>15</v>
@@ -4642,13 +4654,13 @@
         <v>417181438</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F171" s="3">
         <v>15</v>
@@ -4662,13 +4674,13 @@
         <v>-1422368536</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F172" s="3">
         <v>15</v>
@@ -4682,13 +4694,13 @@
         <v>-41951286</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F173" s="3">
         <v>15</v>
@@ -4702,13 +4714,13 @@
         <v>498502262</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F174" s="3">
         <v>15</v>
@@ -4722,13 +4734,13 @@
         <v>2118059982</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F175" s="3">
         <v>26</v>
@@ -4742,13 +4754,13 @@
         <v>2118059982</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F176" s="3">
         <v>26</v>
@@ -4762,13 +4774,13 @@
         <v>2118059982</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F177" s="3">
         <v>26</v>
@@ -4782,13 +4794,13 @@
         <v>-1278219496</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F178" s="3">
         <v>26</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -86,7 +86,7 @@
     <t>.mat</t>
   </si>
   <si>
-    <t>o_804079274</t>
+    <t>o_1557600669</t>
   </si>
   <si>
     <t>SpriteAtlas</t>
@@ -95,19 +95,19 @@
     <t>.txt</t>
   </si>
   <si>
-    <t>o__1952074993</t>
+    <t>o__487052643</t>
   </si>
   <si>
     <t>UIWindowPrefab</t>
   </si>
   <si>
-    <t>o_1898019154</t>
+    <t>o__1273144601</t>
   </si>
   <si>
     <t>xLuaScript.lua</t>
   </si>
   <si>
-    <t>x_726493122</t>
+    <t>x_1789163768</t>
   </si>
   <si>
     <t>FZY4JW_0</t>
@@ -116,7 +116,7 @@
     <t>.TTF</t>
   </si>
   <si>
-    <t>o_1740741083</t>
+    <t>o__851409602</t>
   </si>
   <si>
     <t>pf_hero_1002</t>
@@ -125,79 +125,79 @@
     <t>.prefab</t>
   </si>
   <si>
-    <t>s_2102381656_refdep</t>
+    <t>s_1630584336_refdep</t>
   </si>
   <si>
     <t>SpriteA</t>
   </si>
   <si>
-    <t>o_728513591</t>
+    <t>o_769480931</t>
   </si>
   <si>
     <t>SpriteB</t>
   </si>
   <si>
-    <t>o_1449048355</t>
+    <t>o__1680016180</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_01</t>
   </si>
   <si>
-    <t>o_772797634</t>
+    <t>o__815060178</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_02</t>
   </si>
   <si>
-    <t>o__1580348835</t>
+    <t>o_1186309812</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_03</t>
   </si>
   <si>
-    <t>o_916662210</t>
+    <t>o__2129840880</t>
   </si>
   <si>
     <t>fx_hero_1002_die</t>
   </si>
   <si>
-    <t>o_1417665199</t>
+    <t>o__1055532947</t>
   </si>
   <si>
     <t>fx_hero_1002_Hit_a</t>
   </si>
   <si>
-    <t>o_987507523</t>
+    <t>o__1968842531</t>
   </si>
   <si>
     <t>fx_hero_1002_Hit_b</t>
   </si>
   <si>
-    <t>o_372291149</t>
+    <t>o_1898973298</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_01</t>
   </si>
   <si>
-    <t>o_836104149</t>
+    <t>o_1876408514</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_02_a</t>
   </si>
   <si>
-    <t>o_997145031</t>
+    <t>o_189095614</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_02_b</t>
   </si>
   <si>
-    <t>o__1881727088</t>
+    <t>o_1474660100</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_03</t>
   </si>
   <si>
-    <t>o_2010935313</t>
+    <t>o_213460941</t>
   </si>
   <si>
     <t>Examplebx_map_pve_1</t>
@@ -206,79 +206,79 @@
     <t>.unity</t>
   </si>
   <si>
-    <t>s_1998193365</t>
+    <t>s_1416246430</t>
   </si>
   <si>
     <t>ExampleCinemachine</t>
   </si>
   <si>
-    <t>s_161994958</t>
+    <t>s_50934161</t>
   </si>
   <si>
     <t>ExampleEntityComponentSystem</t>
   </si>
   <si>
-    <t>s_2102381656</t>
+    <t>s_1630584336</t>
   </si>
   <si>
     <t>ExampleEventHandler</t>
   </si>
   <si>
-    <t>s_3404451</t>
+    <t>s__1165951341</t>
   </si>
   <si>
     <t>ExampleFMS</t>
   </si>
   <si>
-    <t>s_857707986</t>
+    <t>s__1291966950</t>
   </si>
   <si>
     <t>ExampleGuide</t>
   </si>
   <si>
-    <t>s__2009239190</t>
+    <t>s_443074821</t>
   </si>
   <si>
     <t>ExampleProject</t>
   </si>
   <si>
-    <t>s__1574957563</t>
+    <t>s__1850591926</t>
   </si>
   <si>
     <t>ExampleSkill</t>
   </si>
   <si>
-    <t>s_1062889003</t>
+    <t>s__153728417</t>
   </si>
   <si>
     <t>ExampleSQLite</t>
   </si>
   <si>
-    <t>s_1626608088</t>
+    <t>s_1722673274</t>
   </si>
   <si>
     <t>ExampleTerrain</t>
   </si>
   <si>
-    <t>s__1407783059</t>
+    <t>s_1284747532</t>
   </si>
   <si>
     <t>ExampleUIWindow</t>
   </si>
   <si>
-    <t>s__48687258</t>
+    <t>s_686100155</t>
   </si>
   <si>
     <t>ExampleXLS</t>
   </si>
   <si>
-    <t>s__1088948561</t>
+    <t>s__649420598</t>
   </si>
   <si>
     <t>ExampleXLua</t>
   </si>
   <si>
-    <t>s__1355360791</t>
+    <t>s_1564539527</t>
   </si>
   <si>
     <t>chgPowerCircle1</t>
@@ -287,31 +287,31 @@
     <t>.png</t>
   </si>
   <si>
-    <t>o_1735064929</t>
+    <t>o__969753135</t>
   </si>
   <si>
     <t>chgPowerCircle2</t>
   </si>
   <si>
-    <t>o_312776746</t>
+    <t>o__1209496598</t>
   </si>
   <si>
     <t>chgPowerCircle3</t>
   </si>
   <si>
-    <t>o_1653263674</t>
+    <t>o_1151283403</t>
   </si>
   <si>
     <t>effect_hero_foot</t>
   </si>
   <si>
-    <t>o_283329097</t>
+    <t>o_679522626</t>
   </si>
   <si>
     <t>ugui_loading</t>
   </si>
   <si>
-    <t>o__1336611924</t>
+    <t>o__305476886</t>
   </si>
   <si>
     <t>LobbyBackground</t>
@@ -320,19 +320,19 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>o__1697330953</t>
+    <t>o__119362433</t>
   </si>
   <si>
     <t>ugui_login</t>
   </si>
   <si>
-    <t>o_1351797518</t>
+    <t>o_745555661</t>
   </si>
   <si>
     <t>battle_camp_blue</t>
   </si>
   <si>
-    <t>sp__1643345598</t>
+    <t>sp_2133995742</t>
   </si>
   <si>
     <t>battle_camp_purple</t>
@@ -434,7 +434,7 @@
     <t>SkillShape_Circle</t>
   </si>
   <si>
-    <t>sp_2144060812</t>
+    <t>sp__1403779810</t>
   </si>
   <si>
     <t>SkillShape_Line</t>
@@ -446,7 +446,7 @@
     <t>hero_show_attack</t>
   </si>
   <si>
-    <t>sp_1103995528</t>
+    <t>sp_1310775785</t>
   </si>
   <si>
     <t>hero_show_back</t>
@@ -488,7 +488,7 @@
     <t>loading_item</t>
   </si>
   <si>
-    <t>sp_371046582</t>
+    <t>sp_1421592450</t>
   </si>
   <si>
     <t>loading_other</t>
@@ -500,7 +500,7 @@
     <t>lobby_achieve</t>
   </si>
   <si>
-    <t>sp_493391422</t>
+    <t>sp_2053582174</t>
   </si>
   <si>
     <t>lobby_activity</t>
@@ -563,7 +563,7 @@
     <t>login_btn_login</t>
   </si>
   <si>
-    <t>sp_83733784</t>
+    <t>sp__2093171997</t>
   </si>
   <si>
     <t>login_dian</t>
@@ -575,7 +575,7 @@
     <t>match_job</t>
   </si>
   <si>
-    <t>sp_438571766</t>
+    <t>sp_1283515754</t>
   </si>
   <si>
     <t>match_player</t>
@@ -587,7 +587,7 @@
     <t>share_add</t>
   </si>
   <si>
-    <t>sp_1960007041</t>
+    <t>sp_1367851697</t>
   </si>
   <si>
     <t>share_bg</t>
@@ -695,7 +695,7 @@
     <t>shop_item_bg</t>
   </si>
   <si>
-    <t>sp_758489486</t>
+    <t>sp_385676412</t>
   </si>
   <si>
     <t>shop_other1</t>
@@ -716,7 +716,7 @@
     <t>Skill100204</t>
   </si>
   <si>
-    <t>sp_267983427</t>
+    <t>sp_1407422847</t>
   </si>
   <si>
     <t>Skill100205</t>
@@ -737,7 +737,7 @@
     <t>Terrain</t>
   </si>
   <si>
-    <t>o_1026750565</t>
+    <t>o__152814526</t>
   </si>
   <si>
     <t>ExampleCinemachine_DollyCartTimeline</t>
@@ -746,25 +746,25 @@
     <t>.playable</t>
   </si>
   <si>
-    <t>s_161994958_refdep</t>
+    <t>s_50934161_refdep</t>
   </si>
   <si>
     <t>ExampleGuideWindow</t>
   </si>
   <si>
-    <t>o_1346986897</t>
+    <t>o_563363050</t>
   </si>
   <si>
     <t>ExampleHeroListWindow</t>
   </si>
   <si>
-    <t>o__1429899321</t>
+    <t>o__1189007705</t>
   </si>
   <si>
     <t>ExampleLobbyWindow</t>
   </si>
   <si>
-    <t>o__565934673</t>
+    <t>o_1317630960</t>
   </si>
   <si>
     <t>ExampleMessageBoxWindow</t>
@@ -773,13 +773,13 @@
     <t>ExamplePlayerListWindow</t>
   </si>
   <si>
-    <t>s__48687258_refdep</t>
+    <t>s_686100155_refdep</t>
   </si>
   <si>
     <t>ExampleTestXLuaLevelCube.lua</t>
   </si>
   <si>
-    <t>x_356206060</t>
+    <t>x_1146042984</t>
   </si>
   <si>
     <t>ExampleXLuaLevel.lua</t>
@@ -791,7 +791,7 @@
     <t>ExampleHeroListWindow.lua</t>
   </si>
   <si>
-    <t>x_1452682579</t>
+    <t>x_1961806792</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>1030043145</v>
+        <v>-902006492</v>
       </c>
       <c r="B4" s="3">
-        <v>2130076485</v>
+        <v>911802018</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>-1047153048</v>
+        <v>709769753</v>
       </c>
       <c r="B5" s="3">
-        <v>1148303718</v>
+        <v>-869938189</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>357213519</v>
+        <v>323168436</v>
       </c>
       <c r="B6" s="3">
-        <v>798963579</v>
+        <v>-1829266007</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>-1314513662</v>
+        <v>2059770990</v>
       </c>
       <c r="B7" s="3">
-        <v>-764457537</v>
+        <v>-1872478931</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-671828977</v>
+        <v>-978356814</v>
       </c>
       <c r="B8" s="3">
-        <v>703074975</v>
+        <v>-2129202802</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-1822338762</v>
+        <v>-1875108754</v>
       </c>
       <c r="B9" s="3">
-        <v>-2004506147</v>
+        <v>-528577065</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>2069627225</v>
+        <v>1582715575</v>
       </c>
       <c r="B10" s="3">
-        <v>1536776472</v>
+        <v>-1480342890</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>31</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>-639390330</v>
+        <v>323954736</v>
       </c>
       <c r="B11" s="3">
-        <v>1536776472</v>
+        <v>-1480342890</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>-247032076</v>
+        <v>162995447</v>
       </c>
       <c r="B12" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>-914683150</v>
+        <v>2127699127</v>
       </c>
       <c r="B13" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>37</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>1469057108</v>
+        <v>-1642134296</v>
       </c>
       <c r="B14" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>563263933</v>
+        <v>-1642924925</v>
       </c>
       <c r="B15" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>41</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-1640052790</v>
+        <v>-1745397349</v>
       </c>
       <c r="B16" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>334986352</v>
+        <v>1152017315</v>
       </c>
       <c r="B17" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>45</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>1656382229</v>
+        <v>1052684117</v>
       </c>
       <c r="B18" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>47</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>1191492675</v>
+        <v>-1174249820</v>
       </c>
       <c r="B19" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>49</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>2125675024</v>
+        <v>-1358424926</v>
       </c>
       <c r="B20" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>51</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>-1961533316</v>
+        <v>168561493</v>
       </c>
       <c r="B21" s="3">
-        <v>-1919546133</v>
+        <v>-1403317264</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>53</v>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-1860432654</v>
+        <v>-302691525</v>
       </c>
       <c r="B22" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>55</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>-935725446</v>
+        <v>451131340</v>
       </c>
       <c r="B23" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>58</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>1652309691</v>
+        <v>435454083</v>
       </c>
       <c r="B24" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>60</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>1305370276</v>
+        <v>371670108</v>
       </c>
       <c r="B25" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>62</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1784042025</v>
+        <v>1902359108</v>
       </c>
       <c r="B26" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>64</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>-692579849</v>
+        <v>340213265</v>
       </c>
       <c r="B27" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>1479034210</v>
+        <v>-577212482</v>
       </c>
       <c r="B28" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-1608441305</v>
+        <v>-762567759</v>
       </c>
       <c r="B29" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>70</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>2073847480</v>
+        <v>923058600</v>
       </c>
       <c r="B30" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>72</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>1229683040</v>
+        <v>-1015004762</v>
       </c>
       <c r="B31" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>74</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>1889580147</v>
+        <v>-1201119041</v>
       </c>
       <c r="B32" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>76</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>698208992</v>
+        <v>1553652121</v>
       </c>
       <c r="B33" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>78</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>1741707445</v>
+        <v>-532736098</v>
       </c>
       <c r="B34" s="3">
-        <v>1325637814</v>
+        <v>2045359390</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>80</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>1334679678</v>
+        <v>109872098</v>
       </c>
       <c r="B35" s="3">
-        <v>-1405308702</v>
+        <v>-1137916888</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>82</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>203780964</v>
+        <v>-1687673674</v>
       </c>
       <c r="B36" s="3">
-        <v>-1405308702</v>
+        <v>-1137916888</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>85</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>904144584</v>
+        <v>-1785129806</v>
       </c>
       <c r="B37" s="3">
-        <v>-1405308702</v>
+        <v>-1137916888</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>87</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>-1147649747</v>
+        <v>-920458835</v>
       </c>
       <c r="B38" s="3">
-        <v>-1405308702</v>
+        <v>-1137916888</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>89</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>1649820611</v>
+        <v>-40051401</v>
       </c>
       <c r="B39" s="3">
-        <v>-1408754900</v>
+        <v>-1180586041</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>91</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>1784757519</v>
+        <v>845111156</v>
       </c>
       <c r="B40" s="3">
-        <v>1311652878</v>
+        <v>-508042415</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>93</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>41156671</v>
+        <v>-164331629</v>
       </c>
       <c r="B41" s="3">
-        <v>853849619</v>
+        <v>-487912482</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>96</v>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>433278951</v>
+        <v>-1540941336</v>
       </c>
       <c r="B42" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>98</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>1887145564</v>
+        <v>1117881050</v>
       </c>
       <c r="B43" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>100</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>797307857</v>
+        <v>667828386</v>
       </c>
       <c r="B44" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>101</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>-337981905</v>
+        <v>126720779</v>
       </c>
       <c r="B45" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>102</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>153670792</v>
+        <v>-400206033</v>
       </c>
       <c r="B46" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>103</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-1564951367</v>
+        <v>-1832565251</v>
       </c>
       <c r="B47" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>104</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>-59478781</v>
+        <v>1203610682</v>
       </c>
       <c r="B48" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>105</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>-171116364</v>
+        <v>1155641112</v>
       </c>
       <c r="B49" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>106</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>1358693645</v>
+        <v>-1194401921</v>
       </c>
       <c r="B50" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>107</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>-789027443</v>
+        <v>537945557</v>
       </c>
       <c r="B51" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>108</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>-521246146</v>
+        <v>5210269</v>
       </c>
       <c r="B52" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>109</v>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>-866621371</v>
+        <v>772840734</v>
       </c>
       <c r="B53" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>110</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>-1202190585</v>
+        <v>632497572</v>
       </c>
       <c r="B54" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>111</v>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-697777798</v>
+        <v>-514822557</v>
       </c>
       <c r="B55" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>112</v>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>-822758644</v>
+        <v>1768424156</v>
       </c>
       <c r="B56" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>113</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>-683937367</v>
+        <v>890077213</v>
       </c>
       <c r="B57" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>114</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>1656373698</v>
+        <v>1726725146</v>
       </c>
       <c r="B58" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>115</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>-1576961177</v>
+        <v>-1739134230</v>
       </c>
       <c r="B59" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>116</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>1210637086</v>
+        <v>-699668111</v>
       </c>
       <c r="B60" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>117</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>1015097087</v>
+        <v>-537669156</v>
       </c>
       <c r="B61" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>118</v>
@@ -2468,10 +2468,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>-1179819934</v>
+        <v>810567011</v>
       </c>
       <c r="B62" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>119</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>887404725</v>
+        <v>451919957</v>
       </c>
       <c r="B63" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>120</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>1668790150</v>
+        <v>-629311903</v>
       </c>
       <c r="B64" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>121</v>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>2000159984</v>
+        <v>-7302606</v>
       </c>
       <c r="B65" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>122</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>-828125338</v>
+        <v>392259139</v>
       </c>
       <c r="B66" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>123</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-2000734508</v>
+        <v>-1298237969</v>
       </c>
       <c r="B67" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>124</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>-2120242522</v>
+        <v>2064412873</v>
       </c>
       <c r="B68" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>125</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>801904891</v>
+        <v>301836463</v>
       </c>
       <c r="B69" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>126</v>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>-1470467503</v>
+        <v>371449644</v>
       </c>
       <c r="B70" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>127</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>337104583</v>
+        <v>-1061880150</v>
       </c>
       <c r="B71" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>128</v>
@@ -2668,10 +2668,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>2090923639</v>
+        <v>-20694808</v>
       </c>
       <c r="B72" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>129</v>
@@ -2688,10 +2688,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>-963389618</v>
+        <v>1810830109</v>
       </c>
       <c r="B73" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>130</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>-873179829</v>
+        <v>1231400967</v>
       </c>
       <c r="B74" s="3">
-        <v>1498651392</v>
+        <v>-810737161</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>131</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>-116491982</v>
+        <v>1175995162</v>
       </c>
       <c r="B75" s="3">
-        <v>-143016780</v>
+        <v>-2026926156</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>132</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-1735360998</v>
+        <v>-1446297861</v>
       </c>
       <c r="B76" s="3">
-        <v>-143016780</v>
+        <v>-2026926156</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>134</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>1223135529</v>
+        <v>1257693154</v>
       </c>
       <c r="B77" s="3">
-        <v>-143016780</v>
+        <v>-2026926156</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>135</v>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-2078450133</v>
+        <v>-2027919657</v>
       </c>
       <c r="B78" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>136</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>-1710946484</v>
+        <v>1603734146</v>
       </c>
       <c r="B79" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>138</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>-957768232</v>
+        <v>1578015567</v>
       </c>
       <c r="B80" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>139</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>-2034364172</v>
+        <v>121066623</v>
       </c>
       <c r="B81" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>140</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>-853281810</v>
+        <v>1042508882</v>
       </c>
       <c r="B82" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>141</v>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>-1945931504</v>
+        <v>1550044442</v>
       </c>
       <c r="B83" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>142</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-500020199</v>
+        <v>-1601995738</v>
       </c>
       <c r="B84" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>143</v>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>1757638406</v>
+        <v>689803379</v>
       </c>
       <c r="B85" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>144</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>1988261967</v>
+        <v>-1700944141</v>
       </c>
       <c r="B86" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>145</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>-995549749</v>
+        <v>-1877043637</v>
       </c>
       <c r="B87" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>146</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>-2065132448</v>
+        <v>-719724282</v>
       </c>
       <c r="B88" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>147</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>-469814560</v>
+        <v>1360323743</v>
       </c>
       <c r="B89" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>148</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>-1709480205</v>
+        <v>-1474911682</v>
       </c>
       <c r="B90" s="3">
-        <v>697093135</v>
+        <v>-1444934881</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>149</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>140739289</v>
+        <v>425013647</v>
       </c>
       <c r="B91" s="3">
-        <v>-1099268540</v>
+        <v>-2022286847</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>150</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>-1608487925</v>
+        <v>1676554808</v>
       </c>
       <c r="B92" s="3">
-        <v>-1099268540</v>
+        <v>-2022286847</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>152</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>2105748090</v>
+        <v>-796762034</v>
       </c>
       <c r="B93" s="3">
-        <v>-1099268540</v>
+        <v>-2022286847</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>153</v>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>789221405</v>
+        <v>-1316776220</v>
       </c>
       <c r="B94" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>154</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>1216959907</v>
+        <v>277979205</v>
       </c>
       <c r="B95" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>156</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>-476086870</v>
+        <v>1919604131</v>
       </c>
       <c r="B96" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>157</v>
@@ -3168,10 +3168,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>-838689769</v>
+        <v>1702547283</v>
       </c>
       <c r="B97" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>158</v>
@@ -3188,10 +3188,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>-1802325708</v>
+        <v>1105193015</v>
       </c>
       <c r="B98" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>159</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>1989727680</v>
+        <v>546083892</v>
       </c>
       <c r="B99" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>160</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>-1939875048</v>
+        <v>1528621569</v>
       </c>
       <c r="B100" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>161</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-1464485623</v>
+        <v>-480691239</v>
       </c>
       <c r="B101" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>162</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>-1951531947</v>
+        <v>374461401</v>
       </c>
       <c r="B102" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>163</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-1046567820</v>
+        <v>-344028800</v>
       </c>
       <c r="B103" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>164</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>1068522423</v>
+        <v>151954647</v>
       </c>
       <c r="B104" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>165</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>-300423134</v>
+        <v>1754457516</v>
       </c>
       <c r="B105" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>166</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>1006821704</v>
+        <v>-840038995</v>
       </c>
       <c r="B106" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>167</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>-807058300</v>
+        <v>-1102253271</v>
       </c>
       <c r="B107" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>168</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>861913762</v>
+        <v>-102546337</v>
       </c>
       <c r="B108" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>169</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>-754517366</v>
+        <v>1022704074</v>
       </c>
       <c r="B109" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>170</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>130754166</v>
+        <v>283675964</v>
       </c>
       <c r="B110" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>171</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>125947051</v>
+        <v>1734341358</v>
       </c>
       <c r="B111" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>172</v>
@@ -3468,10 +3468,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>-1770038881</v>
+        <v>522038903</v>
       </c>
       <c r="B112" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>173</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>-619684109</v>
+        <v>713569161</v>
       </c>
       <c r="B113" s="3">
-        <v>-1080227996</v>
+        <v>705154845</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>174</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>1129969276</v>
+        <v>352707684</v>
       </c>
       <c r="B114" s="3">
-        <v>1006479116</v>
+        <v>2113345403</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>175</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>2087578356</v>
+        <v>1081936585</v>
       </c>
       <c r="B115" s="3">
-        <v>1006479116</v>
+        <v>2113345403</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>177</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>-1682130970</v>
+        <v>-1423926974</v>
       </c>
       <c r="B116" s="3">
-        <v>1006479116</v>
+        <v>2113345403</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>178</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>-1517097132</v>
+        <v>1756433762</v>
       </c>
       <c r="B117" s="3">
-        <v>851451727</v>
+        <v>1418884778</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>179</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>-1065385250</v>
+        <v>1327235654</v>
       </c>
       <c r="B118" s="3">
-        <v>851451727</v>
+        <v>1418884778</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>181</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>1033151513</v>
+        <v>1392774641</v>
       </c>
       <c r="B119" s="3">
-        <v>851451727</v>
+        <v>1418884778</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>182</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>-2058283314</v>
+        <v>1248081603</v>
       </c>
       <c r="B120" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>183</v>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>2029688188</v>
+        <v>-884367125</v>
       </c>
       <c r="B121" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>185</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>-1469368861</v>
+        <v>-1374925568</v>
       </c>
       <c r="B122" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>186</v>
@@ -3688,10 +3688,10 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>-683434627</v>
+        <v>1131282004</v>
       </c>
       <c r="B123" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>187</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>1967723194</v>
+        <v>-666598943</v>
       </c>
       <c r="B124" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>188</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>1396964412</v>
+        <v>92374291</v>
       </c>
       <c r="B125" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>189</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>1716523581</v>
+        <v>53971024</v>
       </c>
       <c r="B126" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>190</v>
@@ -3768,10 +3768,10 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>1121214035</v>
+        <v>-1565252159</v>
       </c>
       <c r="B127" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>191</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>1691528606</v>
+        <v>1712553470</v>
       </c>
       <c r="B128" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>192</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-390587125</v>
+        <v>-1548619980</v>
       </c>
       <c r="B129" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>193</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>1704422050</v>
+        <v>-231157374</v>
       </c>
       <c r="B130" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>194</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>-1536911730</v>
+        <v>-1130549130</v>
       </c>
       <c r="B131" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>195</v>
@@ -3868,10 +3868,10 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>413905320</v>
+        <v>-1257989324</v>
       </c>
       <c r="B132" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>196</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>-48817825</v>
+        <v>541044580</v>
       </c>
       <c r="B133" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>197</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>-959482885</v>
+        <v>200105058</v>
       </c>
       <c r="B134" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>198</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>2073649712</v>
+        <v>-286983446</v>
       </c>
       <c r="B135" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>199</v>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>1029219947</v>
+        <v>-85889034</v>
       </c>
       <c r="B136" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>200</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-1791028253</v>
+        <v>-576142514</v>
       </c>
       <c r="B137" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>201</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-278736850</v>
+        <v>-5555738</v>
       </c>
       <c r="B138" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>202</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>64477520</v>
+        <v>215594686</v>
       </c>
       <c r="B139" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>203</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>1525107119</v>
+        <v>580013077</v>
       </c>
       <c r="B140" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>204</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>1894508942</v>
+        <v>1804744007</v>
       </c>
       <c r="B141" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>205</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>786946575</v>
+        <v>39754499</v>
       </c>
       <c r="B142" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>206</v>
@@ -4088,10 +4088,10 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>1743712584</v>
+        <v>-1045574237</v>
       </c>
       <c r="B143" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>207</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>-1666523598</v>
+        <v>414865758</v>
       </c>
       <c r="B144" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>208</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>-209439764</v>
+        <v>1602803674</v>
       </c>
       <c r="B145" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>209</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-1975734379</v>
+        <v>-1163434522</v>
       </c>
       <c r="B146" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>210</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>1273481327</v>
+        <v>-1683575332</v>
       </c>
       <c r="B147" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>211</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>785293368</v>
+        <v>-243777523</v>
       </c>
       <c r="B148" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>212</v>
@@ -4208,10 +4208,10 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>-594615111</v>
+        <v>-376154054</v>
       </c>
       <c r="B149" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>213</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>-509427602</v>
+        <v>975210565</v>
       </c>
       <c r="B150" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>214</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-522008429</v>
+        <v>-1317869811</v>
       </c>
       <c r="B151" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>215</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>1223491875</v>
+        <v>1986804785</v>
       </c>
       <c r="B152" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>216</v>
@@ -4288,10 +4288,10 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>1068025648</v>
+        <v>334355642</v>
       </c>
       <c r="B153" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>217</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>-1281428191</v>
+        <v>-1787033511</v>
       </c>
       <c r="B154" s="3">
-        <v>303790042</v>
+        <v>-108916229</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>218</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>559760484</v>
+        <v>1470451887</v>
       </c>
       <c r="B155" s="3">
-        <v>779000644</v>
+        <v>1642718431</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>219</v>
@@ -4348,10 +4348,10 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>1147450703</v>
+        <v>1204444926</v>
       </c>
       <c r="B156" s="3">
-        <v>779000644</v>
+        <v>1642718431</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>221</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>-555765293</v>
+        <v>-1506197240</v>
       </c>
       <c r="B157" s="3">
-        <v>779000644</v>
+        <v>1642718431</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>222</v>
@@ -4388,10 +4388,10 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>-1008309707</v>
+        <v>-172517515</v>
       </c>
       <c r="B158" s="3">
-        <v>779000644</v>
+        <v>1642718431</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>223</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>1649328148</v>
+        <v>-459587428</v>
       </c>
       <c r="B159" s="3">
-        <v>779000644</v>
+        <v>1642718431</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>224</v>
@@ -4428,10 +4428,10 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>1483365187</v>
+        <v>1324430925</v>
       </c>
       <c r="B160" s="3">
-        <v>779000644</v>
+        <v>1642718431</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>225</v>
@@ -4448,10 +4448,10 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>488959337</v>
+        <v>1713050779</v>
       </c>
       <c r="B161" s="3">
-        <v>1205799434</v>
+        <v>-947977773</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>226</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>-258823006</v>
+        <v>-414816571</v>
       </c>
       <c r="B162" s="3">
-        <v>1205799434</v>
+        <v>-947977773</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>228</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>-877025943</v>
+        <v>1514572565</v>
       </c>
       <c r="B163" s="3">
-        <v>1205799434</v>
+        <v>-947977773</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>229</v>
@@ -4508,10 +4508,10 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>-1928104510</v>
+        <v>551653409</v>
       </c>
       <c r="B164" s="3">
-        <v>1205799434</v>
+        <v>-947977773</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>230</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>233779722</v>
+        <v>-1858544396</v>
       </c>
       <c r="B165" s="3">
-        <v>1205799434</v>
+        <v>-947977773</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>231</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>575019724</v>
+        <v>-1551188406</v>
       </c>
       <c r="B166" s="3">
-        <v>1205799434</v>
+        <v>-947977773</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>232</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>-1924748440</v>
+        <v>771340272</v>
       </c>
       <c r="B167" s="3">
-        <v>1993197872</v>
+        <v>1638080128</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>233</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>1203732579</v>
+        <v>-2090817825</v>
       </c>
       <c r="B168" s="3">
-        <v>1753185237</v>
+        <v>-1078447488</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>235</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>-693953037</v>
+        <v>1989835044</v>
       </c>
       <c r="B169" s="3">
-        <v>1753185237</v>
+        <v>-1078447488</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>235</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>437101228</v>
+        <v>1052043934</v>
       </c>
       <c r="B170" s="3">
-        <v>1553275941</v>
+        <v>-1720585928</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>238</v>
@@ -4648,10 +4648,10 @@
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>1925488967</v>
+        <v>1108461878</v>
       </c>
       <c r="B171" s="3">
-        <v>417181438</v>
+        <v>-347142667</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>240</v>
@@ -4668,10 +4668,10 @@
     </row>
     <row r="172">
       <c r="A172" s="3">
-        <v>553737605</v>
+        <v>1661360036</v>
       </c>
       <c r="B172" s="3">
-        <v>-1422368536</v>
+        <v>862041518</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>242</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="173">
       <c r="A173" s="3">
-        <v>-593267104</v>
+        <v>43984874</v>
       </c>
       <c r="B173" s="3">
-        <v>-41951286</v>
+        <v>315457823</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>244</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="174">
       <c r="A174" s="3">
-        <v>1130140136</v>
+        <v>1000397029</v>
       </c>
       <c r="B174" s="3">
-        <v>498502262</v>
+        <v>2109814590</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>245</v>
@@ -4728,10 +4728,10 @@
     </row>
     <row r="175">
       <c r="A175" s="3">
-        <v>-1382448832</v>
+        <v>-963352690</v>
       </c>
       <c r="B175" s="3">
-        <v>2118059982</v>
+        <v>-362082228</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>247</v>
@@ -4748,10 +4748,10 @@
     </row>
     <row r="176">
       <c r="A176" s="3">
-        <v>139913362</v>
+        <v>357115443</v>
       </c>
       <c r="B176" s="3">
-        <v>2118059982</v>
+        <v>-362082228</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>249</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="177">
       <c r="A177" s="3">
-        <v>-901086922</v>
+        <v>-130311525</v>
       </c>
       <c r="B177" s="3">
-        <v>2118059982</v>
+        <v>-362082228</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>250</v>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="178">
       <c r="A178" s="3">
-        <v>2125618822</v>
+        <v>1282971839</v>
       </c>
       <c r="B178" s="3">
-        <v>-1278219496</v>
+        <v>661756464</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>251</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -86,7 +86,7 @@
     <t>.mat</t>
   </si>
   <si>
-    <t>o_1557600669</t>
+    <t>o_197227879</t>
   </si>
   <si>
     <t>SpriteAtlas</t>
@@ -95,19 +95,19 @@
     <t>.txt</t>
   </si>
   <si>
-    <t>o__487052643</t>
+    <t>o__310065364</t>
   </si>
   <si>
     <t>UIWindowPrefab</t>
   </si>
   <si>
-    <t>o__1273144601</t>
+    <t>o_1237780500</t>
   </si>
   <si>
     <t>xLuaScript.lua</t>
   </si>
   <si>
-    <t>x_1789163768</t>
+    <t>x__722044736</t>
   </si>
   <si>
     <t>FZY4JW_0</t>
@@ -116,7 +116,7 @@
     <t>.TTF</t>
   </si>
   <si>
-    <t>o__851409602</t>
+    <t>o_1044801315</t>
   </si>
   <si>
     <t>pf_hero_1002</t>
@@ -125,79 +125,79 @@
     <t>.prefab</t>
   </si>
   <si>
-    <t>s_1630584336_refdep</t>
+    <t>s__1144593552_refdep</t>
   </si>
   <si>
     <t>SpriteA</t>
   </si>
   <si>
-    <t>o_769480931</t>
+    <t>o_1474594549</t>
   </si>
   <si>
     <t>SpriteB</t>
   </si>
   <si>
-    <t>o__1680016180</t>
+    <t>o_965994598</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_01</t>
   </si>
   <si>
-    <t>o__815060178</t>
+    <t>o__1378509602</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_02</t>
   </si>
   <si>
-    <t>o_1186309812</t>
+    <t>o__1378475971</t>
   </si>
   <si>
     <t>fx_hero_1002_atk_03</t>
   </si>
   <si>
-    <t>o__2129840880</t>
+    <t>o__1378720740</t>
   </si>
   <si>
     <t>fx_hero_1002_die</t>
   </si>
   <si>
-    <t>o__1055532947</t>
+    <t>o_1383879220</t>
   </si>
   <si>
     <t>fx_hero_1002_Hit_a</t>
   </si>
   <si>
-    <t>o__1968842531</t>
+    <t>o__1813955979</t>
   </si>
   <si>
     <t>fx_hero_1002_Hit_b</t>
   </si>
   <si>
-    <t>o_1898973298</t>
+    <t>o_1972411366</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_01</t>
   </si>
   <si>
-    <t>o_1876408514</t>
+    <t>o_336125009</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_02_a</t>
   </si>
   <si>
-    <t>o_189095614</t>
+    <t>o__1020849986</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_02_b</t>
   </si>
   <si>
-    <t>o_1474660100</t>
+    <t>o__1020748581</t>
   </si>
   <si>
     <t>fx_hero_1002_skill_03</t>
   </si>
   <si>
-    <t>o_213460941</t>
+    <t>o_336336147</t>
   </si>
   <si>
     <t>Examplebx_map_pve_1</t>
@@ -206,79 +206,79 @@
     <t>.unity</t>
   </si>
   <si>
-    <t>s_1416246430</t>
+    <t>s_950724038</t>
   </si>
   <si>
     <t>ExampleCinemachine</t>
   </si>
   <si>
-    <t>s_50934161</t>
+    <t>s__1291135245</t>
   </si>
   <si>
     <t>ExampleEntityComponentSystem</t>
   </si>
   <si>
-    <t>s_1630584336</t>
+    <t>s__1144593552</t>
   </si>
   <si>
     <t>ExampleEventHandler</t>
   </si>
   <si>
-    <t>s__1165951341</t>
+    <t>s__516459733</t>
   </si>
   <si>
     <t>ExampleFMS</t>
   </si>
   <si>
-    <t>s__1291966950</t>
+    <t>s_1918424455</t>
   </si>
   <si>
     <t>ExampleGuide</t>
   </si>
   <si>
-    <t>s_443074821</t>
+    <t>s_1283098805</t>
   </si>
   <si>
     <t>ExampleProject</t>
   </si>
   <si>
-    <t>s__1850591926</t>
+    <t>s__673823202</t>
   </si>
   <si>
     <t>ExampleSkill</t>
   </si>
   <si>
-    <t>s__153728417</t>
+    <t>s__1013884030</t>
   </si>
   <si>
     <t>ExampleSQLite</t>
   </si>
   <si>
-    <t>s_1722673274</t>
+    <t>s_1905240525</t>
   </si>
   <si>
     <t>ExampleTerrain</t>
   </si>
   <si>
-    <t>s_1284747532</t>
+    <t>s_1800783742</t>
   </si>
   <si>
     <t>ExampleUIWindow</t>
   </si>
   <si>
-    <t>s_686100155</t>
+    <t>s_712230731</t>
   </si>
   <si>
     <t>ExampleXLS</t>
   </si>
   <si>
-    <t>s__649420598</t>
+    <t>s__1053711742</t>
   </si>
   <si>
     <t>ExampleXLua</t>
   </si>
   <si>
-    <t>s_1564539527</t>
+    <t>s_1347262715</t>
   </si>
   <si>
     <t>chgPowerCircle1</t>
@@ -287,31 +287,31 @@
     <t>.png</t>
   </si>
   <si>
-    <t>o__969753135</t>
+    <t>o_2140629704</t>
   </si>
   <si>
     <t>chgPowerCircle2</t>
   </si>
   <si>
-    <t>o__1209496598</t>
+    <t>o_1412547575</t>
   </si>
   <si>
     <t>chgPowerCircle3</t>
   </si>
   <si>
-    <t>o_1151283403</t>
+    <t>o_71831303</t>
   </si>
   <si>
     <t>effect_hero_foot</t>
   </si>
   <si>
-    <t>o_679522626</t>
+    <t>o__976662983</t>
   </si>
   <si>
     <t>ugui_loading</t>
   </si>
   <si>
-    <t>o__305476886</t>
+    <t>o_21136258</t>
   </si>
   <si>
     <t>LobbyBackground</t>
@@ -320,19 +320,19 @@
     <t>.jpg</t>
   </si>
   <si>
-    <t>o__119362433</t>
+    <t>o__1967246217</t>
   </si>
   <si>
     <t>ugui_login</t>
   </si>
   <si>
-    <t>o_745555661</t>
+    <t>o__680664596</t>
   </si>
   <si>
     <t>battle_camp_blue</t>
   </si>
   <si>
-    <t>sp_2133995742</t>
+    <t>sp_1938100083</t>
   </si>
   <si>
     <t>battle_camp_purple</t>
@@ -434,7 +434,7 @@
     <t>SkillShape_Circle</t>
   </si>
   <si>
-    <t>sp__1403779810</t>
+    <t>sp__1914656521</t>
   </si>
   <si>
     <t>SkillShape_Line</t>
@@ -446,7 +446,7 @@
     <t>hero_show_attack</t>
   </si>
   <si>
-    <t>sp_1310775785</t>
+    <t>sp_1203424015</t>
   </si>
   <si>
     <t>hero_show_back</t>
@@ -488,7 +488,7 @@
     <t>loading_item</t>
   </si>
   <si>
-    <t>sp_1421592450</t>
+    <t>sp_174399255</t>
   </si>
   <si>
     <t>loading_other</t>
@@ -500,7 +500,7 @@
     <t>lobby_achieve</t>
   </si>
   <si>
-    <t>sp_2053582174</t>
+    <t>sp_154700343</t>
   </si>
   <si>
     <t>lobby_activity</t>
@@ -563,7 +563,7 @@
     <t>login_btn_login</t>
   </si>
   <si>
-    <t>sp__2093171997</t>
+    <t>sp__771861865</t>
   </si>
   <si>
     <t>login_dian</t>
@@ -575,7 +575,7 @@
     <t>match_job</t>
   </si>
   <si>
-    <t>sp_1283515754</t>
+    <t>sp__1330209705</t>
   </si>
   <si>
     <t>match_player</t>
@@ -587,7 +587,7 @@
     <t>share_add</t>
   </si>
   <si>
-    <t>sp_1367851697</t>
+    <t>sp_1372312023</t>
   </si>
   <si>
     <t>share_bg</t>
@@ -695,7 +695,7 @@
     <t>shop_item_bg</t>
   </si>
   <si>
-    <t>sp_385676412</t>
+    <t>sp__1609825461</t>
   </si>
   <si>
     <t>shop_other1</t>
@@ -716,7 +716,7 @@
     <t>Skill100204</t>
   </si>
   <si>
-    <t>sp_1407422847</t>
+    <t>sp_997746071</t>
   </si>
   <si>
     <t>Skill100205</t>
@@ -737,7 +737,7 @@
     <t>Terrain</t>
   </si>
   <si>
-    <t>o__152814526</t>
+    <t>o_1446354034</t>
   </si>
   <si>
     <t>ExampleCinemachine_DollyCartTimeline</t>
@@ -746,25 +746,25 @@
     <t>.playable</t>
   </si>
   <si>
-    <t>s_50934161_refdep</t>
+    <t>s__1291135245_refdep</t>
   </si>
   <si>
     <t>ExampleGuideWindow</t>
   </si>
   <si>
-    <t>o_563363050</t>
+    <t>o_1083931819</t>
   </si>
   <si>
     <t>ExampleHeroListWindow</t>
   </si>
   <si>
-    <t>o__1189007705</t>
+    <t>o_1766871015</t>
   </si>
   <si>
     <t>ExampleLobbyWindow</t>
   </si>
   <si>
-    <t>o_1317630960</t>
+    <t>o_487304043</t>
   </si>
   <si>
     <t>ExampleMessageBoxWindow</t>
@@ -773,13 +773,13 @@
     <t>ExamplePlayerListWindow</t>
   </si>
   <si>
-    <t>s_686100155_refdep</t>
+    <t>s_712230731_refdep</t>
   </si>
   <si>
     <t>ExampleTestXLuaLevelCube.lua</t>
   </si>
   <si>
-    <t>x_1146042984</t>
+    <t>x__652273228</t>
   </si>
   <si>
     <t>ExampleXLuaLevel.lua</t>
@@ -791,7 +791,7 @@
     <t>ExampleHeroListWindow.lua</t>
   </si>
   <si>
-    <t>x_1961806792</t>
+    <t>x__1140577710</t>
   </si>
 </sst>
 </file>
@@ -1308,10 +1308,10 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>-902006492</v>
+        <v>-1388105411</v>
       </c>
       <c r="B4" s="3">
-        <v>911802018</v>
+        <v>-407640863</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>15</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>709769753</v>
+        <v>1787210896</v>
       </c>
       <c r="B5" s="3">
-        <v>-869938189</v>
+        <v>-690277213</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="6">
       <c r="A6" s="3">
-        <v>323168436</v>
+        <v>-1367067612</v>
       </c>
       <c r="B6" s="3">
-        <v>-1829266007</v>
+        <v>-1848215035</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1368,10 +1368,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3">
-        <v>2059770990</v>
+        <v>1930332635</v>
       </c>
       <c r="B7" s="3">
-        <v>-1872478931</v>
+        <v>-217314462</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>23</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3">
-        <v>-978356814</v>
+        <v>1435839211</v>
       </c>
       <c r="B8" s="3">
-        <v>-2129202802</v>
+        <v>833541447</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>25</v>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>-1875108754</v>
+        <v>801223849</v>
       </c>
       <c r="B9" s="3">
-        <v>-528577065</v>
+        <v>-54790966</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>1582715575</v>
+        <v>-1156656118</v>
       </c>
       <c r="B10" s="3">
-        <v>-1480342890</v>
+        <v>-564773012</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>31</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>323954736</v>
+        <v>-1156689749</v>
       </c>
       <c r="B11" s="3">
-        <v>-1480342890</v>
+        <v>-564773012</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>33</v>
@@ -1468,10 +1468,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>162995447</v>
+        <v>1379737790</v>
       </c>
       <c r="B12" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>35</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>2127699127</v>
+        <v>1379771421</v>
       </c>
       <c r="B13" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>37</v>
@@ -1508,10 +1508,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3">
-        <v>-1642134296</v>
+        <v>1379526652</v>
       </c>
       <c r="B14" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>39</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3">
-        <v>-1642924925</v>
+        <v>-317450972</v>
       </c>
       <c r="B15" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>41</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>-1745397349</v>
+        <v>-1438158203</v>
       </c>
       <c r="B16" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>1152017315</v>
+        <v>-1946758154</v>
       </c>
       <c r="B17" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>45</v>
@@ -1588,10 +1588,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3">
-        <v>1052684117</v>
+        <v>-177756055</v>
       </c>
       <c r="B18" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>47</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>-1174249820</v>
+        <v>2004023454</v>
       </c>
       <c r="B19" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>49</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>-1358424926</v>
+        <v>2004124859</v>
       </c>
       <c r="B20" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>51</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>168561493</v>
+        <v>-177544917</v>
       </c>
       <c r="B21" s="3">
-        <v>-1403317264</v>
+        <v>-138886169</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>53</v>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>-302691525</v>
+        <v>1161092058</v>
       </c>
       <c r="B22" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>55</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>451131340</v>
+        <v>534469369</v>
       </c>
       <c r="B23" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>58</v>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>435454083</v>
+        <v>-686428000</v>
       </c>
       <c r="B24" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>60</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3">
-        <v>371670108</v>
+        <v>-971500035</v>
       </c>
       <c r="B25" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>62</v>
@@ -1748,10 +1748,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3">
-        <v>1902359108</v>
+        <v>1020262985</v>
       </c>
       <c r="B26" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>64</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>340213265</v>
+        <v>640045995</v>
       </c>
       <c r="B27" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>66</v>
@@ -1788,10 +1788,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3">
-        <v>-577212482</v>
+        <v>-189806610</v>
       </c>
       <c r="B28" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>68</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3">
-        <v>-762567759</v>
+        <v>-1145710254</v>
       </c>
       <c r="B29" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>70</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>923058600</v>
+        <v>1200342331</v>
       </c>
       <c r="B30" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>72</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>-1015004762</v>
+        <v>-1041502226</v>
       </c>
       <c r="B31" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>74</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>-1201119041</v>
+        <v>-199355911</v>
       </c>
       <c r="B32" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>76</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>1553652121</v>
+        <v>-697780410</v>
       </c>
       <c r="B33" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>78</v>
@@ -1908,10 +1908,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>-532736098</v>
+        <v>708626965</v>
       </c>
       <c r="B34" s="3">
-        <v>2045359390</v>
+        <v>-604696863</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>80</v>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>109872098</v>
+        <v>258133027</v>
       </c>
       <c r="B35" s="3">
-        <v>-1137916888</v>
+        <v>-709248962</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>82</v>
@@ -1948,10 +1948,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3">
-        <v>-1687673674</v>
+        <v>258127654</v>
       </c>
       <c r="B36" s="3">
-        <v>-1137916888</v>
+        <v>-709248962</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>85</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3">
-        <v>-1785129806</v>
+        <v>258126629</v>
       </c>
       <c r="B37" s="3">
-        <v>-1137916888</v>
+        <v>-709248962</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>87</v>
@@ -1988,10 +1988,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3">
-        <v>-920458835</v>
+        <v>356929728</v>
       </c>
       <c r="B38" s="3">
-        <v>-1137916888</v>
+        <v>-709248962</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>89</v>
@@ -2008,10 +2008,10 @@
     </row>
     <row r="39">
       <c r="A39" s="3">
-        <v>-40051401</v>
+        <v>131035578</v>
       </c>
       <c r="B39" s="3">
-        <v>-1180586041</v>
+        <v>-1306576225</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>91</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>845111156</v>
+        <v>1798115627</v>
       </c>
       <c r="B40" s="3">
-        <v>-508042415</v>
+        <v>2077842219</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>93</v>
@@ -2048,10 +2048,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>-164331629</v>
+        <v>1467879321</v>
       </c>
       <c r="B41" s="3">
-        <v>-487912482</v>
+        <v>-321661972</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>96</v>
@@ -2068,10 +2068,10 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>-1540941336</v>
+        <v>1100204808</v>
       </c>
       <c r="B42" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>98</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>1117881050</v>
+        <v>1223084798</v>
       </c>
       <c r="B43" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>100</v>
@@ -2108,10 +2108,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>667828386</v>
+        <v>1182875468</v>
       </c>
       <c r="B44" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>101</v>
@@ -2128,10 +2128,10 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>126720779</v>
+        <v>-1702961178</v>
       </c>
       <c r="B45" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>102</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>-400206033</v>
+        <v>97773808</v>
       </c>
       <c r="B46" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>103</v>
@@ -2168,10 +2168,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>-1832565251</v>
+        <v>782400400</v>
       </c>
       <c r="B47" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>104</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>1203610682</v>
+        <v>-1346459162</v>
       </c>
       <c r="B48" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>105</v>
@@ -2208,10 +2208,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>1155641112</v>
+        <v>1695948152</v>
       </c>
       <c r="B49" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>106</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>-1194401921</v>
+        <v>-1117414580</v>
       </c>
       <c r="B50" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>107</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>537945557</v>
+        <v>-438892770</v>
       </c>
       <c r="B51" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>108</v>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>5210269</v>
+        <v>-623397646</v>
       </c>
       <c r="B52" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>109</v>
@@ -2288,10 +2288,10 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>772840734</v>
+        <v>1900173452</v>
       </c>
       <c r="B53" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>110</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>632497572</v>
+        <v>1914480745</v>
       </c>
       <c r="B54" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>111</v>
@@ -2328,10 +2328,10 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>-514822557</v>
+        <v>1186398616</v>
       </c>
       <c r="B55" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>112</v>
@@ -2348,10 +2348,10 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>1768424156</v>
+        <v>-2026839501</v>
       </c>
       <c r="B56" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>113</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>890077213</v>
+        <v>-1652404422</v>
       </c>
       <c r="B57" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>114</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>1726725146</v>
+        <v>-118978920</v>
       </c>
       <c r="B58" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>115</v>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>-1739134230</v>
+        <v>-437890570</v>
       </c>
       <c r="B59" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>116</v>
@@ -2428,10 +2428,10 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>-699668111</v>
+        <v>1899218305</v>
       </c>
       <c r="B60" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>117</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>-537669156</v>
+        <v>1277018396</v>
       </c>
       <c r="B61" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>118</v>
@@ -2468,10 +2468,10 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>810567011</v>
+        <v>-2074537620</v>
       </c>
       <c r="B62" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>119</v>
@@ -2488,10 +2488,10 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>451919957</v>
+        <v>-212196520</v>
       </c>
       <c r="B63" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>120</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>-629311903</v>
+        <v>1808967807</v>
       </c>
       <c r="B64" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>121</v>
@@ -2528,10 +2528,10 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>-7302606</v>
+        <v>19901444</v>
       </c>
       <c r="B65" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>122</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>392259139</v>
+        <v>907743543</v>
       </c>
       <c r="B66" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>123</v>
@@ -2568,10 +2568,10 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>-1298237969</v>
+        <v>-1913048551</v>
       </c>
       <c r="B67" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>124</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>2064412873</v>
+        <v>-1076143552</v>
       </c>
       <c r="B68" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>125</v>
@@ -2608,10 +2608,10 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>301836463</v>
+        <v>1802534463</v>
       </c>
       <c r="B69" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>126</v>
@@ -2628,10 +2628,10 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>371449644</v>
+        <v>-1935905474</v>
       </c>
       <c r="B70" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>127</v>
@@ -2648,10 +2648,10 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>-1061880150</v>
+        <v>-939641839</v>
       </c>
       <c r="B71" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>128</v>
@@ -2668,10 +2668,10 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>-20694808</v>
+        <v>1605040461</v>
       </c>
       <c r="B72" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>129</v>
@@ -2688,10 +2688,10 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>1810830109</v>
+        <v>1864079938</v>
       </c>
       <c r="B73" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>130</v>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>1231400967</v>
+        <v>-397812777</v>
       </c>
       <c r="B74" s="3">
-        <v>-810737161</v>
+        <v>1818256112</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>131</v>
@@ -2728,10 +2728,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>1175995162</v>
+        <v>764015412</v>
       </c>
       <c r="B75" s="3">
-        <v>-2026926156</v>
+        <v>1491052087</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>132</v>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>-1446297861</v>
+        <v>957664066</v>
       </c>
       <c r="B76" s="3">
-        <v>-2026926156</v>
+        <v>1491052087</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>134</v>
@@ -2768,10 +2768,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>1257693154</v>
+        <v>718574578</v>
       </c>
       <c r="B77" s="3">
-        <v>-2026926156</v>
+        <v>1491052087</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>135</v>
@@ -2788,10 +2788,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>-2027919657</v>
+        <v>-1881786878</v>
       </c>
       <c r="B78" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>136</v>
@@ -2808,10 +2808,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>1603734146</v>
+        <v>1415271091</v>
       </c>
       <c r="B79" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>138</v>
@@ -2828,10 +2828,10 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>1578015567</v>
+        <v>-629659239</v>
       </c>
       <c r="B80" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>139</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>121066623</v>
+        <v>1898245226</v>
       </c>
       <c r="B81" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>140</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>1042508882</v>
+        <v>2118264085</v>
       </c>
       <c r="B82" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>141</v>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>1550044442</v>
+        <v>872946844</v>
       </c>
       <c r="B83" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>142</v>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>-1601995738</v>
+        <v>-236214166</v>
       </c>
       <c r="B84" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>143</v>
@@ -2928,10 +2928,10 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>689803379</v>
+        <v>2102956663</v>
       </c>
       <c r="B85" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>144</v>
@@ -2948,10 +2948,10 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>-1700944141</v>
+        <v>-1400768882</v>
       </c>
       <c r="B86" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>145</v>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>-1877043637</v>
+        <v>-153403847</v>
       </c>
       <c r="B87" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>146</v>
@@ -2988,10 +2988,10 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>-719724282</v>
+        <v>1648923419</v>
       </c>
       <c r="B88" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>147</v>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>1360323743</v>
+        <v>207538391</v>
       </c>
       <c r="B89" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>148</v>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>-1474911682</v>
+        <v>764266871</v>
       </c>
       <c r="B90" s="3">
-        <v>-1444934881</v>
+        <v>-1906462643</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>149</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>425013647</v>
+        <v>2146751871</v>
       </c>
       <c r="B91" s="3">
-        <v>-2022286847</v>
+        <v>-1842992926</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>150</v>
@@ -3068,10 +3068,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>1676554808</v>
+        <v>1466697674</v>
       </c>
       <c r="B92" s="3">
-        <v>-2022286847</v>
+        <v>-1842992926</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>152</v>
@@ -3088,10 +3088,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>-796762034</v>
+        <v>-2051287461</v>
       </c>
       <c r="B93" s="3">
-        <v>-2022286847</v>
+        <v>-1842992926</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>153</v>
@@ -3108,10 +3108,10 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>-1316776220</v>
+        <v>1874789539</v>
       </c>
       <c r="B94" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>154</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>277979205</v>
+        <v>-84787065</v>
       </c>
       <c r="B95" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>156</v>
@@ -3148,10 +3148,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>1919604131</v>
+        <v>690423251</v>
       </c>
       <c r="B96" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>157</v>
@@ -3168,10 +3168,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>1702547283</v>
+        <v>-2041446612</v>
       </c>
       <c r="B97" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>158</v>
@@ -3188,10 +3188,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>1105193015</v>
+        <v>-1203758685</v>
       </c>
       <c r="B98" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>159</v>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>546083892</v>
+        <v>-410230546</v>
       </c>
       <c r="B99" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>160</v>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>1528621569</v>
+        <v>-556076432</v>
       </c>
       <c r="B100" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>161</v>
@@ -3248,10 +3248,10 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>-480691239</v>
+        <v>578388114</v>
       </c>
       <c r="B101" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>162</v>
@@ -3268,10 +3268,10 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>374461401</v>
+        <v>-2098015814</v>
       </c>
       <c r="B102" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>163</v>
@@ -3288,10 +3288,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>-344028800</v>
+        <v>-1777889193</v>
       </c>
       <c r="B103" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>164</v>
@@ -3308,10 +3308,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>151954647</v>
+        <v>-1432576793</v>
       </c>
       <c r="B104" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>165</v>
@@ -3328,10 +3328,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>1754457516</v>
+        <v>1218267872</v>
       </c>
       <c r="B105" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>166</v>
@@ -3348,10 +3348,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>-840038995</v>
+        <v>1978496365</v>
       </c>
       <c r="B106" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>167</v>
@@ -3368,10 +3368,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>-1102253271</v>
+        <v>-1542274896</v>
       </c>
       <c r="B107" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>168</v>
@@ -3388,10 +3388,10 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>-102546337</v>
+        <v>-1542280269</v>
       </c>
       <c r="B108" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>169</v>
@@ -3408,10 +3408,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>1022704074</v>
+        <v>-860403005</v>
       </c>
       <c r="B109" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>170</v>
@@ -3428,10 +3428,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>283675964</v>
+        <v>1540956799</v>
       </c>
       <c r="B110" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>171</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>1734341358</v>
+        <v>1466141184</v>
       </c>
       <c r="B111" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>172</v>
@@ -3468,10 +3468,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>522038903</v>
+        <v>1583315381</v>
       </c>
       <c r="B112" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>173</v>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>713569161</v>
+        <v>-1389171130</v>
       </c>
       <c r="B113" s="3">
-        <v>705154845</v>
+        <v>1040554598</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>174</v>
@@ -3508,10 +3508,10 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>352707684</v>
+        <v>904284787</v>
       </c>
       <c r="B114" s="3">
-        <v>2113345403</v>
+        <v>281039821</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>175</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>1081936585</v>
+        <v>811715649</v>
       </c>
       <c r="B115" s="3">
-        <v>2113345403</v>
+        <v>281039821</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>177</v>
@@ -3548,10 +3548,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>-1423926974</v>
+        <v>588507670</v>
       </c>
       <c r="B116" s="3">
-        <v>2113345403</v>
+        <v>281039821</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>178</v>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>1756433762</v>
+        <v>-487499842</v>
       </c>
       <c r="B117" s="3">
-        <v>1418884778</v>
+        <v>1242333133</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>179</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>1327235654</v>
+        <v>2054057256</v>
       </c>
       <c r="B118" s="3">
-        <v>1418884778</v>
+        <v>1242333133</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>181</v>
@@ -3608,10 +3608,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>1392774641</v>
+        <v>1643416934</v>
       </c>
       <c r="B119" s="3">
-        <v>1418884778</v>
+        <v>1242333133</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>182</v>
@@ -3628,10 +3628,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>1248081603</v>
+        <v>759021524</v>
       </c>
       <c r="B120" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>183</v>
@@ -3648,10 +3648,10 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>-884367125</v>
+        <v>1188991776</v>
       </c>
       <c r="B121" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>185</v>
@@ -3668,10 +3668,10 @@
     </row>
     <row r="122">
       <c r="A122" s="3">
-        <v>-1374925568</v>
+        <v>-1485492935</v>
       </c>
       <c r="B122" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>186</v>
@@ -3688,10 +3688,10 @@
     </row>
     <row r="123">
       <c r="A123" s="3">
-        <v>1131282004</v>
+        <v>-1485493960</v>
       </c>
       <c r="B123" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>187</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>-666598943</v>
+        <v>-1485486537</v>
       </c>
       <c r="B124" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>188</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>92374291</v>
+        <v>-926931866</v>
       </c>
       <c r="B125" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>189</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>53971024</v>
+        <v>-2051314105</v>
       </c>
       <c r="B126" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>190</v>
@@ -3768,10 +3768,10 @@
     </row>
     <row r="127">
       <c r="A127" s="3">
-        <v>-1565252159</v>
+        <v>1533017876</v>
       </c>
       <c r="B127" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>191</v>
@@ -3788,10 +3788,10 @@
     </row>
     <row r="128">
       <c r="A128" s="3">
-        <v>1712553470</v>
+        <v>1533018901</v>
       </c>
       <c r="B128" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>192</v>
@@ -3808,10 +3808,10 @@
     </row>
     <row r="129">
       <c r="A129" s="3">
-        <v>-1548619980</v>
+        <v>120417479</v>
       </c>
       <c r="B129" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>193</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="130">
       <c r="A130" s="3">
-        <v>-231157374</v>
+        <v>-1850748379</v>
       </c>
       <c r="B130" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>194</v>
@@ -3848,10 +3848,10 @@
     </row>
     <row r="131">
       <c r="A131" s="3">
-        <v>-1130549130</v>
+        <v>-1086921391</v>
       </c>
       <c r="B131" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>195</v>
@@ -3868,10 +3868,10 @@
     </row>
     <row r="132">
       <c r="A132" s="3">
-        <v>-1257989324</v>
+        <v>-674355388</v>
       </c>
       <c r="B132" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>196</v>
@@ -3888,10 +3888,10 @@
     </row>
     <row r="133">
       <c r="A133" s="3">
-        <v>541044580</v>
+        <v>-386948456</v>
       </c>
       <c r="B133" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>197</v>
@@ -3908,10 +3908,10 @@
     </row>
     <row r="134">
       <c r="A134" s="3">
-        <v>200105058</v>
+        <v>-2130123077</v>
       </c>
       <c r="B134" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>198</v>
@@ -3928,10 +3928,10 @@
     </row>
     <row r="135">
       <c r="A135" s="3">
-        <v>-286983446</v>
+        <v>1202505943</v>
       </c>
       <c r="B135" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>199</v>
@@ -3948,10 +3948,10 @@
     </row>
     <row r="136">
       <c r="A136" s="3">
-        <v>-85889034</v>
+        <v>932878309</v>
       </c>
       <c r="B136" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>200</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="137">
       <c r="A137" s="3">
-        <v>-576142514</v>
+        <v>-1594240518</v>
       </c>
       <c r="B137" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>201</v>
@@ -3988,10 +3988,10 @@
     </row>
     <row r="138">
       <c r="A138" s="3">
-        <v>-5555738</v>
+        <v>-866158389</v>
       </c>
       <c r="B138" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>202</v>
@@ -4008,10 +4008,10 @@
     </row>
     <row r="139">
       <c r="A139" s="3">
-        <v>215594686</v>
+        <v>-1947887568</v>
       </c>
       <c r="B139" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>203</v>
@@ -4028,10 +4028,10 @@
     </row>
     <row r="140">
       <c r="A140" s="3">
-        <v>580013077</v>
+        <v>-1815085823</v>
       </c>
       <c r="B140" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>204</v>
@@ -4048,10 +4048,10 @@
     </row>
     <row r="141">
       <c r="A141" s="3">
-        <v>1804744007</v>
+        <v>-1293236513</v>
       </c>
       <c r="B141" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>205</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="142">
       <c r="A142" s="3">
-        <v>39754499</v>
+        <v>-740414262</v>
       </c>
       <c r="B142" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>206</v>
@@ -4088,10 +4088,10 @@
     </row>
     <row r="143">
       <c r="A143" s="3">
-        <v>-1045574237</v>
+        <v>-1609963338</v>
       </c>
       <c r="B143" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>207</v>
@@ -4108,10 +4108,10 @@
     </row>
     <row r="144">
       <c r="A144" s="3">
-        <v>414865758</v>
+        <v>553588775</v>
       </c>
       <c r="B144" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>208</v>
@@ -4128,10 +4128,10 @@
     </row>
     <row r="145">
       <c r="A145" s="3">
-        <v>1602803674</v>
+        <v>583205902</v>
       </c>
       <c r="B145" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>209</v>
@@ -4148,10 +4148,10 @@
     </row>
     <row r="146">
       <c r="A146" s="3">
-        <v>-1163434522</v>
+        <v>-608772870</v>
       </c>
       <c r="B146" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>210</v>
@@ -4168,10 +4168,10 @@
     </row>
     <row r="147">
       <c r="A147" s="3">
-        <v>-1683575332</v>
+        <v>-1987898859</v>
       </c>
       <c r="B147" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>211</v>
@@ -4188,10 +4188,10 @@
     </row>
     <row r="148">
       <c r="A148" s="3">
-        <v>-243777523</v>
+        <v>909548793</v>
       </c>
       <c r="B148" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>212</v>
@@ -4208,10 +4208,10 @@
     </row>
     <row r="149">
       <c r="A149" s="3">
-        <v>-376154054</v>
+        <v>-175566618</v>
       </c>
       <c r="B149" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>213</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="150">
       <c r="A150" s="3">
-        <v>975210565</v>
+        <v>-1623541089</v>
       </c>
       <c r="B150" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>214</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="151">
       <c r="A151" s="3">
-        <v>-1317869811</v>
+        <v>1642216903</v>
       </c>
       <c r="B151" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>215</v>
@@ -4268,10 +4268,10 @@
     </row>
     <row r="152">
       <c r="A152" s="3">
-        <v>1986804785</v>
+        <v>296312644</v>
       </c>
       <c r="B152" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>216</v>
@@ -4288,10 +4288,10 @@
     </row>
     <row r="153">
       <c r="A153" s="3">
-        <v>334355642</v>
+        <v>726731315</v>
       </c>
       <c r="B153" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>217</v>
@@ -4308,10 +4308,10 @@
     </row>
     <row r="154">
       <c r="A154" s="3">
-        <v>-1787033511</v>
+        <v>677679944</v>
       </c>
       <c r="B154" s="3">
-        <v>-108916229</v>
+        <v>-2024372685</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>218</v>
@@ -4328,10 +4328,10 @@
     </row>
     <row r="155">
       <c r="A155" s="3">
-        <v>1470451887</v>
+        <v>-1230692653</v>
       </c>
       <c r="B155" s="3">
-        <v>1642718431</v>
+        <v>1794619554</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>219</v>
@@ -4348,10 +4348,10 @@
     </row>
     <row r="156">
       <c r="A156" s="3">
-        <v>1204444926</v>
+        <v>-1762747783</v>
       </c>
       <c r="B156" s="3">
-        <v>1642718431</v>
+        <v>1794619554</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>221</v>
@@ -4368,10 +4368,10 @@
     </row>
     <row r="157">
       <c r="A157" s="3">
-        <v>-1506197240</v>
+        <v>-1762746758</v>
       </c>
       <c r="B157" s="3">
-        <v>1642718431</v>
+        <v>1794619554</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>222</v>
@@ -4388,10 +4388,10 @@
     </row>
     <row r="158">
       <c r="A158" s="3">
-        <v>-172517515</v>
+        <v>-1762745733</v>
       </c>
       <c r="B158" s="3">
-        <v>1642718431</v>
+        <v>1794619554</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>223</v>
@@ -4408,10 +4408,10 @@
     </row>
     <row r="159">
       <c r="A159" s="3">
-        <v>-459587428</v>
+        <v>-1762753156</v>
       </c>
       <c r="B159" s="3">
-        <v>1642718431</v>
+        <v>1794619554</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>224</v>
@@ -4428,10 +4428,10 @@
     </row>
     <row r="160">
       <c r="A160" s="3">
-        <v>1324430925</v>
+        <v>-1762752131</v>
       </c>
       <c r="B160" s="3">
-        <v>1642718431</v>
+        <v>1794619554</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>225</v>
@@ -4448,10 +4448,10 @@
     </row>
     <row r="161">
       <c r="A161" s="3">
-        <v>1713050779</v>
+        <v>2138332369</v>
       </c>
       <c r="B161" s="3">
-        <v>-947977773</v>
+        <v>-1043141469</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>226</v>
@@ -4468,10 +4468,10 @@
     </row>
     <row r="162">
       <c r="A162" s="3">
-        <v>-414816571</v>
+        <v>2138333394</v>
       </c>
       <c r="B162" s="3">
-        <v>-947977773</v>
+        <v>-1043141469</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>228</v>
@@ -4488,10 +4488,10 @@
     </row>
     <row r="163">
       <c r="A163" s="3">
-        <v>1514572565</v>
+        <v>2138338767</v>
       </c>
       <c r="B163" s="3">
-        <v>-947977773</v>
+        <v>-1043141469</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>229</v>
@@ -4508,10 +4508,10 @@
     </row>
     <row r="164">
       <c r="A164" s="3">
-        <v>551653409</v>
+        <v>2138539155</v>
       </c>
       <c r="B164" s="3">
-        <v>-947977773</v>
+        <v>-1043141469</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>230</v>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="165">
       <c r="A165" s="3">
-        <v>-1858544396</v>
+        <v>2138540180</v>
       </c>
       <c r="B165" s="3">
-        <v>-947977773</v>
+        <v>-1043141469</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>231</v>
@@ -4548,10 +4548,10 @@
     </row>
     <row r="166">
       <c r="A166" s="3">
-        <v>-1551188406</v>
+        <v>2138541205</v>
       </c>
       <c r="B166" s="3">
-        <v>-947977773</v>
+        <v>-1043141469</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>232</v>
@@ -4568,10 +4568,10 @@
     </row>
     <row r="167">
       <c r="A167" s="3">
-        <v>771340272</v>
+        <v>1070431175</v>
       </c>
       <c r="B167" s="3">
-        <v>1638080128</v>
+        <v>1555904384</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>233</v>
@@ -4588,10 +4588,10 @@
     </row>
     <row r="168">
       <c r="A168" s="3">
-        <v>-2090817825</v>
+        <v>1430999372</v>
       </c>
       <c r="B168" s="3">
-        <v>-1078447488</v>
+        <v>-1762047952</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>235</v>
@@ -4608,10 +4608,10 @@
     </row>
     <row r="169">
       <c r="A169" s="3">
-        <v>1989835044</v>
+        <v>-928229920</v>
       </c>
       <c r="B169" s="3">
-        <v>-1078447488</v>
+        <v>-1762047952</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>235</v>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="170">
       <c r="A170" s="3">
-        <v>1052043934</v>
+        <v>-594678200</v>
       </c>
       <c r="B170" s="3">
-        <v>-1720585928</v>
+        <v>-1586573444</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>238</v>
@@ -4648,10 +4648,10 @@
     </row>
     <row r="171">
       <c r="A171" s="3">
-        <v>1108461878</v>
+        <v>-445507712</v>
       </c>
       <c r="B171" s="3">
-        <v>-347142667</v>
+        <v>-773123988</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>240</v>
@@ -4668,10 +4668,10 @@
     </row>
     <row r="172">
       <c r="A172" s="3">
-        <v>1661360036</v>
+        <v>-446825264</v>
       </c>
       <c r="B172" s="3">
-        <v>862041518</v>
+        <v>-981518740</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>242</v>
@@ -4688,10 +4688,10 @@
     </row>
     <row r="173">
       <c r="A173" s="3">
-        <v>43984874</v>
+        <v>-1903962988</v>
       </c>
       <c r="B173" s="3">
-        <v>315457823</v>
+        <v>679003640</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>244</v>
@@ -4708,10 +4708,10 @@
     </row>
     <row r="174">
       <c r="A174" s="3">
-        <v>1000397029</v>
+        <v>-600084579</v>
       </c>
       <c r="B174" s="3">
-        <v>2109814590</v>
+        <v>-392477947</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>245</v>
@@ -4728,10 +4728,10 @@
     </row>
     <row r="175">
       <c r="A175" s="3">
-        <v>-963352690</v>
+        <v>-824851563</v>
       </c>
       <c r="B175" s="3">
-        <v>-362082228</v>
+        <v>764955609</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>247</v>
@@ -4748,10 +4748,10 @@
     </row>
     <row r="176">
       <c r="A176" s="3">
-        <v>357115443</v>
+        <v>1181717926</v>
       </c>
       <c r="B176" s="3">
-        <v>-362082228</v>
+        <v>764955609</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>249</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="177">
       <c r="A177" s="3">
-        <v>-130311525</v>
+        <v>-9716690</v>
       </c>
       <c r="B177" s="3">
-        <v>-362082228</v>
+        <v>764955609</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>250</v>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="178">
       <c r="A178" s="3">
-        <v>1282971839</v>
+        <v>-1437778274</v>
       </c>
       <c r="B178" s="3">
-        <v>661756464</v>
+        <v>-887612720</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>251</v>

--- a/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
+++ b/Assets/Game/Editor/XLS_Config/AssetDiskMapingFile.xlsx
@@ -764,7 +764,7 @@
     <t>ExampleLobbyWindow</t>
   </si>
   <si>
-    <t>o_487304043</t>
+    <t>s_1283098805_refdep</t>
   </si>
   <si>
     <t>ExampleMessageBoxWindow</t>
